--- a/Linux Distros with data.xlsx
+++ b/Linux Distros with data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\OneDrive\Desktop\UniversityClass\Network-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060CB60F-D132-42A2-B43B-39347D067E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8108672-4A94-4936-B548-5CBD1064E594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" firstSheet="4" activeTab="5" xr2:uid="{F5095998-FB35-4E9E-85F6-D0ED8325105E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F5095998-FB35-4E9E-85F6-D0ED8325105E}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical" sheetId="4" r:id="rId1"/>
@@ -40,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3428" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="958">
   <si>
     <t>None</t>
   </si>
@@ -5816,13 +5838,16 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Parent Parent's</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5901,6 +5926,12 @@
       <i/>
       <sz val="7.5"/>
       <color rgb="FF202122"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF6E7076"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -6044,7 +6075,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6160,84 +6191,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6271,11 +6224,77 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6283,46 +6302,62 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10243,7 +10278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F34CC2-6763-4582-AC7D-AE420B815ABF}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
@@ -11812,15 +11847,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277F8F07-90DF-415D-BA0F-2F67569E5D75}">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="13" max="13" width="24.88671875" customWidth="1"/>
+    <col min="14" max="14" width="25.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>65</v>
       </c>
@@ -11857,8 +11896,11 @@
       <c r="L1" s="32" t="s">
         <v>956</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M1" s="95" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>556</v>
       </c>
@@ -11877,7 +11919,7 @@
       <c r="F2" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G2" s="65">
+      <c r="G2" s="39">
         <v>45056</v>
       </c>
       <c r="H2" s="5" t="s">
@@ -11895,8 +11937,16 @@
       <c r="L2" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M2" s="94">
+        <f>MATCH(I2,$A$2:$A$105)</f>
+        <v>70</v>
+      </c>
+      <c r="N2" t="str" cm="1">
+        <f t="array" ref="N2">INDEX($A$2:$A$105,M2)</f>
+        <v>Qubes OS</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -11915,7 +11965,7 @@
       <c r="F3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="65">
+      <c r="G3" s="39">
         <v>45145</v>
       </c>
       <c r="H3" s="5" t="s">
@@ -11933,8 +11983,16 @@
       <c r="L3" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" s="94">
+        <f t="shared" ref="M2:M65" si="0">MATCH(I3,$A$2:$A$105)</f>
+        <v>37</v>
+      </c>
+      <c r="N3" t="str" cm="1">
+        <f t="array" ref="N3">INDEX($A$2:$A$105,M3)</f>
+        <v>Korora</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -11953,7 +12011,7 @@
       <c r="F4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="65">
+      <c r="G4" s="39">
         <v>45188</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -11971,8 +12029,16 @@
       <c r="L4" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M4" s="94">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="N4" t="str" cm="1">
+        <f t="array" ref="N4">INDEX($A$2:$A$105,M4)</f>
+        <v>Mageia</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>573</v>
       </c>
@@ -11991,7 +12057,7 @@
       <c r="F5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G5" s="65">
+      <c r="G5" s="39">
         <v>45166</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -12009,8 +12075,16 @@
       <c r="L5" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M5" s="94">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N5" t="str" cm="1">
+        <f t="array" ref="N5">INDEX($A$2:$A$105,M5)</f>
+        <v>Debian Edu</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>578</v>
       </c>
@@ -12047,15 +12121,23 @@
       <c r="L6" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M6" s="94">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N6" t="str" cm="1">
+        <f t="array" ref="N6">INDEX($A$2:$A$105,M6)</f>
+        <v>Arch Linux</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D7" s="3">
@@ -12085,8 +12167,16 @@
       <c r="L7" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="94">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N7" t="str" cm="1">
+        <f t="array" ref="N7">INDEX($A$2:$A$105,M7)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -12105,7 +12195,7 @@
       <c r="F8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="65">
+      <c r="G8" s="39">
         <v>40667</v>
       </c>
       <c r="H8" s="6" t="s">
@@ -12123,8 +12213,16 @@
       <c r="L8" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="94">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="N8" t="str" cm="1">
+        <f t="array" ref="N8">INDEX($A$2:$A$105,M8)</f>
+        <v>EndeavourOS</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -12143,7 +12241,7 @@
       <c r="F9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G9" s="65">
+      <c r="G9" s="39">
         <v>45159</v>
       </c>
       <c r="H9" s="5" t="s">
@@ -12161,8 +12259,16 @@
       <c r="L9" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M9" s="94">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N9" t="str" cm="1">
+        <f t="array" ref="N9">INDEX($A$2:$A$105,M9)</f>
+        <v>Debian Edu</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -12181,7 +12287,7 @@
       <c r="F10" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G10" s="39">
         <v>45140</v>
       </c>
       <c r="H10" s="5" t="s">
@@ -12199,8 +12305,16 @@
       <c r="L10" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="94">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N10" t="str" cm="1">
+        <f t="array" ref="N10">INDEX($A$2:$A$105,M10)</f>
+        <v>Debian Edu</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -12219,7 +12333,7 @@
       <c r="F11" s="4" t="s">
         <v>601</v>
       </c>
-      <c r="G11" s="65">
+      <c r="G11" s="39">
         <v>44516</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -12237,8 +12351,16 @@
       <c r="L11" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="94">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N11" t="str" cm="1">
+        <f t="array" ref="N11">INDEX($A$2:$A$105,M11)</f>
+        <v>Qubes OS</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>602</v>
       </c>
@@ -12257,7 +12379,7 @@
       <c r="F12" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G12" s="65">
+      <c r="G12" s="39">
         <v>44533</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -12275,8 +12397,16 @@
       <c r="L12" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M12" s="94">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="N12" t="str" cm="1">
+        <f t="array" ref="N12">INDEX($A$2:$A$105,M12)</f>
+        <v>Univention Corporate Server</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -12313,8 +12443,16 @@
       <c r="L13" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M13" s="94">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N13" t="str" cm="1">
+        <f t="array" ref="N13">INDEX($A$2:$A$105,M13)</f>
+        <v>Arch Linux</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>609</v>
       </c>
@@ -12333,7 +12471,7 @@
       <c r="F14" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G14" s="65">
+      <c r="G14" s="39">
         <v>45217</v>
       </c>
       <c r="H14" s="5" t="s">
@@ -12351,8 +12489,16 @@
       <c r="L14" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="94">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="N14" t="str" cm="1">
+        <f t="array" ref="N14">INDEX($A$2:$A$105,M14)</f>
+        <v>Gentoo Linux</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -12389,8 +12535,16 @@
       <c r="L15" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="94">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N15" t="str" cm="1">
+        <f t="array" ref="N15">INDEX($A$2:$A$105,M15)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -12409,7 +12563,7 @@
       <c r="F16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G16" s="65">
+      <c r="G16" s="39">
         <v>44005</v>
       </c>
       <c r="H16" s="5" t="s">
@@ -12427,8 +12581,16 @@
       <c r="L16" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M16" s="94">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N16" t="str" cm="1">
+        <f t="array" ref="N16">INDEX($A$2:$A$105,M16)</f>
+        <v>Red Hat Linux</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -12447,7 +12609,7 @@
       <c r="F17" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G17" s="65">
+      <c r="G17" s="39">
         <v>41400</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -12465,15 +12627,23 @@
       <c r="L17" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M17" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N17" t="str" cm="1">
+        <f t="array" ref="N17">INDEX($A$2:$A$105,M17)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>627</v>
       </c>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D18" s="3">
@@ -12485,7 +12655,7 @@
       <c r="F18" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="65">
+      <c r="G18" s="39">
         <v>39770</v>
       </c>
       <c r="H18" s="5" t="s">
@@ -12503,8 +12673,16 @@
       <c r="L18" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M18" s="94">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N18" t="str" cm="1">
+        <f t="array" ref="N18">INDEX($A$2:$A$105,M18)</f>
+        <v>Debian Edu</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -12523,7 +12701,7 @@
       <c r="F19" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="G19" s="65">
+      <c r="G19" s="39">
         <v>45206</v>
       </c>
       <c r="H19" s="12" t="s">
@@ -12541,8 +12719,16 @@
       <c r="L19" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="94">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N19" t="str" cm="1">
+        <f t="array" ref="N19">INDEX($A$2:$A$105,M19)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>638</v>
       </c>
@@ -12559,10 +12745,10 @@
       <c r="F20" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="G20" s="65">
+      <c r="G20" s="39">
         <v>45206</v>
       </c>
-      <c r="H20" s="67" t="s">
+      <c r="H20" s="41" t="s">
         <v>640</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -12577,8 +12763,16 @@
       <c r="L20" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M20" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N20" t="str" cm="1">
+        <f t="array" ref="N20">INDEX($A$2:$A$105,M20)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -12597,7 +12791,7 @@
       <c r="F21" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G21" s="65">
+      <c r="G21" s="39">
         <v>45153</v>
       </c>
       <c r="H21" s="13" t="s">
@@ -12615,8 +12809,16 @@
       <c r="L21" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M21" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N21" t="str" cm="1">
+        <f t="array" ref="N21">INDEX($A$2:$A$105,M21)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>645</v>
       </c>
@@ -12635,7 +12837,7 @@
       <c r="F22" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G22" s="65">
+      <c r="G22" s="39">
         <v>45033</v>
       </c>
       <c r="H22" s="5" t="s">
@@ -12653,8 +12855,16 @@
       <c r="L22" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N22" t="str" cm="1">
+        <f t="array" ref="N22">INDEX($A$2:$A$105,M22)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -12673,7 +12883,7 @@
       <c r="F23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G23" s="65">
+      <c r="G23" s="39">
         <v>45042</v>
       </c>
       <c r="H23" s="6" t="s">
@@ -12691,8 +12901,16 @@
       <c r="L23" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="94">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N23" t="str" cm="1">
+        <f t="array" ref="N23">INDEX($A$2:$A$105,M23)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -12711,7 +12929,7 @@
       <c r="F24" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G24" s="65">
+      <c r="G24" s="39">
         <v>40794</v>
       </c>
       <c r="H24" s="6" t="s">
@@ -12729,8 +12947,16 @@
       <c r="L24" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M24" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N24" t="str" cm="1">
+        <f t="array" ref="N24">INDEX($A$2:$A$105,M24)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>655</v>
       </c>
@@ -12749,7 +12975,7 @@
       <c r="F25" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G25" s="65">
+      <c r="G25" s="39">
         <v>45202</v>
       </c>
       <c r="H25" s="5" t="s">
@@ -12767,8 +12993,16 @@
       <c r="L25" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M25" s="94">
+        <f t="shared" si="0"/>
+        <v>93</v>
+      </c>
+      <c r="N25" t="str" cm="1">
+        <f t="array" ref="N25">INDEX($A$2:$A$105,M25)</f>
+        <v>Ubuntu and Derivatives[91]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>660</v>
       </c>
@@ -12805,8 +13039,16 @@
       <c r="L26" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M26" s="94">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N26" t="str" cm="1">
+        <f t="array" ref="N26">INDEX($A$2:$A$105,M26)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>666</v>
       </c>
@@ -12825,7 +13067,7 @@
       <c r="F27" s="3" t="s">
         <v>668</v>
       </c>
-      <c r="G27" s="65">
+      <c r="G27" s="39">
         <v>41440</v>
       </c>
       <c r="H27" s="5" t="s">
@@ -12843,8 +13085,16 @@
       <c r="L27" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N27" t="str" cm="1">
+        <f t="array" ref="N27">INDEX($A$2:$A$105,M27)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>669</v>
       </c>
@@ -12863,7 +13113,7 @@
       <c r="F28" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="65">
+      <c r="G28" s="39">
         <v>44818</v>
       </c>
       <c r="H28" s="5" t="s">
@@ -12881,8 +13131,16 @@
       <c r="L28" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M28" s="94">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N28" t="str" cm="1">
+        <f t="array" ref="N28">INDEX($A$2:$A$105,M28)</f>
+        <v>Arch Linux</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>671</v>
       </c>
@@ -12901,7 +13159,7 @@
       <c r="F29" s="3" t="s">
         <v>674</v>
       </c>
-      <c r="G29" s="65">
+      <c r="G29" s="39">
         <v>45237</v>
       </c>
       <c r="H29" s="14" t="s">
@@ -12919,8 +13177,16 @@
       <c r="L29" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M29" s="94">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N29" t="str" cm="1">
+        <f t="array" ref="N29">INDEX($A$2:$A$105,M29)</f>
+        <v>Red Hat Linux</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>677</v>
       </c>
@@ -12939,7 +13205,7 @@
       <c r="F30" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="65">
+      <c r="G30" s="39">
         <v>45054</v>
       </c>
       <c r="H30" s="5" t="s">
@@ -12957,8 +13223,16 @@
       <c r="L30" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M30" s="94">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="N30" t="str" cm="1">
+        <f t="array" ref="N30">INDEX($A$2:$A$105,M30)</f>
+        <v>TurnKey GNU/Linux</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>613</v>
       </c>
@@ -12995,8 +13269,16 @@
       <c r="L31" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="94">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="N31" t="str" cm="1">
+        <f t="array" ref="N31">INDEX($A$2:$A$105,M31)</f>
+        <v>EndeavourOS</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -13015,7 +13297,7 @@
       <c r="F32" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G32" s="65">
+      <c r="G32" s="39">
         <v>44914</v>
       </c>
       <c r="H32" s="6" t="s">
@@ -13033,8 +13315,16 @@
       <c r="L32" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M32" s="94">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N32" t="str" cm="1">
+        <f t="array" ref="N32">INDEX($A$2:$A$105,M32)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -13053,7 +13343,7 @@
       <c r="F33" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="65">
+      <c r="G33" s="39">
         <v>42492</v>
       </c>
       <c r="H33" s="6" t="s">
@@ -13071,8 +13361,16 @@
       <c r="L33" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M33" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N33" t="str" cm="1">
+        <f t="array" ref="N33">INDEX($A$2:$A$105,M33)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -13091,7 +13389,7 @@
       <c r="F34" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G34" s="65">
+      <c r="G34" s="39">
         <v>44895</v>
       </c>
       <c r="H34" s="5" t="s">
@@ -13109,8 +13407,16 @@
       <c r="L34" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M34" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N34" t="str" cm="1">
+        <f t="array" ref="N34">INDEX($A$2:$A$105,M34)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -13129,7 +13435,7 @@
       <c r="F35" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="G35" s="65">
+      <c r="G35" s="39">
         <v>45175</v>
       </c>
       <c r="H35" s="6" t="s">
@@ -13147,8 +13453,16 @@
       <c r="L35" s="15" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="94">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N35" t="str" cm="1">
+        <f t="array" ref="N35">INDEX($A$2:$A$105,M35)</f>
+        <v>Arch Linux</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -13167,7 +13481,7 @@
       <c r="F36" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G36" s="65">
+      <c r="G36" s="39">
         <v>45161</v>
       </c>
       <c r="H36" s="5" t="s">
@@ -13185,15 +13499,23 @@
       <c r="L36" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M36" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N36" t="str" cm="1">
+        <f t="array" ref="N36">INDEX($A$2:$A$105,M36)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>706</v>
       </c>
-      <c r="C37" s="66" t="s">
+      <c r="C37" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D37" s="3">
@@ -13205,7 +13527,7 @@
       <c r="F37" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G37" s="65">
+      <c r="G37" s="39">
         <v>44686</v>
       </c>
       <c r="H37" s="5" t="s">
@@ -13223,8 +13545,16 @@
       <c r="L37" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M37" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N37" t="str" cm="1">
+        <f t="array" ref="N37">INDEX($A$2:$A$105,M37)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>709</v>
       </c>
@@ -13243,7 +13573,7 @@
       <c r="F38" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G38" s="65">
+      <c r="G38" s="39">
         <v>42994</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -13261,8 +13591,16 @@
       <c r="L38" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" s="94">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="N38" t="str" cm="1">
+        <f t="array" ref="N38">INDEX($A$2:$A$105,M38)</f>
+        <v>EndeavourOS</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -13281,7 +13619,7 @@
       <c r="F39" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G39" s="65">
+      <c r="G39" s="39">
         <v>45017</v>
       </c>
       <c r="H39" s="6" t="s">
@@ -13299,8 +13637,16 @@
       <c r="L39" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M39" s="94">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="N39" t="str" cm="1">
+        <f t="array" ref="N39">INDEX($A$2:$A$105,M39)</f>
+        <v>MEPIS</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>716</v>
       </c>
@@ -13319,7 +13665,7 @@
       <c r="F40" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G40" s="65">
+      <c r="G40" s="39">
         <v>44986</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -13331,66 +13677,90 @@
       <c r="J40" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="K40" s="68" t="s">
+      <c r="K40" s="42" t="s">
         <v>719</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="49" t="s">
+      <c r="M40" s="94">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="N40" t="str" cm="1">
+        <f t="array" ref="N40">INDEX($A$2:$A$105,M40)</f>
+        <v>TurnKey GNU/Linux</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="76" t="s">
+      <c r="B41" s="53" t="s">
         <v>720</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="D41" s="76">
+      <c r="D41" s="53">
         <v>2006</v>
       </c>
-      <c r="E41" s="80" t="s">
+      <c r="E41" s="56" t="s">
         <v>721</v>
       </c>
-      <c r="F41" s="80" t="s">
+      <c r="F41" s="56" t="s">
         <v>722</v>
       </c>
-      <c r="G41" s="82">
+      <c r="G41" s="65">
         <v>45123</v>
       </c>
-      <c r="H41" s="84" t="s">
+      <c r="H41" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="I41" s="76" t="s">
+      <c r="I41" s="53" t="s">
         <v>723</v>
       </c>
-      <c r="J41" s="76" t="s">
+      <c r="J41" s="53" t="s">
         <v>590</v>
       </c>
-      <c r="K41" s="86" t="s">
+      <c r="K41" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L41" s="45" t="s">
+      <c r="L41" s="62" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="50"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="79"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="81"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="83"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="77"/>
-      <c r="J42" s="77"/>
-      <c r="K42" s="87"/>
-      <c r="L42" s="46"/>
-    </row>
-    <row r="43" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M41" s="94">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="N41" t="str" cm="1">
+        <f t="array" ref="N41">INDEX($A$2:$A$105,M41)</f>
+        <v>Debian Edu</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="71"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="94" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N42" t="e" cm="1">
+        <f t="array" ref="N42">INDEX($A$2:$A$105,M42)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>724</v>
       </c>
@@ -13409,7 +13779,7 @@
       <c r="F43" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G43" s="65">
+      <c r="G43" s="39">
         <v>45173</v>
       </c>
       <c r="H43" s="5" t="s">
@@ -13427,8 +13797,16 @@
       <c r="L43" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M43" s="94">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="N43" t="str" cm="1">
+        <f t="array" ref="N43">INDEX($A$2:$A$105,M43)</f>
+        <v>TurnKey GNU/Linux</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -13447,7 +13825,7 @@
       <c r="F44" s="3" t="s">
         <v>731</v>
       </c>
-      <c r="G44" s="65">
+      <c r="G44" s="39">
         <v>45173</v>
       </c>
       <c r="H44" s="5" t="s">
@@ -13465,8 +13843,16 @@
       <c r="L44" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M44" s="94">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="N44" t="str" cm="1">
+        <f t="array" ref="N44">INDEX($A$2:$A$105,M44)</f>
+        <v>Mandriva Linux</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
@@ -13499,15 +13885,23 @@
       <c r="L45" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M45" s="94">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="N45" t="str" cm="1">
+        <f t="array" ref="N45">INDEX($A$2:$A$105,M45)</f>
+        <v>Red Hat Linux</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>734</v>
       </c>
-      <c r="C46" s="66" t="s">
+      <c r="C46" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D46" s="4" t="s">
@@ -13537,8 +13931,16 @@
       <c r="L46" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M46" s="94">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N46" t="str" cm="1">
+        <f t="array" ref="N46">INDEX($A$2:$A$105,M46)</f>
+        <v>Arch Linux</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
@@ -13557,7 +13959,7 @@
       <c r="F47" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G47" s="65">
+      <c r="G47" s="39">
         <v>41496</v>
       </c>
       <c r="H47" s="5" t="s">
@@ -13575,8 +13977,16 @@
       <c r="L47" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M47" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N47" t="str" cm="1">
+        <f t="array" ref="N47">INDEX($A$2:$A$105,M47)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
@@ -13595,7 +14005,7 @@
       <c r="F48" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="G48" s="65">
+      <c r="G48" s="39">
         <v>44866</v>
       </c>
       <c r="H48" s="5" t="s">
@@ -13613,8 +14023,16 @@
       <c r="L48" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M48" s="94">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N48" t="str" cm="1">
+        <f t="array" ref="N48">INDEX($A$2:$A$105,M48)</f>
+        <v>Qubes OS</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -13633,7 +14051,7 @@
       <c r="F49" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="65">
+      <c r="G49" s="39">
         <v>41711</v>
       </c>
       <c r="H49" s="6" t="s">
@@ -13651,15 +14069,23 @@
       <c r="L49" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M49" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N49" t="str" cm="1">
+        <f t="array" ref="N49">INDEX($A$2:$A$105,M49)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>746</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>747</v>
       </c>
-      <c r="C50" s="66" t="s">
+      <c r="C50" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D50" s="3">
@@ -13671,7 +14097,7 @@
       <c r="F50" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="G50" s="65">
+      <c r="G50" s="39">
         <v>44947</v>
       </c>
       <c r="H50" s="5" t="s">
@@ -13689,8 +14115,16 @@
       <c r="L50" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M50" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N50" t="str" cm="1">
+        <f t="array" ref="N50">INDEX($A$2:$A$105,M50)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
@@ -13709,7 +14143,7 @@
       <c r="F51" s="3" t="s">
         <v>753</v>
       </c>
-      <c r="G51" s="65">
+      <c r="G51" s="39">
         <v>45077</v>
       </c>
       <c r="H51" s="5" t="s">
@@ -13727,8 +14161,16 @@
       <c r="L51" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M51" s="94" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N51" t="e" cm="1">
+        <f t="array" ref="N51">INDEX($A$2:$A$105,M51)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>755</v>
       </c>
@@ -13759,14 +14201,22 @@
       <c r="J52" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="K52" s="68" t="s">
+      <c r="K52" s="42" t="s">
         <v>760</v>
       </c>
       <c r="L52" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M52" s="94">
+        <f t="shared" si="0"/>
+        <v>88</v>
+      </c>
+      <c r="N52" t="str" cm="1">
+        <f t="array" ref="N52">INDEX($A$2:$A$105,M52)</f>
+        <v>SUSE Linux Enterprise</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -13785,7 +14235,7 @@
       <c r="F53" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G53" s="65">
+      <c r="G53" s="39">
         <v>42890</v>
       </c>
       <c r="H53" s="5" t="s">
@@ -13803,8 +14253,16 @@
       <c r="L53" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M53" s="94">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N53" t="str" cm="1">
+        <f t="array" ref="N53">INDEX($A$2:$A$105,M53)</f>
+        <v>Knoppix</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>36</v>
       </c>
@@ -13823,7 +14281,7 @@
       <c r="F54" s="4" t="s">
         <v>767</v>
       </c>
-      <c r="G54" s="65">
+      <c r="G54" s="39">
         <v>45084</v>
       </c>
       <c r="H54" s="5" t="s">
@@ -13841,8 +14299,16 @@
       <c r="L54" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M54" s="94">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="N54" t="str" cm="1">
+        <f t="array" ref="N54">INDEX($A$2:$A$105,M54)</f>
+        <v>Slackware</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>38</v>
       </c>
@@ -13861,7 +14327,7 @@
       <c r="F55" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G55" s="65">
+      <c r="G55" s="39">
         <v>45212</v>
       </c>
       <c r="H55" s="5" t="s">
@@ -13879,8 +14345,16 @@
       <c r="L55" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M55" s="94">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N55" t="str" cm="1">
+        <f t="array" ref="N55">INDEX($A$2:$A$105,M55)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>772</v>
       </c>
@@ -13899,7 +14373,7 @@
       <c r="F56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G56" s="65">
+      <c r="G56" s="39">
         <v>44933</v>
       </c>
       <c r="H56" s="5" t="s">
@@ -13917,8 +14391,16 @@
       <c r="L56" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M56" s="94">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="N56" t="str" cm="1">
+        <f t="array" ref="N56">INDEX($A$2:$A$105,M56)</f>
+        <v>Mandriva Linux</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>775</v>
       </c>
@@ -13937,7 +14419,7 @@
       <c r="F57" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G57" s="65">
+      <c r="G57" s="39">
         <v>45071</v>
       </c>
       <c r="H57" s="5" t="s">
@@ -13955,15 +14437,23 @@
       <c r="L57" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M57" s="94">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="N57" t="str" cm="1">
+        <f t="array" ref="N57">INDEX($A$2:$A$105,M57)</f>
+        <v>Qubes OS</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B58" s="66" t="s">
+      <c r="B58" s="40" t="s">
         <v>778</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="40" t="s">
         <v>778</v>
       </c>
       <c r="D58" s="3">
@@ -13993,62 +14483,86 @@
       <c r="L58" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="49" t="s">
+      <c r="M58" s="94">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="N58" t="str" cm="1">
+        <f t="array" ref="N58">INDEX($A$2:$A$105,M58)</f>
+        <v>Arch Linux</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="56" t="s">
         <v>782</v>
       </c>
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="53" t="s">
         <v>783</v>
       </c>
-      <c r="D59" s="76">
+      <c r="D59" s="53">
         <v>2005</v>
       </c>
-      <c r="E59" s="76" t="s">
+      <c r="E59" s="53" t="s">
         <v>784</v>
       </c>
-      <c r="F59" s="88" t="s">
+      <c r="F59" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="82">
+      <c r="G59" s="65">
         <v>45168</v>
       </c>
-      <c r="H59" s="84" t="s">
+      <c r="H59" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="I59" s="69" t="s">
+      <c r="I59" s="43" t="s">
         <v>785</v>
       </c>
-      <c r="J59" s="76" t="s">
+      <c r="J59" s="53" t="s">
         <v>583</v>
       </c>
-      <c r="K59" s="86" t="s">
+      <c r="K59" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L59" s="45" t="s">
+      <c r="L59" s="62" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="50"/>
-      <c r="B60" s="81"/>
-      <c r="C60" s="77"/>
-      <c r="D60" s="77"/>
-      <c r="E60" s="77"/>
-      <c r="F60" s="89"/>
-      <c r="G60" s="83"/>
-      <c r="H60" s="85"/>
-      <c r="I60" s="73" t="s">
+      <c r="M59" s="94">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="N59" t="str" cm="1">
+        <f t="array" ref="N59">INDEX($A$2:$A$105,M59)</f>
+        <v>Freespire</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="71"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="55"/>
+      <c r="D60" s="55"/>
+      <c r="E60" s="55"/>
+      <c r="F60" s="73"/>
+      <c r="G60" s="66"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="77"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="46"/>
-    </row>
-    <row r="61" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J60" s="55"/>
+      <c r="K60" s="61"/>
+      <c r="L60" s="64"/>
+      <c r="M60" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N60" t="str" cm="1">
+        <f t="array" ref="N60">INDEX($A$2:$A$105,M60)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>786</v>
       </c>
@@ -14067,7 +14581,7 @@
       <c r="F61" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G61" s="65">
+      <c r="G61" s="39">
         <v>45047</v>
       </c>
       <c r="H61" s="5" t="s">
@@ -14085,15 +14599,23 @@
       <c r="L61" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M61" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N61" t="str" cm="1">
+        <f t="array" ref="N61">INDEX($A$2:$A$105,M61)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>791</v>
       </c>
-      <c r="C62" s="66" t="s">
+      <c r="C62" s="40" t="s">
         <v>792</v>
       </c>
       <c r="D62" s="3">
@@ -14105,7 +14627,7 @@
       <c r="F62" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G62" s="65">
+      <c r="G62" s="39">
         <v>42760</v>
       </c>
       <c r="H62" s="5" t="s">
@@ -14123,15 +14645,23 @@
       <c r="L62" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M62" s="94">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="N62" t="str" cm="1">
+        <f t="array" ref="N62">INDEX($A$2:$A$105,M62)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="B63" s="66" t="s">
+      <c r="B63" s="40" t="s">
         <v>795</v>
       </c>
-      <c r="C63" s="66" t="s">
+      <c r="C63" s="40" t="s">
         <v>796</v>
       </c>
       <c r="D63" s="3">
@@ -14143,7 +14673,7 @@
       <c r="F63" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G63" s="65">
+      <c r="G63" s="39">
         <v>45067</v>
       </c>
       <c r="H63" s="5" t="s">
@@ -14155,21 +14685,29 @@
       <c r="J63" s="3" t="s">
         <v>798</v>
       </c>
-      <c r="K63" s="68" t="s">
+      <c r="K63" s="42" t="s">
         <v>799</v>
       </c>
       <c r="L63" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M63" s="94">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N63" t="str" cm="1">
+        <f t="array" ref="N63">INDEX($A$2:$A$105,M63)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>800</v>
       </c>
-      <c r="C64" s="66" t="s">
+      <c r="C64" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D64" s="3">
@@ -14181,7 +14719,7 @@
       <c r="F64" s="3" t="s">
         <v>801</v>
       </c>
-      <c r="G64" s="65">
+      <c r="G64" s="39">
         <v>44907</v>
       </c>
       <c r="H64" s="5" t="s">
@@ -14199,62 +14737,86 @@
       <c r="L64" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="49" t="s">
+      <c r="M64" s="94">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="N64" t="str" cm="1">
+        <f t="array" ref="N64">INDEX($A$2:$A$105,M64)</f>
+        <v>Mandriva Linux</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="70" t="s">
         <v>802</v>
       </c>
-      <c r="B65" s="76" t="s">
+      <c r="B65" s="53" t="s">
         <v>803</v>
       </c>
-      <c r="C65" s="76" t="s">
+      <c r="C65" s="53" t="s">
         <v>804</v>
       </c>
-      <c r="D65" s="76">
+      <c r="D65" s="53">
         <v>2017</v>
       </c>
-      <c r="E65" s="76" t="s">
+      <c r="E65" s="53" t="s">
         <v>805</v>
       </c>
-      <c r="F65" s="69" t="s">
+      <c r="F65" s="43" t="s">
         <v>806</v>
       </c>
-      <c r="G65" s="82">
+      <c r="G65" s="65">
         <v>44676</v>
       </c>
-      <c r="H65" s="84" t="s">
+      <c r="H65" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="I65" s="76" t="s">
+      <c r="I65" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="76" t="s">
+      <c r="J65" s="53" t="s">
         <v>808</v>
       </c>
-      <c r="K65" s="86" t="s">
+      <c r="K65" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L65" s="45" t="s">
+      <c r="L65" s="62" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="50"/>
-      <c r="B66" s="77"/>
-      <c r="C66" s="77"/>
-      <c r="D66" s="77"/>
-      <c r="E66" s="77"/>
-      <c r="F66" s="73" t="s">
+      <c r="M65" s="94">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="N65" t="str" cm="1">
+        <f t="array" ref="N65">INDEX($A$2:$A$105,M65)</f>
+        <v>TurnKey GNU/Linux</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="71"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="55"/>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="47" t="s">
         <v>807</v>
       </c>
-      <c r="G66" s="83"/>
-      <c r="H66" s="85"/>
-      <c r="I66" s="77"/>
-      <c r="J66" s="77"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="46"/>
-    </row>
-    <row r="67" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G66" s="66"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="55"/>
+      <c r="K66" s="61"/>
+      <c r="L66" s="64"/>
+      <c r="M66" s="94" t="e">
+        <f t="shared" ref="M66:M104" si="1">MATCH(I66,$A$2:$A$105)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N66" t="e" cm="1">
+        <f t="array" ref="N66">INDEX($A$2:$A$105,M66)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
@@ -14273,7 +14835,7 @@
       <c r="F67" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G67" s="65">
+      <c r="G67" s="39">
         <v>43482</v>
       </c>
       <c r="H67" s="5" t="s">
@@ -14291,8 +14853,16 @@
       <c r="L67" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M67" s="94">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N67" t="str" cm="1">
+        <f t="array" ref="N67">INDEX($A$2:$A$105,M67)</f>
+        <v>Gentoo Linux</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
@@ -14311,7 +14881,7 @@
       <c r="F68" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G68" s="65">
+      <c r="G68" s="39">
         <v>45195</v>
       </c>
       <c r="H68" s="5" t="s">
@@ -14329,8 +14899,16 @@
       <c r="L68" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M68" s="94">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="N68" t="str" cm="1">
+        <f t="array" ref="N68">INDEX($A$2:$A$105,M68)</f>
+        <v>Slackware</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>46</v>
       </c>
@@ -14349,7 +14927,7 @@
       <c r="F69" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G69" s="65">
+      <c r="G69" s="39">
         <v>44091</v>
       </c>
       <c r="H69" s="5" t="s">
@@ -14367,8 +14945,16 @@
       <c r="L69" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M69" s="94">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="N69" t="str" cm="1">
+        <f t="array" ref="N69">INDEX($A$2:$A$105,M69)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>817</v>
       </c>
@@ -14387,7 +14973,7 @@
       <c r="F70" s="4" t="s">
         <v>821</v>
       </c>
-      <c r="G70" s="65">
+      <c r="G70" s="39">
         <v>44519</v>
       </c>
       <c r="H70" s="6" t="s">
@@ -14405,8 +14991,16 @@
       <c r="L70" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M70" s="94">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N70" t="str" cm="1">
+        <f t="array" ref="N70">INDEX($A$2:$A$105,M70)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>823</v>
       </c>
@@ -14425,7 +15019,7 @@
       <c r="F71" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G71" s="65">
+      <c r="G71" s="39">
         <v>45000</v>
       </c>
       <c r="H71" s="5" t="s">
@@ -14443,8 +15037,16 @@
       <c r="L71" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M71" s="94">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="N71" t="str" cm="1">
+        <f t="array" ref="N71">INDEX($A$2:$A$105,M71)</f>
+        <v>Xandros</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>829</v>
       </c>
@@ -14463,7 +15065,7 @@
       <c r="F72" s="4" t="s">
         <v>832</v>
       </c>
-      <c r="G72" s="65">
+      <c r="G72" s="39">
         <v>45056</v>
       </c>
       <c r="H72" s="5" t="s">
@@ -14481,8 +15083,16 @@
       <c r="L72" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M72" s="94">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="N72" t="str" cm="1">
+        <f t="array" ref="N72">INDEX($A$2:$A$105,M72)</f>
+        <v>Red Hat Linux</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>676</v>
       </c>
@@ -14501,7 +15111,7 @@
       <c r="F73" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G73" s="65">
+      <c r="G73" s="39">
         <v>37711</v>
       </c>
       <c r="H73" s="5" t="s">
@@ -14519,8 +15129,16 @@
       <c r="L73" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M73" s="94" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N73" t="e" cm="1">
+        <f t="array" ref="N73">INDEX($A$2:$A$105,M73)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>836</v>
       </c>
@@ -14539,7 +15157,7 @@
       <c r="F74" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G74" s="65">
+      <c r="G74" s="39">
         <v>43070</v>
       </c>
       <c r="H74" s="5" t="s">
@@ -14557,8 +15175,16 @@
       <c r="L74" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M74" s="94">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="N74" t="str" cm="1">
+        <f t="array" ref="N74">INDEX($A$2:$A$105,M74)</f>
+        <v>Red Hat Linux</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>839</v>
       </c>
@@ -14577,7 +15203,7 @@
       <c r="F75" s="3" t="s">
         <v>742</v>
       </c>
-      <c r="G75" s="65">
+      <c r="G75" s="39">
         <v>45062</v>
       </c>
       <c r="H75" s="5" t="s">
@@ -14595,8 +15221,16 @@
       <c r="L75" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="76" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M75" s="94">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="N75" t="str" cm="1">
+        <f t="array" ref="N75">INDEX($A$2:$A$105,M75)</f>
+        <v>Qubes OS</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>842</v>
       </c>
@@ -14615,7 +15249,7 @@
       <c r="F76" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G76" s="65">
+      <c r="G76" s="39">
         <v>45013</v>
       </c>
       <c r="H76" s="5" t="s">
@@ -14633,15 +15267,23 @@
       <c r="L76" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="77" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M76" s="94">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="N76" t="str" cm="1">
+        <f t="array" ref="N76">INDEX($A$2:$A$105,M76)</f>
+        <v>Mageia</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>846</v>
       </c>
-      <c r="C77" s="66" t="s">
+      <c r="C77" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D77" s="3">
@@ -14653,7 +15295,7 @@
       <c r="F77" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G77" s="65">
+      <c r="G77" s="39">
         <v>43555</v>
       </c>
       <c r="H77" s="5" t="s">
@@ -14671,15 +15313,23 @@
       <c r="L77" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="78" spans="1:12" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M77" s="94">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="N77" t="str" cm="1">
+        <f t="array" ref="N77">INDEX($A$2:$A$105,M77)</f>
+        <v>Gentoo Linux</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>848</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="C78" s="66" t="s">
+      <c r="C78" s="40" t="s">
         <v>850</v>
       </c>
       <c r="D78" s="3">
@@ -14691,7 +15341,7 @@
       <c r="F78" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G78" s="65">
+      <c r="G78" s="39">
         <v>44809</v>
       </c>
       <c r="H78" s="5" t="s">
@@ -14709,15 +15359,23 @@
       <c r="L78" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="79" spans="1:12" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M78" s="94">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="N78" t="str" cm="1">
+        <f t="array" ref="N78">INDEX($A$2:$A$105,M78)</f>
+        <v>Slackware</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B79" s="9" t="s">
         <v>852</v>
       </c>
-      <c r="C79" s="66" t="s">
+      <c r="C79" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D79" s="3">
@@ -14729,7 +15387,7 @@
       <c r="F79" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G79" s="65">
+      <c r="G79" s="39">
         <v>44124</v>
       </c>
       <c r="H79" s="5" t="s">
@@ -14747,15 +15405,23 @@
       <c r="L79" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="80" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M79" s="94">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="N79" t="str" cm="1">
+        <f t="array" ref="N79">INDEX($A$2:$A$105,M79)</f>
+        <v>Red Hat Linux</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>855</v>
       </c>
-      <c r="C80" s="66" t="s">
+      <c r="C80" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D80" s="3">
@@ -14767,7 +15433,7 @@
       <c r="F80" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G80" s="65">
+      <c r="G80" s="39">
         <v>44594</v>
       </c>
       <c r="H80" s="5" t="s">
@@ -14785,8 +15451,16 @@
       <c r="L80" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="81" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M80" s="94">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="N80" t="str" cm="1">
+        <f t="array" ref="N80">INDEX($A$2:$A$105,M80)</f>
+        <v>SliTaz GNU/Linux</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>50</v>
       </c>
@@ -14805,7 +15479,7 @@
       <c r="F81" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G81" s="65">
+      <c r="G81" s="39">
         <v>45209</v>
       </c>
       <c r="H81" s="5" t="s">
@@ -14823,15 +15497,23 @@
       <c r="L81" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="82" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M81" s="94">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N81" t="str" cm="1">
+        <f t="array" ref="N81">INDEX($A$2:$A$105,M81)</f>
+        <v>Debian Edu</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>861</v>
       </c>
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D82" s="3">
@@ -14861,15 +15543,23 @@
       <c r="L82" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="83" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M82" s="94">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="N82" t="str" cm="1">
+        <f t="array" ref="N82">INDEX($A$2:$A$105,M82)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>864</v>
       </c>
-      <c r="C83" s="66" t="s">
+      <c r="C83" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D83" s="3">
@@ -14881,7 +15571,7 @@
       <c r="F83" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G83" s="65">
+      <c r="G83" s="39">
         <v>44388</v>
       </c>
       <c r="H83" s="5" t="s">
@@ -14899,15 +15589,23 @@
       <c r="L83" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="84" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M83" s="94">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="N83" t="str" cm="1">
+        <f t="array" ref="N83">INDEX($A$2:$A$105,M83)</f>
+        <v>Pardus</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>866</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>867</v>
       </c>
-      <c r="C84" s="66" t="s">
+      <c r="C84" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D84" s="3">
@@ -14919,7 +15617,7 @@
       <c r="F84" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="G84" s="65">
+      <c r="G84" s="39">
         <v>44422</v>
       </c>
       <c r="H84" s="5" t="s">
@@ -14937,8 +15635,16 @@
       <c r="L84" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="85" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M84" s="94">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N84" t="str" cm="1">
+        <f t="array" ref="N84">INDEX($A$2:$A$105,M84)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>870</v>
       </c>
@@ -14957,7 +15663,7 @@
       <c r="F85" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G85" s="65">
+      <c r="G85" s="39">
         <v>45092</v>
       </c>
       <c r="H85" s="5" t="s">
@@ -14975,15 +15681,23 @@
       <c r="L85" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="86" spans="1:12" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M85" s="94">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N85" t="str" cm="1">
+        <f t="array" ref="N85">INDEX($A$2:$A$105,M85)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>874</v>
       </c>
-      <c r="C86" s="66" t="s">
+      <c r="C86" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D86" s="3">
@@ -14995,7 +15709,7 @@
       <c r="F86" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G86" s="65">
+      <c r="G86" s="39">
         <v>43030</v>
       </c>
       <c r="H86" s="14" t="s">
@@ -15013,62 +15727,86 @@
       <c r="L86" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="87" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="49" t="s">
+      <c r="M86" s="94">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="N86" t="str" cm="1">
+        <f t="array" ref="N86">INDEX($A$2:$A$105,M86)</f>
+        <v>SolydXK</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="80" t="s">
+      <c r="B87" s="56" t="s">
         <v>878</v>
       </c>
-      <c r="C87" s="80" t="s">
+      <c r="C87" s="56" t="s">
         <v>878</v>
       </c>
-      <c r="D87" s="76">
+      <c r="D87" s="53">
         <v>2013</v>
       </c>
-      <c r="E87" s="80" t="s">
+      <c r="E87" s="56" t="s">
         <v>879</v>
       </c>
-      <c r="F87" s="88" t="s">
+      <c r="F87" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="G87" s="82">
+      <c r="G87" s="65">
         <v>45077</v>
       </c>
-      <c r="H87" s="84" t="s">
+      <c r="H87" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="I87" s="70" t="s">
+      <c r="I87" s="44" t="s">
         <v>880</v>
       </c>
-      <c r="J87" s="76" t="s">
+      <c r="J87" s="53" t="s">
         <v>882</v>
       </c>
-      <c r="K87" s="86" t="s">
+      <c r="K87" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L87" s="45" t="s">
+      <c r="L87" s="62" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="88" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="50"/>
-      <c r="B88" s="81"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="77"/>
-      <c r="E88" s="81"/>
-      <c r="F88" s="89"/>
-      <c r="G88" s="83"/>
-      <c r="H88" s="85"/>
-      <c r="I88" s="71" t="s">
+      <c r="M87" s="94">
+        <f>MATCH(I87,$A$2:$A$105)</f>
+        <v>19</v>
+      </c>
+      <c r="N87" t="str" cm="1">
+        <f t="array" ref="N87">INDEX($A$2:$A$105,M87)</f>
+        <v>Debian Edu</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="71"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="58"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="73"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="45" t="s">
         <v>881</v>
       </c>
-      <c r="J88" s="77"/>
-      <c r="K88" s="87"/>
-      <c r="L88" s="46"/>
-    </row>
-    <row r="89" spans="1:12" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J88" s="55"/>
+      <c r="K88" s="61"/>
+      <c r="L88" s="64"/>
+      <c r="M88" s="94">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="N88" t="str" cm="1">
+        <f t="array" ref="N88">INDEX($A$2:$A$105,M88)</f>
+        <v>Arch Linux</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>883</v>
       </c>
@@ -15087,7 +15825,7 @@
       <c r="F89" s="4" t="s">
         <v>886</v>
       </c>
-      <c r="G89" s="65">
+      <c r="G89" s="39">
         <v>45097</v>
       </c>
       <c r="H89" s="3" t="s">
@@ -15099,14 +15837,22 @@
       <c r="J89" s="3" t="s">
         <v>888</v>
       </c>
-      <c r="K89" s="68" t="s">
+      <c r="K89" s="42" t="s">
         <v>889</v>
       </c>
       <c r="L89" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="90" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M89" s="94">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="N89" t="str" cm="1">
+        <f t="array" ref="N89">INDEX($A$2:$A$105,M89)</f>
+        <v>Slackware</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>55</v>
       </c>
@@ -15125,7 +15871,7 @@
       <c r="F90" s="4" t="s">
         <v>892</v>
       </c>
-      <c r="G90" s="65">
+      <c r="G90" s="39">
         <v>45230</v>
       </c>
       <c r="H90" s="5" t="s">
@@ -15143,8 +15889,16 @@
       <c r="L90" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="91" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M90" s="94">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N90" t="str" cm="1">
+        <f t="array" ref="N90">INDEX($A$2:$A$105,M90)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>56</v>
       </c>
@@ -15163,7 +15917,7 @@
       <c r="F91" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G91" s="65">
+      <c r="G91" s="39">
         <v>45028</v>
       </c>
       <c r="H91" s="5" t="s">
@@ -15181,8 +15935,16 @@
       <c r="L91" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="92" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M91" s="94">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="N91" t="str" cm="1">
+        <f t="array" ref="N91">INDEX($A$2:$A$105,M91)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>57</v>
       </c>
@@ -15201,7 +15963,7 @@
       <c r="F92" s="3" t="s">
         <v>900</v>
       </c>
-      <c r="G92" s="65">
+      <c r="G92" s="39">
         <v>45004</v>
       </c>
       <c r="H92" s="6" t="s">
@@ -15219,8 +15981,16 @@
       <c r="L92" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="93" spans="1:12" ht="123" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M92" s="94">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="N92" t="str" cm="1">
+        <f t="array" ref="N92">INDEX($A$2:$A$105,M92)</f>
+        <v>Ubuntu and Derivatives[91]</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="123" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>58</v>
       </c>
@@ -15239,10 +16009,10 @@
       <c r="F93" s="3" t="s">
         <v>905</v>
       </c>
-      <c r="G93" s="65">
+      <c r="G93" s="39">
         <v>45183</v>
       </c>
-      <c r="H93" s="67" t="s">
+      <c r="H93" s="41" t="s">
         <v>640</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -15257,78 +16027,110 @@
       <c r="L93" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="94" spans="1:12" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="43" t="s">
+      <c r="M93" s="94">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N93" t="str" cm="1">
+        <f t="array" ref="N93">INDEX($A$2:$A$105,M93)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="67" t="s">
         <v>907</v>
       </c>
-      <c r="B94" s="80" t="s">
+      <c r="B94" s="56" t="s">
         <v>908</v>
       </c>
-      <c r="C94" s="76" t="s">
+      <c r="C94" s="53" t="s">
         <v>908</v>
       </c>
-      <c r="D94" s="76">
+      <c r="D94" s="53">
         <v>2004</v>
       </c>
-      <c r="E94" s="69" t="s">
+      <c r="E94" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="F94" s="76" t="s">
+      <c r="F94" s="53" t="s">
         <v>911</v>
       </c>
-      <c r="G94" s="72">
+      <c r="G94" s="46">
         <v>45215</v>
       </c>
-      <c r="H94" s="84" t="s">
+      <c r="H94" s="50" t="s">
         <v>560</v>
       </c>
-      <c r="I94" s="76" t="s">
+      <c r="I94" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="J94" s="80" t="s">
+      <c r="J94" s="56" t="s">
         <v>912</v>
       </c>
-      <c r="K94" s="86" t="s">
+      <c r="K94" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="L94" s="45" t="s">
+      <c r="L94" s="62" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="95" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="54"/>
-      <c r="B95" s="90"/>
-      <c r="C95" s="91"/>
-      <c r="D95" s="91"/>
-      <c r="E95" s="74" t="s">
+      <c r="M94" s="94">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N94" t="str" cm="1">
+        <f t="array" ref="N94">INDEX($A$2:$A$105,M94)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A95" s="68"/>
+      <c r="B95" s="57"/>
+      <c r="C95" s="54"/>
+      <c r="D95" s="54"/>
+      <c r="E95" s="48" t="s">
         <v>910</v>
       </c>
-      <c r="F95" s="91"/>
-      <c r="G95" s="75">
+      <c r="F95" s="54"/>
+      <c r="G95" s="49">
         <v>45148</v>
       </c>
-      <c r="H95" s="92"/>
-      <c r="I95" s="91"/>
-      <c r="J95" s="90"/>
-      <c r="K95" s="93"/>
-      <c r="L95" s="55"/>
-    </row>
-    <row r="96" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="44"/>
-      <c r="B96" s="81"/>
-      <c r="C96" s="77"/>
-      <c r="D96" s="77"/>
-      <c r="E96" s="73"/>
-      <c r="F96" s="77"/>
-      <c r="G96" s="73"/>
-      <c r="H96" s="85"/>
-      <c r="I96" s="77"/>
-      <c r="J96" s="81"/>
-      <c r="K96" s="87"/>
-      <c r="L96" s="46"/>
-    </row>
-    <row r="97" spans="1:12" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H95" s="51"/>
+      <c r="I95" s="54"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="60"/>
+      <c r="L95" s="63"/>
+      <c r="M95" s="94" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N95" t="e" cm="1">
+        <f t="array" ref="N95">INDEX($A$2:$A$105,M95)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="69"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="55"/>
+      <c r="D96" s="55"/>
+      <c r="E96" s="47"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="47"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="55"/>
+      <c r="J96" s="58"/>
+      <c r="K96" s="61"/>
+      <c r="L96" s="64"/>
+      <c r="M96" s="94" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="N96" t="e" cm="1">
+        <f t="array" ref="N96">INDEX($A$2:$A$105,M96)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>913</v>
       </c>
@@ -15347,7 +16149,7 @@
       <c r="F97" s="4" t="s">
         <v>916</v>
       </c>
-      <c r="G97" s="65">
+      <c r="G97" s="39">
         <v>45181</v>
       </c>
       <c r="H97" s="5" t="s">
@@ -15365,8 +16167,16 @@
       <c r="L97" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="98" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M97" s="94">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N97" t="str" cm="1">
+        <f t="array" ref="N97">INDEX($A$2:$A$105,M97)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>59</v>
       </c>
@@ -15385,7 +16195,7 @@
       <c r="F98" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G98" s="65">
+      <c r="G98" s="39">
         <v>41026</v>
       </c>
       <c r="H98" s="6" t="s">
@@ -15403,15 +16213,23 @@
       <c r="L98" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="99" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M98" s="94">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="N98" t="str" cm="1">
+        <f t="array" ref="N98">INDEX($A$2:$A$105,M98)</f>
+        <v>Ututo</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>923</v>
       </c>
-      <c r="C99" s="66" t="s">
+      <c r="C99" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D99" s="3">
@@ -15423,7 +16241,7 @@
       <c r="F99" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G99" s="65">
+      <c r="G99" s="39">
         <v>42975</v>
       </c>
       <c r="H99" s="5" t="s">
@@ -15441,8 +16259,16 @@
       <c r="L99" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="100" spans="1:12" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M99" s="94">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="N99" t="str" cm="1">
+        <f t="array" ref="N99">INDEX($A$2:$A$105,M99)</f>
+        <v>Slackware</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>61</v>
       </c>
@@ -15461,7 +16287,7 @@
       <c r="F100" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G100" s="65">
+      <c r="G100" s="39">
         <v>44851</v>
       </c>
       <c r="H100" s="5" t="s">
@@ -15479,8 +16305,16 @@
       <c r="L100" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="101" spans="1:12" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M100" s="94">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="N100" t="str" cm="1">
+        <f t="array" ref="N100">INDEX($A$2:$A$105,M100)</f>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>62</v>
       </c>
@@ -15499,7 +16333,7 @@
       <c r="F101" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G101" s="65">
+      <c r="G101" s="39">
         <v>42509</v>
       </c>
       <c r="H101" s="5" t="s">
@@ -15517,8 +16351,16 @@
       <c r="L101" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="102" spans="1:12" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M101" s="94">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="N101" t="str" cm="1">
+        <f t="array" ref="N101">INDEX($A$2:$A$105,M101)</f>
+        <v>Debian</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>933</v>
       </c>
@@ -15537,7 +16379,7 @@
       <c r="F102" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G102" s="65">
+      <c r="G102" s="39">
         <v>39289</v>
       </c>
       <c r="H102" s="5" t="s">
@@ -15555,8 +16397,16 @@
       <c r="L102" s="10" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="103" spans="1:12" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M102" s="94">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="N102" t="str" cm="1">
+        <f t="array" ref="N102">INDEX($A$2:$A$105,M102)</f>
+        <v>ClearOS</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>63</v>
       </c>
@@ -15575,7 +16425,7 @@
       <c r="F103" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G103" s="65">
+      <c r="G103" s="39">
         <v>44222</v>
       </c>
       <c r="H103" s="5" t="s">
@@ -15593,15 +16443,23 @@
       <c r="L103" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M103" s="94">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="N103" t="str" cm="1">
+        <f t="array" ref="N103">INDEX($A$2:$A$105,M103)</f>
+        <v>Debian Edu</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>940</v>
       </c>
-      <c r="C104" s="66" t="s">
+      <c r="C104" s="40" t="s">
         <v>585</v>
       </c>
       <c r="D104" s="3">
@@ -15613,7 +16471,7 @@
       <c r="F104" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G104" s="65">
+      <c r="G104" s="39">
         <v>44871</v>
       </c>
       <c r="H104" s="5" t="s">
@@ -15631,8 +16489,16 @@
       <c r="L104" s="7" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="105" spans="1:12" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M104" s="94">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="N104" t="str" cm="1">
+        <f t="array" ref="N104">INDEX($A$2:$A$105,M104)</f>
+        <v>Slackware</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>942</v>
       </c>
@@ -15651,7 +16517,7 @@
       <c r="F105" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G105" s="65">
+      <c r="G105" s="39">
         <v>45134</v>
       </c>
       <c r="H105" s="5" t="s">
@@ -15669,56 +16535,17 @@
       <c r="L105" s="7" t="s">
         <v>563</v>
       </c>
+      <c r="M105" s="94">
+        <f>MATCH(I105,$A$2:$A$105)</f>
+        <v>92</v>
+      </c>
+      <c r="N105" t="str" cm="1">
+        <f t="array" ref="N105">INDEX($A$2:$A$105,M105)</f>
+        <v>TurnKey GNU/Linux</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="L94:L96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="L41:L42"/>
     <mergeCell ref="A41:A42"/>
@@ -15727,6 +16554,53 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="L94:L96"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="AlmaLinux" display="https://en.wikipedia.org/wiki/AlmaLinux" xr:uid="{ECDB7A37-5BBC-411B-9197-8AE9DD26F401}"/>
@@ -15962,7 +16836,8 @@
     <hyperlink ref="A105" r:id="rId231" tooltip="Zorin OS" display="https://en.wikipedia.org/wiki/Zorin_OS" xr:uid="{1A40D974-124F-4BEE-851E-751E9216CFA1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId232"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId232"/>
+  <drawing r:id="rId233"/>
 </worksheet>
 </file>
 
@@ -15970,7 +16845,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBF6D11-4981-45CD-B013-8150100F9D5C}">
   <dimension ref="A1:R69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A36" workbookViewId="0">
       <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
@@ -16089,82 +16964,82 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="70" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="41" t="s">
+      <c r="C3" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="78" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="57" t="s">
+      <c r="E3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="80" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="78" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="41" t="s">
+      <c r="H3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="78" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="41" t="s">
+      <c r="L3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="78" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
+      <c r="A4" s="71"/>
       <c r="B4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="42"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
+      <c r="R4" s="79"/>
     </row>
     <row r="5" spans="1:18" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -16279,82 +17154,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="62" t="s">
         <v>174</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="39" t="s">
+      <c r="E7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="77"/>
+      <c r="P8" s="77"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
     </row>
     <row r="9" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -16413,16 +17288,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="49" t="s">
+      <c r="A10" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="84" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="62" t="s">
+      <c r="C10" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="84" t="s">
         <v>188</v>
       </c>
       <c r="E10" s="22" t="s">
@@ -16431,25 +17306,25 @@
       <c r="F10" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="62" t="s">
+      <c r="G10" s="84" t="s">
         <v>188</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="39" t="s">
+      <c r="I10" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="76" t="s">
         <v>74</v>
       </c>
       <c r="N10" s="22" t="s">
@@ -16461,33 +17336,33 @@
       <c r="P10" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="39" t="s">
+      <c r="Q10" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="63"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="85"/>
       <c r="E11" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F11" s="24">
         <v>4</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="82"/>
+      <c r="M11" s="82"/>
       <c r="N11" s="24" t="s">
         <v>189</v>
       </c>
@@ -16497,25 +17372,25 @@
       <c r="P11" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
+      <c r="Q11" s="82"/>
+      <c r="R11" s="82"/>
     </row>
     <row r="12" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
-      <c r="B12" s="64"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="64"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="86"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="86"/>
       <c r="E12" s="21" t="s">
         <v>190</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="64"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
       <c r="N12" s="25" t="s">
         <v>194</v>
       </c>
@@ -16523,8 +17398,8 @@
         <v>194</v>
       </c>
       <c r="P12" s="25"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
+      <c r="Q12" s="77"/>
+      <c r="R12" s="77"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -16695,10 +17570,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="67" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="62" t="s">
         <v>174</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -16713,7 +17588,7 @@
       <c r="F16" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G16" s="45" t="s">
+      <c r="G16" s="62" t="s">
         <v>174</v>
       </c>
       <c r="H16" s="22" t="s">
@@ -16725,13 +17600,13 @@
       <c r="J16" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="45" t="s">
+      <c r="K16" s="62" t="s">
         <v>174</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="57" t="s">
+      <c r="M16" s="80" t="s">
         <v>206</v>
       </c>
       <c r="N16" s="22" t="s">
@@ -16746,13 +17621,13 @@
       <c r="Q16" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="78" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="44"/>
-      <c r="B17" s="46"/>
+      <c r="A17" s="69"/>
+      <c r="B17" s="64"/>
       <c r="C17" s="26" t="s">
         <v>198</v>
       </c>
@@ -16765,7 +17640,7 @@
       <c r="F17" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="46"/>
+      <c r="G17" s="64"/>
       <c r="H17" s="21" t="s">
         <v>202</v>
       </c>
@@ -16775,11 +17650,11 @@
       <c r="J17" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="K17" s="46"/>
+      <c r="K17" s="64"/>
       <c r="L17" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="M17" s="59"/>
+      <c r="M17" s="81"/>
       <c r="N17" s="25" t="s">
         <v>207</v>
       </c>
@@ -16792,7 +17667,7 @@
       <c r="Q17" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="R17" s="42"/>
+      <c r="R17" s="79"/>
     </row>
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -16963,16 +17838,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="67" t="s">
         <v>212</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="47" t="s">
+      <c r="C21" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="88" t="s">
         <v>215</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -16981,96 +17856,96 @@
       <c r="F21" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="39" t="s">
+      <c r="G21" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="76" t="s">
         <v>74</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="J21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="57" t="s">
+      <c r="J21" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="80" t="s">
         <v>206</v>
       </c>
       <c r="L21" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="M21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="P21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q21" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R21" s="41" t="s">
+      <c r="M21" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R21" s="78" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
+      <c r="A22" s="68"/>
       <c r="B22" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="91"/>
       <c r="E22" s="24" t="s">
         <v>216</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G22" s="55"/>
-      <c r="H22" s="53"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="82"/>
       <c r="I22" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="J22" s="53"/>
-      <c r="K22" s="58"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="90"/>
       <c r="L22" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="M22" s="53"/>
-      <c r="N22" s="53"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="53"/>
-      <c r="Q22" s="53"/>
-      <c r="R22" s="56"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="82"/>
+      <c r="Q22" s="82"/>
+      <c r="R22" s="87"/>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="44"/>
+      <c r="A23" s="69"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="48"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="89"/>
       <c r="E23" s="21" t="s">
         <v>217</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="40"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="77"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="59"/>
+      <c r="J23" s="77"/>
+      <c r="K23" s="81"/>
       <c r="L23" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="42"/>
+      <c r="M23" s="77"/>
+      <c r="N23" s="77"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="77"/>
+      <c r="Q23" s="77"/>
+      <c r="R23" s="79"/>
     </row>
     <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -17465,82 +18340,82 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="70" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="47" t="s">
+      <c r="C31" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="88" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R31" s="39" t="s">
+      <c r="E31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="50"/>
+      <c r="A32" s="71"/>
       <c r="B32" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="77"/>
+      <c r="G32" s="77"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="77"/>
+      <c r="K32" s="77"/>
+      <c r="L32" s="77"/>
+      <c r="M32" s="77"/>
+      <c r="N32" s="77"/>
+      <c r="O32" s="77"/>
+      <c r="P32" s="77"/>
+      <c r="Q32" s="77"/>
+      <c r="R32" s="77"/>
     </row>
     <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
@@ -17599,82 +18474,82 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="49" t="s">
+      <c r="A34" s="70" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q34" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R34" s="39" t="s">
+      <c r="C34" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q34" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R34" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="50"/>
+      <c r="A35" s="71"/>
       <c r="B35" s="25">
         <v>8</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="40"/>
-      <c r="M35" s="40"/>
-      <c r="N35" s="40"/>
-      <c r="O35" s="40"/>
-      <c r="P35" s="40"/>
-      <c r="Q35" s="40"/>
-      <c r="R35" s="40"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="77"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="77"/>
+      <c r="G35" s="77"/>
+      <c r="H35" s="77"/>
+      <c r="I35" s="77"/>
+      <c r="J35" s="77"/>
+      <c r="K35" s="77"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="77"/>
+      <c r="N35" s="77"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="77"/>
+      <c r="Q35" s="77"/>
+      <c r="R35" s="77"/>
     </row>
     <row r="36" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
@@ -18013,82 +18888,82 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="67" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="39" t="s">
+      <c r="B42" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="76" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q42" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R42" s="39" t="s">
+      <c r="F42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R42" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="44"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="40"/>
+      <c r="A43" s="69"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="77"/>
       <c r="E43" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="40"/>
-      <c r="G43" s="40"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="40"/>
-      <c r="J43" s="40"/>
-      <c r="K43" s="40"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="40"/>
-      <c r="N43" s="40"/>
-      <c r="O43" s="40"/>
-      <c r="P43" s="40"/>
-      <c r="Q43" s="40"/>
-      <c r="R43" s="40"/>
+      <c r="F43" s="77"/>
+      <c r="G43" s="77"/>
+      <c r="H43" s="77"/>
+      <c r="I43" s="77"/>
+      <c r="J43" s="77"/>
+      <c r="K43" s="77"/>
+      <c r="L43" s="77"/>
+      <c r="M43" s="77"/>
+      <c r="N43" s="77"/>
+      <c r="O43" s="77"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="77"/>
+      <c r="R43" s="77"/>
     </row>
     <row r="44" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
@@ -18147,7 +19022,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="70" t="s">
         <v>252</v>
       </c>
       <c r="B45" s="22" t="s">
@@ -18156,91 +19031,91 @@
       <c r="C45" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="76" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="76" t="s">
         <v>74</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="H45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q45" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R45" s="39" t="s">
+      <c r="H45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R45" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="50"/>
+      <c r="A46" s="71"/>
       <c r="B46" s="21" t="s">
         <v>253</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="40"/>
+      <c r="D46" s="77"/>
       <c r="E46" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F46" s="40"/>
+      <c r="F46" s="77"/>
       <c r="G46" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="40"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="40"/>
-      <c r="P46" s="40"/>
-      <c r="Q46" s="40"/>
-      <c r="R46" s="40"/>
+      <c r="H46" s="77"/>
+      <c r="I46" s="77"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="77"/>
+      <c r="L46" s="77"/>
+      <c r="M46" s="77"/>
+      <c r="N46" s="77"/>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="R46" s="77"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="67" t="s">
         <v>255</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="39" t="s">
+      <c r="C47" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="76" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="22" t="s">
@@ -18249,7 +19124,7 @@
       <c r="F47" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G47" s="39" t="s">
+      <c r="G47" s="76" t="s">
         <v>74</v>
       </c>
       <c r="H47" s="22" t="s">
@@ -18258,22 +19133,22 @@
       <c r="I47" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="J47" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K47" s="39" t="s">
+      <c r="J47" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47" s="76" t="s">
         <v>74</v>
       </c>
       <c r="L47" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="M47" s="39" t="s">
+      <c r="M47" s="76" t="s">
         <v>74</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="O47" s="45" t="s">
+      <c r="O47" s="62" t="s">
         <v>174</v>
       </c>
       <c r="P47" s="22" t="s">
@@ -18282,72 +19157,72 @@
       <c r="Q47" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="R47" s="39" t="s">
+      <c r="R47" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
+      <c r="A48" s="68"/>
       <c r="B48" s="24">
         <v>9</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
+      <c r="C48" s="82"/>
+      <c r="D48" s="82"/>
       <c r="E48" s="24" t="s">
         <v>256</v>
       </c>
       <c r="F48" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="G48" s="53"/>
+      <c r="G48" s="82"/>
       <c r="H48" s="24" t="s">
         <v>259</v>
       </c>
       <c r="I48" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="82"/>
       <c r="L48" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="M48" s="53"/>
+      <c r="M48" s="82"/>
       <c r="N48" s="24">
         <v>7.2</v>
       </c>
-      <c r="O48" s="55"/>
+      <c r="O48" s="63"/>
       <c r="P48" s="24" t="s">
         <v>261</v>
       </c>
       <c r="Q48" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="R48" s="53"/>
+      <c r="R48" s="82"/>
     </row>
     <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="44"/>
+      <c r="A49" s="69"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="40"/>
+      <c r="G49" s="77"/>
       <c r="H49" s="25" t="s">
         <v>260</v>
       </c>
       <c r="I49" s="25"/>
-      <c r="J49" s="40"/>
-      <c r="K49" s="40"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
       <c r="L49" s="25"/>
-      <c r="M49" s="40"/>
+      <c r="M49" s="77"/>
       <c r="N49" s="25"/>
-      <c r="O49" s="46"/>
+      <c r="O49" s="64"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
-      <c r="R49" s="40"/>
+      <c r="R49" s="77"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="67" t="s">
         <v>262</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -18356,7 +19231,7 @@
       <c r="C50" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="47" t="s">
+      <c r="D50" s="88" t="s">
         <v>265</v>
       </c>
       <c r="E50" s="22" t="s">
@@ -18368,22 +19243,22 @@
       <c r="G50" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="H50" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J50" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L50" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M50" s="39" t="s">
+      <c r="H50" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="76" t="s">
         <v>74</v>
       </c>
       <c r="N50" s="22" t="s">
@@ -18392,25 +19267,25 @@
       <c r="O50" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="P50" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q50" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R50" s="39" t="s">
+      <c r="P50" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q50" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R50" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="44"/>
+      <c r="A51" s="69"/>
       <c r="B51" s="21" t="s">
         <v>263</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D51" s="48"/>
+      <c r="D51" s="89"/>
       <c r="E51" s="21" t="s">
         <v>266</v>
       </c>
@@ -18420,21 +19295,21 @@
       <c r="G51" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="H51" s="40"/>
-      <c r="I51" s="40"/>
-      <c r="J51" s="40"/>
-      <c r="K51" s="40"/>
-      <c r="L51" s="40"/>
-      <c r="M51" s="40"/>
+      <c r="H51" s="77"/>
+      <c r="I51" s="77"/>
+      <c r="J51" s="77"/>
+      <c r="K51" s="77"/>
+      <c r="L51" s="77"/>
+      <c r="M51" s="77"/>
       <c r="N51" s="21" t="s">
         <v>267</v>
       </c>
       <c r="O51" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="P51" s="40"/>
-      <c r="Q51" s="40"/>
-      <c r="R51" s="40"/>
+      <c r="P51" s="77"/>
+      <c r="Q51" s="77"/>
+      <c r="R51" s="77"/>
     </row>
     <row r="52" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
@@ -18493,82 +19368,82 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="49" t="s">
+      <c r="A53" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="39" t="s">
+      <c r="B53" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="76" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q53" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R53" s="39" t="s">
+      <c r="F53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q53" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R53" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="50"/>
-      <c r="B54" s="46"/>
-      <c r="C54" s="46"/>
-      <c r="D54" s="40"/>
+      <c r="A54" s="71"/>
+      <c r="B54" s="64"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="77"/>
       <c r="E54" s="31">
         <v>44989</v>
       </c>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="H54" s="40"/>
-      <c r="I54" s="40"/>
-      <c r="J54" s="40"/>
-      <c r="K54" s="40"/>
-      <c r="L54" s="40"/>
-      <c r="M54" s="40"/>
-      <c r="N54" s="40"/>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="77"/>
+      <c r="I54" s="77"/>
+      <c r="J54" s="77"/>
+      <c r="K54" s="77"/>
+      <c r="L54" s="77"/>
+      <c r="M54" s="77"/>
+      <c r="N54" s="77"/>
+      <c r="O54" s="77"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="77"/>
+      <c r="R54" s="77"/>
     </row>
     <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
@@ -18627,43 +19502,43 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="49" t="s">
+      <c r="A56" s="70" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="39" t="s">
+      <c r="B56" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="76" t="s">
         <v>74</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="I56" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J56" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K56" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L56" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M56" s="39" t="s">
+      <c r="I56" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M56" s="76" t="s">
         <v>74</v>
       </c>
       <c r="N56" s="22" t="s">
@@ -18675,29 +19550,29 @@
       <c r="P56" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="Q56" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R56" s="39" t="s">
+      <c r="Q56" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R56" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="50"/>
-      <c r="B57" s="46"/>
-      <c r="C57" s="46"/>
-      <c r="D57" s="46"/>
-      <c r="E57" s="40"/>
-      <c r="F57" s="40"/>
-      <c r="G57" s="40"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="64"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="77"/>
       <c r="H57" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="I57" s="40"/>
-      <c r="J57" s="40"/>
-      <c r="K57" s="40"/>
-      <c r="L57" s="40"/>
-      <c r="M57" s="40"/>
+      <c r="I57" s="77"/>
+      <c r="J57" s="77"/>
+      <c r="K57" s="77"/>
+      <c r="L57" s="77"/>
+      <c r="M57" s="77"/>
       <c r="N57" s="21" t="s">
         <v>270</v>
       </c>
@@ -18707,8 +19582,8 @@
       <c r="P57" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
+      <c r="Q57" s="77"/>
+      <c r="R57" s="77"/>
     </row>
     <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
@@ -18935,160 +19810,160 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="49" t="s">
+      <c r="A62" s="70" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C62" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="51" t="s">
+      <c r="C62" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="92" t="s">
         <v>276</v>
       </c>
-      <c r="E62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="P62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R62" s="39" t="s">
+      <c r="E62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q62" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R62" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="50"/>
+      <c r="A63" s="71"/>
       <c r="B63" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="46"/>
-      <c r="D63" s="52"/>
-      <c r="E63" s="40"/>
-      <c r="F63" s="40"/>
-      <c r="G63" s="40"/>
-      <c r="H63" s="40"/>
-      <c r="I63" s="40"/>
-      <c r="J63" s="40"/>
-      <c r="K63" s="40"/>
-      <c r="L63" s="40"/>
-      <c r="M63" s="40"/>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="93"/>
+      <c r="E63" s="77"/>
+      <c r="F63" s="77"/>
+      <c r="G63" s="77"/>
+      <c r="H63" s="77"/>
+      <c r="I63" s="77"/>
+      <c r="J63" s="77"/>
+      <c r="K63" s="77"/>
+      <c r="L63" s="77"/>
+      <c r="M63" s="77"/>
+      <c r="N63" s="77"/>
+      <c r="O63" s="77"/>
+      <c r="P63" s="77"/>
+      <c r="Q63" s="77"/>
+      <c r="R63" s="77"/>
     </row>
     <row r="64" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="67" t="s">
         <v>277</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C64" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="47" t="s">
+      <c r="C64" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="E64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="45" t="s">
-        <v>174</v>
-      </c>
-      <c r="H64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="I64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="J64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="K64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="N64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="O64" s="41" t="s">
+      <c r="E64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="62" t="s">
+        <v>174</v>
+      </c>
+      <c r="H64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="M64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="N64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="O64" s="78" t="s">
         <v>280</v>
       </c>
-      <c r="P64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q64" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="R64" s="39" t="s">
+      <c r="P64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q64" s="76" t="s">
+        <v>74</v>
+      </c>
+      <c r="R64" s="76" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="44"/>
+      <c r="A65" s="69"/>
       <c r="B65" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C65" s="46"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="40"/>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="40"/>
-      <c r="I65" s="40"/>
-      <c r="J65" s="40"/>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-      <c r="O65" s="42"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="89"/>
+      <c r="E65" s="77"/>
+      <c r="F65" s="64"/>
+      <c r="G65" s="64"/>
+      <c r="H65" s="77"/>
+      <c r="I65" s="77"/>
+      <c r="J65" s="77"/>
+      <c r="K65" s="77"/>
+      <c r="L65" s="77"/>
+      <c r="M65" s="77"/>
+      <c r="N65" s="77"/>
+      <c r="O65" s="79"/>
+      <c r="P65" s="77"/>
+      <c r="Q65" s="77"/>
+      <c r="R65" s="77"/>
     </row>
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
@@ -19316,6 +20191,197 @@
     </row>
   </sheetData>
   <mergeCells count="215">
+    <mergeCell ref="O64:O65"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="R62:R63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P64:P65"/>
+    <mergeCell ref="Q64:Q65"/>
+    <mergeCell ref="R64:R65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
     <mergeCell ref="N3:N4"/>
     <mergeCell ref="O3:O4"/>
     <mergeCell ref="P3:P4"/>
@@ -19340,197 +20406,6 @@
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="Q62:Q63"/>
-    <mergeCell ref="R62:R63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="M62:M63"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="O62:O63"/>
-    <mergeCell ref="P62:P63"/>
-    <mergeCell ref="P64:P65"/>
-    <mergeCell ref="Q64:Q65"/>
-    <mergeCell ref="R64:R65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="O64:O65"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Alpine Linux" display="https://en.wikipedia.org/wiki/Alpine_Linux" xr:uid="{7724EE7A-E925-4C90-A982-69B516A2CD35}"/>
@@ -23025,7 +23900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6578E674-242F-42B4-8FAD-B25817760536}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>

--- a/Linux Distros with data.xlsx
+++ b/Linux Distros with data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josec\OneDrive\Desktop\UniversityClass\Network-Science\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8108672-4A94-4936-B548-5CBD1064E594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6611AA55-561F-434D-A234-EAB44C16491A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{F5095998-FB35-4E9E-85F6-D0ED8325105E}"/>
+    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{F5095998-FB35-4E9E-85F6-D0ED8325105E}"/>
   </bookViews>
   <sheets>
     <sheet name="Technical" sheetId="4" r:id="rId1"/>
     <sheet name="General" sheetId="9" r:id="rId2"/>
-    <sheet name="Architecture" sheetId="5" r:id="rId3"/>
-    <sheet name="Package management" sheetId="6" r:id="rId4"/>
-    <sheet name="Live Media" sheetId="7" r:id="rId5"/>
-    <sheet name="Security features" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="10" r:id="rId3"/>
+    <sheet name="Architecture" sheetId="5" r:id="rId4"/>
+    <sheet name="Package management" sheetId="6" r:id="rId5"/>
+    <sheet name="Live Media" sheetId="7" r:id="rId6"/>
+    <sheet name="Security features" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,30 +41,8 @@
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3429" uniqueCount="958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="963">
   <si>
     <t>None</t>
   </si>
@@ -5840,14 +5819,29 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Parent Parent's</t>
+    <t>Dis iD</t>
+  </si>
+  <si>
+    <t>Dis Par ID</t>
+  </si>
+  <si>
+    <t>RHEL</t>
+  </si>
+  <si>
+    <t>LibreWRT</t>
+  </si>
+  <si>
+    <t>Jurix</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5929,12 +5923,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF6E7076"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="13">
     <fill>
@@ -6010,7 +5998,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -6070,12 +6058,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6224,37 +6221,10 @@
     <xf numFmtId="14" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6263,10 +6233,37 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6274,6 +6271,12 @@
     </xf>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -6284,28 +6287,19 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6314,13 +6308,40 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6333,31 +6354,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11847,19 +11843,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277F8F07-90DF-415D-BA0F-2F67569E5D75}">
-  <dimension ref="A1:N105"/>
+  <dimension ref="A1:Q105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="24.88671875" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="40.88671875" customWidth="1"/>
+    <col min="2" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.109375" customWidth="1"/>
+    <col min="5" max="5" width="3.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.21875" customWidth="1"/>
+    <col min="7" max="7" width="2.21875" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="3.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.21875" customWidth="1"/>
+    <col min="13" max="13" width="20.6640625" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="34.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="32" t="s">
         <v>65</v>
       </c>
@@ -11896,11 +11904,14 @@
       <c r="L1" s="32" t="s">
         <v>956</v>
       </c>
-      <c r="M1" s="95" t="s">
+      <c r="N1" s="50" t="s">
         <v>957</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="O1" s="50" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>556</v>
       </c>
@@ -11937,16 +11948,27 @@
       <c r="L2" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M2" s="94">
-        <f>MATCH(I2,$A$2:$A$105)</f>
-        <v>70</v>
-      </c>
-      <c r="N2" t="str" cm="1">
-        <f t="array" ref="N2">INDEX($A$2:$A$105,M2)</f>
+      <c r="M2" t="str">
+        <f t="shared" ref="M2:M33" si="0">LOOKUP(I2,$A$2:$A$105,$I$2:$I$105)</f>
+        <v>Xen and Fedora</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="str">
+        <f>LOOKUP(TRIM(Q2),$P$2:$P$105)</f>
         <v>Qubes OS</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P2" t="str">
+        <f>A2</f>
+        <v>AlmaLinux</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>I2</f>
+        <v>Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -11983,16 +12005,27 @@
       <c r="L3" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M3" s="94">
-        <f t="shared" ref="M2:M65" si="0">MATCH(I3,$A$2:$A$105)</f>
-        <v>37</v>
-      </c>
-      <c r="N3" t="str" cm="1">
-        <f t="array" ref="N3">INDEX($A$2:$A$105,M3)</f>
-        <v>Korora</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M3" t="str">
+        <f t="shared" si="0"/>
+        <v>Fedora</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O66" si="1">LOOKUP(TRIM(P3),$P$2:$P$105)</f>
+        <v>Alpine Linux</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" ref="P3:P66" si="2">A3</f>
+        <v>Alpine Linux</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q66" si="3">I3</f>
+        <v>LEAF Project</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -12029,16 +12062,27 @@
       <c r="L4" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M4" s="94">
+      <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-      <c r="N4" t="str" cm="1">
-        <f t="array" ref="N4">INDEX($A$2:$A$105,M4)</f>
-        <v>Mageia</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Mandriva Linux</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" si="1"/>
+        <v>ALT Linux</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="2"/>
+        <v>ALT Linux</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="3"/>
+        <v>Mandrake Linux</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>573</v>
       </c>
@@ -12075,16 +12119,27 @@
       <c r="L5" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M5" s="94">
+      <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N5" t="str" cm="1">
-        <f t="array" ref="N5">INDEX($A$2:$A$105,M5)</f>
-        <v>Debian Edu</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Debian</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="1"/>
+        <v>antiX</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="2"/>
+        <v>antiX</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="3"/>
+        <v>Debian, MEPIS</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>578</v>
       </c>
@@ -12121,16 +12176,27 @@
       <c r="L6" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M6" s="94">
+      <c r="M6" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N6" t="str" cm="1">
-        <f t="array" ref="N6">INDEX($A$2:$A$105,M6)</f>
+        <v>Independent, inspired from CRUX</v>
+      </c>
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="1"/>
         <v>Arch Linux</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P6" t="str">
+        <f t="shared" si="2"/>
+        <v>ArchBang</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="3"/>
+        <v>Arch Linux (UKM Edition)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -12167,16 +12233,27 @@
       <c r="L7" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M7" s="94">
+      <c r="M7" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N7" t="str" cm="1">
-        <f t="array" ref="N7">INDEX($A$2:$A$105,M7)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Arch Linux</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="2"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="3"/>
+        <v>Independent, inspired from CRUX</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -12213,16 +12290,27 @@
       <c r="L8" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M8" s="94">
+      <c r="M8" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="N8" t="str" cm="1">
-        <f t="array" ref="N8">INDEX($A$2:$A$105,M8)</f>
-        <v>EndeavourOS</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Arch Linux</v>
+      </c>
+      <c r="N8">
+        <v>6</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>BLAG</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="2"/>
+        <v>BLAG</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="3"/>
+        <v>Fedora</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -12259,16 +12347,27 @@
       <c r="L9" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M9" s="94">
+      <c r="M9" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N9" t="str" cm="1">
-        <f t="array" ref="N9">INDEX($A$2:$A$105,M9)</f>
-        <v>Debian Edu</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Debian</v>
+      </c>
+      <c r="N9">
+        <v>7</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>Bodhi Linux</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="2"/>
+        <v>Bodhi Linux</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="3"/>
+        <v>Debian, Ubuntu</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="276" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -12305,16 +12404,27 @@
       <c r="L10" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M10" s="94">
+      <c r="M10" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N10" t="str" cm="1">
-        <f t="array" ref="N10">INDEX($A$2:$A$105,M10)</f>
-        <v>Debian Edu</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Debian</v>
+      </c>
+      <c r="N10">
+        <v>8</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="1"/>
+        <v>Canaima</v>
+      </c>
+      <c r="P10" t="str">
+        <f>A10</f>
+        <v>Canaima</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="3"/>
+        <v>Debian, Ubuntu</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -12351,16 +12461,27 @@
       <c r="L11" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M11" s="94">
+      <c r="M11" t="str">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N11" t="str" cm="1">
-        <f t="array" ref="N11">INDEX($A$2:$A$105,M11)</f>
-        <v>Qubes OS</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Xen and Fedora</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+      <c r="O11" t="str">
+        <f t="shared" si="1"/>
+        <v>CentOS</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="2"/>
+        <v>CentOS</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="3"/>
+        <v>Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>602</v>
       </c>
@@ -12397,16 +12518,27 @@
       <c r="L12" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M12" s="94">
+      <c r="M12" t="str">
         <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="N12" t="str" cm="1">
-        <f t="array" ref="N12">INDEX($A$2:$A$105,M12)</f>
-        <v>Univention Corporate Server</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Debian</v>
+      </c>
+      <c r="N12">
+        <v>10</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" si="1"/>
+        <v>CentOS Stream</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="2"/>
+        <v>CentOS Stream</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="3"/>
+        <v>Upstream of Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="123" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -12443,16 +12575,27 @@
       <c r="L13" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M13" s="94">
+      <c r="M13" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N13" t="str" cm="1">
-        <f t="array" ref="N13">INDEX($A$2:$A$105,M13)</f>
-        <v>Arch Linux</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Independent, inspired from CRUX</v>
+      </c>
+      <c r="N13">
+        <v>11</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="1"/>
+        <v>Chakra</v>
+      </c>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>Chakra</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="3"/>
+        <v>Arch Linux[14]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>609</v>
       </c>
@@ -12489,16 +12632,27 @@
       <c r="L14" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M14" s="94">
+      <c r="M14" t="str">
         <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="N14" t="str" cm="1">
-        <f t="array" ref="N14">INDEX($A$2:$A$105,M14)</f>
+        <v>Enoch Linux</v>
+      </c>
+      <c r="N14">
+        <v>12</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="1"/>
+        <v>ChromeOS</v>
+      </c>
+      <c r="P14" t="str">
+        <f t="shared" si="2"/>
+        <v>ChromeOS</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="3"/>
         <v>Gentoo Linux</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -12535,16 +12689,27 @@
       <c r="L15" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M15" s="94">
+      <c r="M15" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N15" t="str" cm="1">
-        <f t="array" ref="N15">INDEX($A$2:$A$105,M15)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Arch Linux</v>
+      </c>
+      <c r="N15">
+        <v>13</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="1"/>
+        <v>Clear Linux OS</v>
+      </c>
+      <c r="P15" t="str">
+        <f t="shared" si="2"/>
+        <v>Clear Linux OS</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="3"/>
+        <v>Independent</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
@@ -12581,16 +12746,27 @@
       <c r="L16" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M16" s="94">
+      <c r="M16" t="str">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="N16" t="str" cm="1">
-        <f t="array" ref="N16">INDEX($A$2:$A$105,M16)</f>
-        <v>Red Hat Linux</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>–</v>
+      </c>
+      <c r="N16">
+        <v>14</v>
+      </c>
+      <c r="O16" t="str">
+        <f t="shared" si="1"/>
+        <v>ClearOS</v>
+      </c>
+      <c r="P16" t="str">
+        <f t="shared" si="2"/>
+        <v>ClearOS</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="3"/>
+        <v>RHEL, CentOS</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>13</v>
       </c>
@@ -12627,16 +12803,27 @@
       <c r="L17" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M17" s="94">
+      <c r="M17" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N17" t="str" cm="1">
-        <f t="array" ref="N17">INDEX($A$2:$A$105,M17)</f>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N17">
+        <v>15</v>
+      </c>
+      <c r="O17" t="str">
+        <f t="shared" si="1"/>
+        <v>CrunchBang Linux</v>
+      </c>
+      <c r="P17" t="str">
+        <f t="shared" si="2"/>
+        <v>CrunchBang Linux</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -12673,16 +12860,27 @@
       <c r="L18" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M18" s="94">
+      <c r="M18" t="str">
         <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N18" t="str" cm="1">
-        <f t="array" ref="N18">INDEX($A$2:$A$105,M18)</f>
-        <v>Debian Edu</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Debian</v>
+      </c>
+      <c r="N18">
+        <v>16</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" si="1"/>
+        <v>Damn Small Linux</v>
+      </c>
+      <c r="P18" t="str">
+        <f t="shared" si="2"/>
+        <v>Damn Small Linux</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="3"/>
+        <v>Debian, Knoppix</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="325.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -12719,16 +12917,27 @@
       <c r="L19" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M19" s="94">
+      <c r="M19" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N19" t="str" cm="1">
-        <f t="array" ref="N19">INDEX($A$2:$A$105,M19)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Arch Linux</v>
+      </c>
+      <c r="N19">
+        <v>17</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="1"/>
+        <v>Debian</v>
+      </c>
+      <c r="P19" t="str">
+        <f t="shared" si="2"/>
+        <v>Debian</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="3"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="123" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>638</v>
       </c>
@@ -12763,16 +12972,27 @@
       <c r="L20" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M20" s="94">
+      <c r="M20" t="str">
         <f t="shared" si="0"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N20">
         <v>18</v>
       </c>
-      <c r="N20" t="str" cm="1">
-        <f t="array" ref="N20">INDEX($A$2:$A$105,M20)</f>
+      <c r="O20" t="str">
+        <f t="shared" si="1"/>
+        <v>Debian Edu</v>
+      </c>
+      <c r="P20" t="str">
+        <f t="shared" si="2"/>
+        <v>Debian Edu</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>16</v>
       </c>
@@ -12809,16 +13029,27 @@
       <c r="L21" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M21" s="94">
+      <c r="M21" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N21" t="str" cm="1">
-        <f t="array" ref="N21">INDEX($A$2:$A$105,M21)</f>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N21">
+        <v>19</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="1"/>
+        <v>Devuan</v>
+      </c>
+      <c r="P21" t="str">
+        <f t="shared" si="2"/>
+        <v>Devuan</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" ht="112.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>645</v>
       </c>
@@ -12855,16 +13086,27 @@
       <c r="L22" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M22" s="94">
+      <c r="M22" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N22" t="str" cm="1">
-        <f t="array" ref="N22">INDEX($A$2:$A$105,M22)</f>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N22">
+        <v>20</v>
+      </c>
+      <c r="O22" t="str">
+        <f t="shared" si="1"/>
+        <v>Debian Edu</v>
+      </c>
+      <c r="P22" t="str">
+        <f t="shared" si="2"/>
+        <v>Deepin</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>17</v>
       </c>
@@ -12901,16 +13143,27 @@
       <c r="L23" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M23" s="94">
+      <c r="M23" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N23" t="str" cm="1">
-        <f t="array" ref="N23">INDEX($A$2:$A$105,M23)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Arch Linux</v>
+      </c>
+      <c r="N23">
+        <v>21</v>
+      </c>
+      <c r="O23" t="str">
+        <f t="shared" si="1"/>
+        <v>Dragora GNU/Linux-Libre</v>
+      </c>
+      <c r="P23" t="str">
+        <f t="shared" si="2"/>
+        <v>Dragora GNU/Linux-Libre</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="3"/>
+        <v>Independent, inspired from Slackware</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>18</v>
       </c>
@@ -12947,16 +13200,27 @@
       <c r="L24" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M24" s="94">
+      <c r="M24" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N24" t="str" cm="1">
-        <f t="array" ref="N24">INDEX($A$2:$A$105,M24)</f>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N24">
+        <v>22</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" si="1"/>
+        <v>dyne:bolic</v>
+      </c>
+      <c r="P24" t="str">
+        <f t="shared" si="2"/>
+        <v>dyne:bolic</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>655</v>
       </c>
@@ -12993,16 +13257,27 @@
       <c r="L25" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M25" s="94">
+      <c r="M25" t="str">
         <f t="shared" si="0"/>
-        <v>93</v>
-      </c>
-      <c r="N25" t="str" cm="1">
-        <f t="array" ref="N25">INDEX($A$2:$A$105,M25)</f>
-        <v>Ubuntu and Derivatives[91]</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Debian</v>
+      </c>
+      <c r="N25">
+        <v>23</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="1"/>
+        <v>Elementary OS</v>
+      </c>
+      <c r="P25" t="str">
+        <f t="shared" si="2"/>
+        <v>Elementary OS</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="3"/>
+        <v>Ubuntu, Debian</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>660</v>
       </c>
@@ -13039,16 +13314,27 @@
       <c r="L26" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M26" s="94">
+      <c r="M26" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N26" t="str" cm="1">
-        <f t="array" ref="N26">INDEX($A$2:$A$105,M26)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Arch Linux</v>
+      </c>
+      <c r="N26">
+        <v>24</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="1"/>
+        <v>ELinOS</v>
+      </c>
+      <c r="P26" t="str">
+        <f t="shared" si="2"/>
+        <v>ELinOS</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="3"/>
+        <v>Independent</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>666</v>
       </c>
@@ -13085,16 +13371,27 @@
       <c r="L27" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M27" s="94">
+      <c r="M27" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N27" t="str" cm="1">
-        <f t="array" ref="N27">INDEX($A$2:$A$105,M27)</f>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N27">
+        <v>25</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="1"/>
+        <v>Emdebian Grip</v>
+      </c>
+      <c r="P27" t="str">
+        <f t="shared" si="2"/>
+        <v>Emdebian Grip</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>669</v>
       </c>
@@ -13131,16 +13428,27 @@
       <c r="L28" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M28" s="94">
+      <c r="M28" t="str">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N28" t="str" cm="1">
-        <f t="array" ref="N28">INDEX($A$2:$A$105,M28)</f>
+        <v>Independent, inspired from CRUX</v>
+      </c>
+      <c r="N28">
+        <v>26</v>
+      </c>
+      <c r="O28" t="str">
+        <f t="shared" si="1"/>
+        <v>EndeavourOS</v>
+      </c>
+      <c r="P28" t="str">
+        <f t="shared" si="2"/>
+        <v>EndeavourOS</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="3"/>
         <v>Arch Linux</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" ht="231" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>671</v>
       </c>
@@ -13177,16 +13485,27 @@
       <c r="L29" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M29" s="94">
+      <c r="M29" t="str">
         <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="N29" t="str" cm="1">
-        <f t="array" ref="N29">INDEX($A$2:$A$105,M29)</f>
+        <v>–</v>
+      </c>
+      <c r="N29">
+        <v>27</v>
+      </c>
+      <c r="O29" t="str">
+        <f t="shared" si="1"/>
+        <v>Fedora Linux</v>
+      </c>
+      <c r="P29" t="str">
+        <f t="shared" si="2"/>
+        <v>Fedora Linux</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="3"/>
         <v>Red Hat Linux</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>677</v>
       </c>
@@ -13223,16 +13542,27 @@
       <c r="L30" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M30" s="94">
+      <c r="M30" t="str">
         <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="N30" t="str" cm="1">
-        <f t="array" ref="N30">INDEX($A$2:$A$105,M30)</f>
-        <v>TurnKey GNU/Linux</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Debian</v>
+      </c>
+      <c r="N30">
+        <v>28</v>
+      </c>
+      <c r="O30" t="str">
+        <f t="shared" si="1"/>
+        <v>Freespire</v>
+      </c>
+      <c r="P30" t="str">
+        <f t="shared" si="2"/>
+        <v>Freespire</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="3"/>
+        <v>Ubuntu</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>613</v>
       </c>
@@ -13269,16 +13599,27 @@
       <c r="L31" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M31" s="94">
+      <c r="M31" t="str">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="N31" t="str" cm="1">
-        <f t="array" ref="N31">INDEX($A$2:$A$105,M31)</f>
-        <v>EndeavourOS</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Arch Linux</v>
+      </c>
+      <c r="N31">
+        <v>29</v>
+      </c>
+      <c r="O31" t="str">
+        <f t="shared" si="1"/>
+        <v>Gentoo Linux</v>
+      </c>
+      <c r="P31" t="str">
+        <f t="shared" si="2"/>
+        <v>Gentoo Linux</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="3"/>
+        <v>Enoch Linux</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="184.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
@@ -13315,16 +13656,27 @@
       <c r="L32" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M32" s="94">
+      <c r="M32" t="str">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N32" t="str" cm="1">
-        <f t="array" ref="N32">INDEX($A$2:$A$105,M32)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="130.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
+        <v>Arch Linux</v>
+      </c>
+      <c r="N32">
+        <v>30</v>
+      </c>
+      <c r="O32" t="str">
+        <f t="shared" si="1"/>
+        <v>Grml</v>
+      </c>
+      <c r="P32" t="str">
+        <f t="shared" si="2"/>
+        <v>Guix System</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="3"/>
+        <v>Independent, inspired by NixOS</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" ht="409.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>21</v>
       </c>
@@ -13361,16 +13713,27 @@
       <c r="L33" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M33" s="94">
+      <c r="M33" t="str">
         <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N33" t="str" cm="1">
-        <f t="array" ref="N33">INDEX($A$2:$A$105,M33)</f>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N33">
+        <v>31</v>
+      </c>
+      <c r="O33" t="str">
+        <f t="shared" si="1"/>
+        <v>gNewSense</v>
+      </c>
+      <c r="P33" t="str">
+        <f t="shared" si="2"/>
+        <v>gNewSense</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -13407,16 +13770,27 @@
       <c r="L34" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M34" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N34" t="str" cm="1">
-        <f t="array" ref="N34">INDEX($A$2:$A$105,M34)</f>
+      <c r="M34" t="str">
+        <f t="shared" ref="M34:M65" si="4">LOOKUP(I34,$A$2:$A$105,$I$2:$I$105)</f>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N34">
+        <v>32</v>
+      </c>
+      <c r="O34" t="str">
+        <f t="shared" si="1"/>
+        <v>Grml</v>
+      </c>
+      <c r="P34" t="str">
+        <f t="shared" si="2"/>
+        <v>Grml</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" ht="225" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -13453,16 +13827,27 @@
       <c r="L35" s="15" t="s">
         <v>701</v>
       </c>
-      <c r="M35" s="94">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N35" t="str" cm="1">
-        <f t="array" ref="N35">INDEX($A$2:$A$105,M35)</f>
+      <c r="M35" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired from CRUX</v>
+      </c>
+      <c r="N35">
+        <v>33</v>
+      </c>
+      <c r="O35" t="str">
+        <f t="shared" si="1"/>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+      <c r="P35" t="str">
+        <f t="shared" si="2"/>
+        <v>Hyperbola GNU/Linux-libre</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="3"/>
         <v>Arch Linux</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>24</v>
       </c>
@@ -13499,16 +13884,27 @@
       <c r="L36" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M36" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N36" t="str" cm="1">
-        <f t="array" ref="N36">INDEX($A$2:$A$105,M36)</f>
+      <c r="M36" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N36">
+        <v>34</v>
+      </c>
+      <c r="O36" t="str">
+        <f t="shared" si="1"/>
+        <v>Kali Linux</v>
+      </c>
+      <c r="P36" t="str">
+        <f t="shared" si="2"/>
+        <v>Kali Linux</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
@@ -13545,16 +13941,27 @@
       <c r="L37" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M37" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N37" t="str" cm="1">
-        <f t="array" ref="N37">INDEX($A$2:$A$105,M37)</f>
+      <c r="M37" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N37">
+        <v>35</v>
+      </c>
+      <c r="O37" t="str">
+        <f t="shared" si="1"/>
+        <v>Knoppix</v>
+      </c>
+      <c r="P37" t="str">
+        <f t="shared" si="2"/>
+        <v>Knoppix</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>709</v>
       </c>
@@ -13591,16 +13998,27 @@
       <c r="L38" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M38" s="94">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="N38" t="str" cm="1">
-        <f t="array" ref="N38">INDEX($A$2:$A$105,M38)</f>
-        <v>EndeavourOS</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M38" t="str">
+        <f t="shared" si="4"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="N38">
+        <v>36</v>
+      </c>
+      <c r="O38" t="str">
+        <f t="shared" si="1"/>
+        <v>Korora</v>
+      </c>
+      <c r="P38" t="str">
+        <f t="shared" si="2"/>
+        <v>Korora</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="3"/>
+        <v>Fedora</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>26</v>
       </c>
@@ -13637,16 +14055,27 @@
       <c r="L39" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M39" s="94">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="N39" t="str" cm="1">
-        <f t="array" ref="N39">INDEX($A$2:$A$105,M39)</f>
-        <v>MEPIS</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M39" t="str">
+        <f t="shared" si="4"/>
+        <v>Debian</v>
+      </c>
+      <c r="N39">
+        <v>37</v>
+      </c>
+      <c r="O39" t="str">
+        <f t="shared" si="1"/>
+        <v>LibreCMC</v>
+      </c>
+      <c r="P39" t="str">
+        <f t="shared" si="2"/>
+        <v>LibreCMC</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="3"/>
+        <v>Merged from LibreWRT</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>716</v>
       </c>
@@ -13683,84 +14112,117 @@
       <c r="L40" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M40" s="94">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="N40" t="str" cm="1">
-        <f t="array" ref="N40">INDEX($A$2:$A$105,M40)</f>
-        <v>TurnKey GNU/Linux</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="70" t="s">
+      <c r="M40" t="str">
+        <f t="shared" si="4"/>
+        <v>Debian</v>
+      </c>
+      <c r="N40">
+        <v>38</v>
+      </c>
+      <c r="O40" t="str">
+        <f t="shared" si="1"/>
+        <v>Linspire</v>
+      </c>
+      <c r="P40" t="str">
+        <f t="shared" si="2"/>
+        <v>Linspire</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="3"/>
+        <v>Ubuntu</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="57" t="s">
         <v>720</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="59" t="s">
         <v>585</v>
       </c>
-      <c r="D41" s="53">
+      <c r="D41" s="57">
         <v>2006</v>
       </c>
-      <c r="E41" s="56" t="s">
+      <c r="E41" s="61" t="s">
         <v>721</v>
       </c>
-      <c r="F41" s="56" t="s">
+      <c r="F41" s="61" t="s">
         <v>722</v>
       </c>
       <c r="G41" s="65">
         <v>45123</v>
       </c>
-      <c r="H41" s="50" t="s">
+      <c r="H41" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="I41" s="53" t="s">
+      <c r="I41" s="57" t="s">
         <v>723</v>
       </c>
-      <c r="J41" s="53" t="s">
+      <c r="J41" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="K41" s="59" t="s">
+      <c r="K41" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L41" s="62" t="s">
+      <c r="L41" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="M41" s="94">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="N41" t="str" cm="1">
-        <f t="array" ref="N41">INDEX($A$2:$A$105,M41)</f>
-        <v>Debian Edu</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="71"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="58"/>
-      <c r="F42" s="58"/>
+      <c r="M41" t="str">
+        <f t="shared" si="4"/>
+        <v>Debian</v>
+      </c>
+      <c r="N41">
+        <v>39</v>
+      </c>
+      <c r="O41" t="str">
+        <f t="shared" si="1"/>
+        <v>Linux Lite</v>
+      </c>
+      <c r="P41" t="str">
+        <f t="shared" si="2"/>
+        <v>Linux Mint</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="3"/>
+        <v>Debian(LMDE), Ubuntu (main editions)</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="56"/>
+      <c r="B42" s="58"/>
+      <c r="C42" s="60"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
       <c r="G42" s="66"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="61"/>
-      <c r="L42" s="64"/>
-      <c r="M42" s="94" t="e">
-        <f t="shared" si="0"/>
+      <c r="H42" s="68"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="54"/>
+      <c r="M42" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="N42" t="e" cm="1">
-        <f t="array" ref="N42">INDEX($A$2:$A$105,M42)</f>
+      <c r="N42">
+        <v>40</v>
+      </c>
+      <c r="O42" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>724</v>
       </c>
@@ -13797,16 +14259,27 @@
       <c r="L43" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M43" s="94">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="N43" t="str" cm="1">
-        <f t="array" ref="N43">INDEX($A$2:$A$105,M43)</f>
-        <v>TurnKey GNU/Linux</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M43" t="str">
+        <f t="shared" si="4"/>
+        <v>Debian</v>
+      </c>
+      <c r="N43">
+        <v>41</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="1"/>
+        <v>Linux Lite</v>
+      </c>
+      <c r="P43" t="str">
+        <f t="shared" si="2"/>
+        <v>Linux Lite</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="3"/>
+        <v>Ubuntu</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>28</v>
       </c>
@@ -13843,16 +14316,27 @@
       <c r="L44" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M44" s="94">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="N44" t="str" cm="1">
-        <f t="array" ref="N44">INDEX($A$2:$A$105,M44)</f>
+      <c r="M44" t="str">
+        <f t="shared" si="4"/>
+        <v>Red Hat Linux</v>
+      </c>
+      <c r="N44">
+        <v>42</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="1"/>
+        <v>Mageia</v>
+      </c>
+      <c r="P44" t="str">
+        <f t="shared" si="2"/>
+        <v>Mageia</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="3"/>
         <v>Mandriva Linux</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>29</v>
       </c>
@@ -13885,16 +14369,27 @@
       <c r="L45" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M45" s="94">
-        <f t="shared" si="0"/>
-        <v>72</v>
-      </c>
-      <c r="N45" t="str" cm="1">
-        <f t="array" ref="N45">INDEX($A$2:$A$105,M45)</f>
+      <c r="M45" t="str">
+        <f t="shared" si="4"/>
+        <v>–</v>
+      </c>
+      <c r="N45">
+        <v>43</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="1"/>
+        <v>Mandriva Linux</v>
+      </c>
+      <c r="P45" t="str">
+        <f t="shared" si="2"/>
+        <v>Mandriva Linux</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="3"/>
         <v>Red Hat Linux</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>30</v>
       </c>
@@ -13931,16 +14426,27 @@
       <c r="L46" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M46" s="94">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N46" t="str" cm="1">
-        <f t="array" ref="N46">INDEX($A$2:$A$105,M46)</f>
+      <c r="M46" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired from CRUX</v>
+      </c>
+      <c r="N46">
+        <v>44</v>
+      </c>
+      <c r="O46" t="str">
+        <f t="shared" si="1"/>
+        <v>Manjaro Linux</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" si="2"/>
+        <v>Manjaro Linux</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="3"/>
         <v>Arch Linux</v>
       </c>
     </row>
-    <row r="47" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
@@ -13977,16 +14483,27 @@
       <c r="L47" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M47" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N47" t="str" cm="1">
-        <f t="array" ref="N47">INDEX($A$2:$A$105,M47)</f>
+      <c r="M47" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N47">
+        <v>45</v>
+      </c>
+      <c r="O47" t="str">
+        <f t="shared" si="1"/>
+        <v>MEPIS</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" si="2"/>
+        <v>MEPIS</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="48" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>32</v>
       </c>
@@ -14023,16 +14540,27 @@
       <c r="L48" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M48" s="94">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N48" t="str" cm="1">
-        <f t="array" ref="N48">INDEX($A$2:$A$105,M48)</f>
-        <v>Qubes OS</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M48" t="str">
+        <f t="shared" si="4"/>
+        <v>Xen and Fedora</v>
+      </c>
+      <c r="N48">
+        <v>46</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" si="1"/>
+        <v>MIRACLE LINUX</v>
+      </c>
+      <c r="P48" t="str">
+        <f t="shared" si="2"/>
+        <v>MIRACLE LINUX</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="3"/>
+        <v>Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -14069,16 +14597,27 @@
       <c r="L49" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M49" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N49" t="str" cm="1">
-        <f t="array" ref="N49">INDEX($A$2:$A$105,M49)</f>
+      <c r="M49" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N49">
+        <v>47</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="1"/>
+        <v>Musix GNU+Linux</v>
+      </c>
+      <c r="P49" t="str">
+        <f t="shared" si="2"/>
+        <v>Musix GNU+Linux</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>746</v>
       </c>
@@ -14115,16 +14654,27 @@
       <c r="L50" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M50" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N50" t="str" cm="1">
-        <f t="array" ref="N50">INDEX($A$2:$A$105,M50)</f>
+      <c r="M50" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N50">
+        <v>48</v>
+      </c>
+      <c r="O50" t="str">
+        <f t="shared" si="1"/>
+        <v>Netrunner</v>
+      </c>
+      <c r="P50" t="str">
+        <f t="shared" si="2"/>
+        <v>Netrunner</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>34</v>
       </c>
@@ -14161,16 +14711,27 @@
       <c r="L51" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M51" s="94" t="e">
-        <f t="shared" si="0"/>
+      <c r="M51" t="e">
+        <f t="shared" si="4"/>
         <v>#N/A</v>
       </c>
-      <c r="N51" t="e" cm="1">
-        <f t="array" ref="N51">INDEX($A$2:$A$105,M51)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N51">
+        <v>49</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="1"/>
+        <v>NixOS</v>
+      </c>
+      <c r="P51" t="str">
+        <f t="shared" si="2"/>
+        <v>NixOS</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="3"/>
+        <v>–</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="144.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>755</v>
       </c>
@@ -14207,16 +14768,27 @@
       <c r="L52" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M52" s="94">
-        <f t="shared" si="0"/>
-        <v>88</v>
-      </c>
-      <c r="N52" t="str" cm="1">
-        <f t="array" ref="N52">INDEX($A$2:$A$105,M52)</f>
-        <v>SUSE Linux Enterprise</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M52" t="str">
+        <f t="shared" si="4"/>
+        <v>Slackware, Jurix</v>
+      </c>
+      <c r="N52">
+        <v>50</v>
+      </c>
+      <c r="O52" t="str">
+        <f t="shared" si="1"/>
+        <v>Novell Open Enterprise Server</v>
+      </c>
+      <c r="P52" t="str">
+        <f t="shared" si="2"/>
+        <v>Novell Open Enterprise Server</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="3"/>
+        <v>SUSE Linux Enterprise Server</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>35</v>
       </c>
@@ -14253,16 +14825,27 @@
       <c r="L53" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M53" s="94">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="N53" t="str" cm="1">
-        <f t="array" ref="N53">INDEX($A$2:$A$105,M53)</f>
-        <v>Knoppix</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M53" t="str">
+        <f t="shared" si="4"/>
+        <v>Debian</v>
+      </c>
+      <c r="N53">
+        <v>51</v>
+      </c>
+      <c r="O53" t="str">
+        <f t="shared" si="1"/>
+        <v>OpenELEC</v>
+      </c>
+      <c r="P53" t="str">
+        <f t="shared" si="2"/>
+        <v>OpenELEC</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="3"/>
+        <v>Kodi</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>36</v>
       </c>
@@ -14299,16 +14882,27 @@
       <c r="L54" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M54" s="94">
-        <f t="shared" si="0"/>
-        <v>79</v>
-      </c>
-      <c r="N54" t="str" cm="1">
-        <f t="array" ref="N54">INDEX($A$2:$A$105,M54)</f>
-        <v>Slackware</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M54" t="str">
+        <f t="shared" si="4"/>
+        <v>Softlanding Linux System (SLS)</v>
+      </c>
+      <c r="N54">
+        <v>52</v>
+      </c>
+      <c r="O54" t="str">
+        <f t="shared" si="1"/>
+        <v>openSUSE</v>
+      </c>
+      <c r="P54" t="str">
+        <f t="shared" si="2"/>
+        <v>openSUSE</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="3"/>
+        <v>Slackware, Jurix</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>38</v>
       </c>
@@ -14345,16 +14939,27 @@
       <c r="L55" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M55" s="94">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N55" t="str" cm="1">
-        <f t="array" ref="N55">INDEX($A$2:$A$105,M55)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M55" t="str">
+        <f t="shared" si="4"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="N55">
+        <v>53</v>
+      </c>
+      <c r="O55" t="str">
+        <f t="shared" si="1"/>
+        <v>OpenWrt</v>
+      </c>
+      <c r="P55" t="str">
+        <f t="shared" si="2"/>
+        <v>OpenWrt</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="3"/>
+        <v>Independent</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>772</v>
       </c>
@@ -14391,16 +14996,27 @@
       <c r="L56" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M56" s="94">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="N56" t="str" cm="1">
-        <f t="array" ref="N56">INDEX($A$2:$A$105,M56)</f>
+      <c r="M56" t="str">
+        <f t="shared" si="4"/>
+        <v>Red Hat Linux</v>
+      </c>
+      <c r="N56">
+        <v>54</v>
+      </c>
+      <c r="O56" t="str">
+        <f t="shared" si="1"/>
+        <v>OpenELEC</v>
+      </c>
+      <c r="P56" t="str">
+        <f t="shared" si="2"/>
+        <v>OpenMandriva Lx</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="3"/>
         <v>Mandriva Linux</v>
       </c>
     </row>
-    <row r="57" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>775</v>
       </c>
@@ -14437,16 +15053,27 @@
       <c r="L57" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M57" s="94">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="N57" t="str" cm="1">
-        <f t="array" ref="N57">INDEX($A$2:$A$105,M57)</f>
-        <v>Qubes OS</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M57" t="str">
+        <f t="shared" si="4"/>
+        <v>Xen and Fedora</v>
+      </c>
+      <c r="N57">
+        <v>55</v>
+      </c>
+      <c r="O57" t="str">
+        <f t="shared" si="1"/>
+        <v>Oracle Linux</v>
+      </c>
+      <c r="P57" t="str">
+        <f t="shared" si="2"/>
+        <v>Oracle Linux</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="3"/>
+        <v>Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" ht="214.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>39</v>
       </c>
@@ -14483,86 +15110,119 @@
       <c r="L58" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M58" s="94">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="N58" t="str" cm="1">
-        <f t="array" ref="N58">INDEX($A$2:$A$105,M58)</f>
+      <c r="M58" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired from CRUX</v>
+      </c>
+      <c r="N58">
+        <v>56</v>
+      </c>
+      <c r="O58" t="str">
+        <f t="shared" si="1"/>
+        <v>Parabola GNU/Linux-libre</v>
+      </c>
+      <c r="P58" t="str">
+        <f t="shared" si="2"/>
+        <v>Parabola GNU/Linux-libre</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="3"/>
         <v>Arch Linux</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="70" t="s">
+    <row r="59" spans="1:17" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B59" s="56" t="s">
+      <c r="B59" s="61" t="s">
         <v>782</v>
       </c>
-      <c r="C59" s="53" t="s">
+      <c r="C59" s="57" t="s">
         <v>783</v>
       </c>
-      <c r="D59" s="53">
+      <c r="D59" s="57">
         <v>2005</v>
       </c>
-      <c r="E59" s="53" t="s">
+      <c r="E59" s="57" t="s">
         <v>784</v>
       </c>
-      <c r="F59" s="72" t="s">
+      <c r="F59" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G59" s="65">
         <v>45168</v>
       </c>
-      <c r="H59" s="50" t="s">
+      <c r="H59" s="67" t="s">
         <v>560</v>
       </c>
       <c r="I59" s="43" t="s">
         <v>785</v>
       </c>
-      <c r="J59" s="53" t="s">
+      <c r="J59" s="57" t="s">
         <v>583</v>
       </c>
-      <c r="K59" s="59" t="s">
+      <c r="K59" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L59" s="62" t="s">
+      <c r="L59" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="M59" s="94">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="N59" t="str" cm="1">
-        <f t="array" ref="N59">INDEX($A$2:$A$105,M59)</f>
-        <v>Freespire</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="71"/>
-      <c r="B60" s="58"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="55"/>
-      <c r="E60" s="55"/>
-      <c r="F60" s="73"/>
+      <c r="M59" t="str">
+        <f t="shared" si="4"/>
+        <v>Ubuntu</v>
+      </c>
+      <c r="N59">
+        <v>57</v>
+      </c>
+      <c r="O59" t="str">
+        <f t="shared" si="1"/>
+        <v>Pardus</v>
+      </c>
+      <c r="P59" t="str">
+        <f t="shared" si="2"/>
+        <v>Pardus</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="3"/>
+        <v>Gentoo (2011.2)</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="56"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="58"/>
+      <c r="D60" s="58"/>
+      <c r="E60" s="58"/>
+      <c r="F60" s="64"/>
       <c r="G60" s="66"/>
-      <c r="H60" s="52"/>
+      <c r="H60" s="68"/>
       <c r="I60" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="J60" s="55"/>
-      <c r="K60" s="61"/>
-      <c r="L60" s="64"/>
-      <c r="M60" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N60" t="str" cm="1">
-        <f t="array" ref="N60">INDEX($A$2:$A$105,M60)</f>
+      <c r="J60" s="58"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="54"/>
+      <c r="M60" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N60">
+        <v>58</v>
+      </c>
+      <c r="O60" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>786</v>
       </c>
@@ -14599,16 +15259,27 @@
       <c r="L61" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M61" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N61" t="str" cm="1">
-        <f t="array" ref="N61">INDEX($A$2:$A$105,M61)</f>
+      <c r="M61" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N61">
+        <v>59</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="1"/>
+        <v>Parrot OS</v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" si="2"/>
+        <v>Parrot OS</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>41</v>
       </c>
@@ -14645,16 +15316,27 @@
       <c r="L62" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M62" s="94">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="N62" t="str" cm="1">
-        <f t="array" ref="N62">INDEX($A$2:$A$105,M62)</f>
+      <c r="M62" t="str">
+        <f t="shared" si="4"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N62">
+        <v>60</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="1"/>
+        <v>Parsix</v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="2"/>
+        <v>Parsix</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="3"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="63" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>794</v>
       </c>
@@ -14691,16 +15373,27 @@
       <c r="L63" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M63" s="94">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N63" t="str" cm="1">
-        <f t="array" ref="N63">INDEX($A$2:$A$105,M63)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M63" t="str">
+        <f t="shared" si="4"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="N63">
+        <v>61</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="1"/>
+        <v>Parted Magic</v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="2"/>
+        <v>Parted Magic</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="3"/>
+        <v>Independent</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>42</v>
       </c>
@@ -14737,29 +15430,40 @@
       <c r="L64" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M64" s="94">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="N64" t="str" cm="1">
-        <f t="array" ref="N64">INDEX($A$2:$A$105,M64)</f>
+      <c r="M64" t="str">
+        <f t="shared" si="4"/>
+        <v>Red Hat Linux</v>
+      </c>
+      <c r="N64">
+        <v>62</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="1"/>
+        <v>PCLinuxOS</v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="2"/>
+        <v>PCLinuxOS</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="3"/>
         <v>Mandriva Linux</v>
       </c>
     </row>
-    <row r="65" spans="1:14" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A65" s="70" t="s">
+    <row r="65" spans="1:17" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="55" t="s">
         <v>802</v>
       </c>
-      <c r="B65" s="53" t="s">
+      <c r="B65" s="57" t="s">
         <v>803</v>
       </c>
-      <c r="C65" s="53" t="s">
+      <c r="C65" s="57" t="s">
         <v>804</v>
       </c>
-      <c r="D65" s="53">
+      <c r="D65" s="57">
         <v>2017</v>
       </c>
-      <c r="E65" s="53" t="s">
+      <c r="E65" s="57" t="s">
         <v>805</v>
       </c>
       <c r="F65" s="43" t="s">
@@ -14768,55 +15472,77 @@
       <c r="G65" s="65">
         <v>44676</v>
       </c>
-      <c r="H65" s="50" t="s">
+      <c r="H65" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="I65" s="53" t="s">
+      <c r="I65" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="J65" s="53" t="s">
+      <c r="J65" s="57" t="s">
         <v>808</v>
       </c>
-      <c r="K65" s="59" t="s">
+      <c r="K65" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L65" s="62" t="s">
+      <c r="L65" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="M65" s="94">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-      <c r="N65" t="str" cm="1">
-        <f t="array" ref="N65">INDEX($A$2:$A$105,M65)</f>
-        <v>TurnKey GNU/Linux</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="71"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="55"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
+      <c r="M65" t="str">
+        <f t="shared" si="4"/>
+        <v>Debian</v>
+      </c>
+      <c r="N65">
+        <v>63</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="1"/>
+        <v>Pentoo</v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="2"/>
+        <v>Pop! OS</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="3"/>
+        <v>Ubuntu</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="56"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="58"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
       <c r="F66" s="47" t="s">
         <v>807</v>
       </c>
       <c r="G66" s="66"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="55"/>
-      <c r="K66" s="61"/>
-      <c r="L66" s="64"/>
-      <c r="M66" s="94" t="e">
-        <f t="shared" ref="M66:M104" si="1">MATCH(I66,$A$2:$A$105)</f>
+      <c r="H66" s="68"/>
+      <c r="I66" s="58"/>
+      <c r="J66" s="58"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="54"/>
+      <c r="M66" t="e">
+        <f t="shared" ref="M66:M97" si="5">LOOKUP(I66,$A$2:$A$105,$I$2:$I$105)</f>
         <v>#N/A</v>
       </c>
-      <c r="N66" t="e" cm="1">
-        <f t="array" ref="N66">INDEX($A$2:$A$105,M66)</f>
+      <c r="N66">
+        <v>64</v>
+      </c>
+      <c r="O66" t="e">
+        <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q66">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>43</v>
       </c>
@@ -14853,16 +15579,27 @@
       <c r="L67" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M67" s="94">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N67" t="str" cm="1">
-        <f t="array" ref="N67">INDEX($A$2:$A$105,M67)</f>
+      <c r="M67" t="str">
+        <f t="shared" si="5"/>
+        <v>Enoch Linux</v>
+      </c>
+      <c r="N67">
+        <v>65</v>
+      </c>
+      <c r="O67" t="str">
+        <f t="shared" ref="O67:O105" si="6">LOOKUP(TRIM(P67),$P$2:$P$105)</f>
+        <v>Pentoo</v>
+      </c>
+      <c r="P67" t="str">
+        <f t="shared" ref="P67:P105" si="7">A67</f>
+        <v>Pentoo</v>
+      </c>
+      <c r="Q67" t="str">
+        <f t="shared" ref="Q67:Q105" si="8">I67</f>
         <v>Gentoo Linux</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>44</v>
       </c>
@@ -14899,16 +15636,27 @@
       <c r="L68" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M68" s="94">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="N68" t="str" cm="1">
-        <f t="array" ref="N68">INDEX($A$2:$A$105,M68)</f>
+      <c r="M68" t="str">
+        <f t="shared" si="5"/>
+        <v>Softlanding Linux System (SLS)</v>
+      </c>
+      <c r="N68">
+        <v>66</v>
+      </c>
+      <c r="O68" t="str">
+        <f t="shared" si="6"/>
+        <v>Porteus</v>
+      </c>
+      <c r="P68" t="str">
+        <f t="shared" si="7"/>
+        <v>Porteus</v>
+      </c>
+      <c r="Q68" t="str">
+        <f t="shared" si="8"/>
         <v>Slackware</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>46</v>
       </c>
@@ -14945,16 +15693,27 @@
       <c r="L69" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M69" s="94">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="N69" t="str" cm="1">
-        <f t="array" ref="N69">INDEX($A$2:$A$105,M69)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M69" t="str">
+        <f t="shared" si="5"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="N69">
+        <v>67</v>
+      </c>
+      <c r="O69" t="str">
+        <f t="shared" si="6"/>
+        <v>Puppy Linux</v>
+      </c>
+      <c r="P69" t="str">
+        <f t="shared" si="7"/>
+        <v>Puppy Linux</v>
+      </c>
+      <c r="Q69" t="str">
+        <f t="shared" si="8"/>
+        <v>Independent, inspired from Vector linux</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>817</v>
       </c>
@@ -14991,16 +15750,27 @@
       <c r="L70" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M70" s="94">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N70" t="str" cm="1">
-        <f t="array" ref="N70">INDEX($A$2:$A$105,M70)</f>
+      <c r="M70" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N70">
+        <v>68</v>
+      </c>
+      <c r="O70" t="str">
+        <f t="shared" si="6"/>
+        <v>PureOS</v>
+      </c>
+      <c r="P70" t="str">
+        <f t="shared" si="7"/>
+        <v>PureOS</v>
+      </c>
+      <c r="Q70" t="str">
+        <f t="shared" si="8"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>823</v>
       </c>
@@ -15037,16 +15807,27 @@
       <c r="L71" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M71" s="94">
-        <f t="shared" si="1"/>
-        <v>101</v>
-      </c>
-      <c r="N71" t="str" cm="1">
-        <f t="array" ref="N71">INDEX($A$2:$A$105,M71)</f>
-        <v>Xandros</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M71" t="str">
+        <f t="shared" si="5"/>
+        <v>Corel Linux</v>
+      </c>
+      <c r="N71">
+        <v>69</v>
+      </c>
+      <c r="O71" t="str">
+        <f t="shared" si="6"/>
+        <v>Qubes OS</v>
+      </c>
+      <c r="P71" t="str">
+        <f t="shared" si="7"/>
+        <v>Qubes OS</v>
+      </c>
+      <c r="Q71" t="str">
+        <f t="shared" si="8"/>
+        <v>Xen and Fedora</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" ht="50.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>829</v>
       </c>
@@ -15083,16 +15864,27 @@
       <c r="L72" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M72" s="94">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="N72" t="str" cm="1">
-        <f t="array" ref="N72">INDEX($A$2:$A$105,M72)</f>
-        <v>Red Hat Linux</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M72" t="str">
+        <f t="shared" si="5"/>
+        <v>–</v>
+      </c>
+      <c r="N72">
+        <v>70</v>
+      </c>
+      <c r="O72" t="str">
+        <f t="shared" si="6"/>
+        <v>Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+      <c r="P72" t="str">
+        <f t="shared" si="7"/>
+        <v>Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+      <c r="Q72" t="str">
+        <f t="shared" si="8"/>
+        <v>Red Hat Linux, Fedora</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>676</v>
       </c>
@@ -15129,16 +15921,27 @@
       <c r="L73" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M73" s="94" t="e">
-        <f t="shared" si="1"/>
+      <c r="M73" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="N73" t="e" cm="1">
-        <f t="array" ref="N73">INDEX($A$2:$A$105,M73)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N73">
+        <v>71</v>
+      </c>
+      <c r="O73" t="str">
+        <f t="shared" si="6"/>
+        <v>Red Hat Linux</v>
+      </c>
+      <c r="P73" t="str">
+        <f t="shared" si="7"/>
+        <v>Red Hat Linux</v>
+      </c>
+      <c r="Q73" t="str">
+        <f t="shared" si="8"/>
+        <v>–</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" ht="133.19999999999999" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>836</v>
       </c>
@@ -15175,16 +15978,27 @@
       <c r="L74" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M74" s="94">
-        <f t="shared" si="1"/>
+      <c r="M74" t="str">
+        <f t="shared" si="5"/>
+        <v>–</v>
+      </c>
+      <c r="N74">
         <v>72</v>
       </c>
-      <c r="N74" t="str" cm="1">
-        <f t="array" ref="N74">INDEX($A$2:$A$105,M74)</f>
+      <c r="O74" t="str">
+        <f t="shared" si="6"/>
+        <v>Rocks Cluster Distribution</v>
+      </c>
+      <c r="P74" t="str">
+        <f t="shared" si="7"/>
+        <v>Rocks Cluster Distribution</v>
+      </c>
+      <c r="Q74" t="str">
+        <f t="shared" si="8"/>
         <v>Red Hat Linux</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" ht="245.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>839</v>
       </c>
@@ -15221,16 +16035,27 @@
       <c r="L75" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M75" s="94">
-        <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-      <c r="N75" t="str" cm="1">
-        <f t="array" ref="N75">INDEX($A$2:$A$105,M75)</f>
-        <v>Qubes OS</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M75" t="str">
+        <f t="shared" si="5"/>
+        <v>Xen and Fedora</v>
+      </c>
+      <c r="N75">
+        <v>73</v>
+      </c>
+      <c r="O75" t="str">
+        <f t="shared" si="6"/>
+        <v>Rocky Linux</v>
+      </c>
+      <c r="P75" t="str">
+        <f t="shared" si="7"/>
+        <v>Rocky Linux</v>
+      </c>
+      <c r="Q75" t="str">
+        <f t="shared" si="8"/>
+        <v>Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>842</v>
       </c>
@@ -15267,16 +16092,27 @@
       <c r="L76" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M76" s="94">
-        <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="N76" t="str" cm="1">
-        <f t="array" ref="N76">INDEX($A$2:$A$105,M76)</f>
-        <v>Mageia</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M76" t="str">
+        <f t="shared" si="5"/>
+        <v>Mandriva Linux</v>
+      </c>
+      <c r="N76">
+        <v>74</v>
+      </c>
+      <c r="O76" t="str">
+        <f t="shared" si="6"/>
+        <v>ROSA</v>
+      </c>
+      <c r="P76" t="str">
+        <f t="shared" si="7"/>
+        <v>ROSA</v>
+      </c>
+      <c r="Q76" t="str">
+        <f t="shared" si="8"/>
+        <v>Mandriva</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>48</v>
       </c>
@@ -15313,16 +16149,27 @@
       <c r="L77" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M77" s="94">
-        <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="N77" t="str" cm="1">
-        <f t="array" ref="N77">INDEX($A$2:$A$105,M77)</f>
+      <c r="M77" t="str">
+        <f t="shared" si="5"/>
+        <v>Enoch Linux</v>
+      </c>
+      <c r="N77">
+        <v>75</v>
+      </c>
+      <c r="O77" t="str">
+        <f t="shared" si="6"/>
+        <v>Sabayon Linux</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" si="7"/>
+        <v>Sabayon Linux</v>
+      </c>
+      <c r="Q77" t="str">
+        <f t="shared" si="8"/>
         <v>Gentoo Linux</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" ht="204.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>848</v>
       </c>
@@ -15359,16 +16206,27 @@
       <c r="L78" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M78" s="94">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="N78" t="str" cm="1">
-        <f t="array" ref="N78">INDEX($A$2:$A$105,M78)</f>
+      <c r="M78" t="str">
+        <f t="shared" si="5"/>
+        <v>Softlanding Linux System (SLS)</v>
+      </c>
+      <c r="N78">
+        <v>76</v>
+      </c>
+      <c r="O78" t="str">
+        <f t="shared" si="6"/>
+        <v>Salix OS</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" si="7"/>
+        <v>Salix OS</v>
+      </c>
+      <c r="Q78" t="str">
+        <f t="shared" si="8"/>
         <v>Slackware</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>49</v>
       </c>
@@ -15405,16 +16263,27 @@
       <c r="L79" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M79" s="94">
-        <f t="shared" si="1"/>
-        <v>72</v>
-      </c>
-      <c r="N79" t="str" cm="1">
-        <f t="array" ref="N79">INDEX($A$2:$A$105,M79)</f>
-        <v>Red Hat Linux</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M79" t="str">
+        <f t="shared" si="5"/>
+        <v>–</v>
+      </c>
+      <c r="N79">
+        <v>77</v>
+      </c>
+      <c r="O79" t="str">
+        <f t="shared" si="6"/>
+        <v>Scientific Linux</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="7"/>
+        <v>Scientific Linux</v>
+      </c>
+      <c r="Q79" t="str">
+        <f t="shared" si="8"/>
+        <v>Red Hat Linux, Red Hat Enterprise Linux (RHEL)</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>45</v>
       </c>
@@ -15451,16 +16320,27 @@
       <c r="L80" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M80" s="94">
-        <f t="shared" si="1"/>
-        <v>81</v>
-      </c>
-      <c r="N80" t="str" cm="1">
-        <f t="array" ref="N80">INDEX($A$2:$A$105,M80)</f>
-        <v>SliTaz GNU/Linux</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M80" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent</v>
+      </c>
+      <c r="N80">
+        <v>78</v>
+      </c>
+      <c r="O80" t="str">
+        <f t="shared" si="6"/>
+        <v>Slackware</v>
+      </c>
+      <c r="P80" t="str">
+        <f t="shared" si="7"/>
+        <v>Slackware</v>
+      </c>
+      <c r="Q80" t="str">
+        <f t="shared" si="8"/>
+        <v>Softlanding Linux System (SLS)</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>50</v>
       </c>
@@ -15497,16 +16377,27 @@
       <c r="L81" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M81" s="94">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="N81" t="str" cm="1">
-        <f t="array" ref="N81">INDEX($A$2:$A$105,M81)</f>
-        <v>Debian Edu</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M81" t="str">
+        <f t="shared" si="5"/>
+        <v>Debian</v>
+      </c>
+      <c r="N81">
+        <v>79</v>
+      </c>
+      <c r="O81" t="str">
+        <f t="shared" si="6"/>
+        <v>Slax</v>
+      </c>
+      <c r="P81" t="str">
+        <f t="shared" si="7"/>
+        <v>Slax</v>
+      </c>
+      <c r="Q81" t="str">
+        <f t="shared" si="8"/>
+        <v>Debian, Slackware (until Slax 9)</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>51</v>
       </c>
@@ -15543,16 +16434,27 @@
       <c r="L82" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M82" s="94">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="N82" t="str" cm="1">
-        <f t="array" ref="N82">INDEX($A$2:$A$105,M82)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M82" t="str">
+        <f t="shared" si="5"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="N82">
+        <v>80</v>
+      </c>
+      <c r="O82" t="str">
+        <f t="shared" si="6"/>
+        <v>SliTaz GNU/Linux</v>
+      </c>
+      <c r="P82" t="str">
+        <f t="shared" si="7"/>
+        <v>SliTaz GNU/Linux</v>
+      </c>
+      <c r="Q82" t="str">
+        <f t="shared" si="8"/>
+        <v>Independent</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>52</v>
       </c>
@@ -15589,16 +16491,27 @@
       <c r="L83" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M83" s="94">
-        <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-      <c r="N83" t="str" cm="1">
-        <f t="array" ref="N83">INDEX($A$2:$A$105,M83)</f>
-        <v>Pardus</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M83" t="str">
+        <f t="shared" si="5"/>
+        <v>Gentoo (2011.2)</v>
+      </c>
+      <c r="N83">
+        <v>81</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="6"/>
+        <v>Solus</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="7"/>
+        <v>Solus</v>
+      </c>
+      <c r="Q83" t="str">
+        <f t="shared" si="8"/>
+        <v>Pardus Linux</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>866</v>
       </c>
@@ -15635,16 +16548,27 @@
       <c r="L84" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M84" s="94">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N84" t="str" cm="1">
-        <f t="array" ref="N84">INDEX($A$2:$A$105,M84)</f>
+      <c r="M84" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N84">
+        <v>82</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="6"/>
+        <v>SolydXK</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="7"/>
+        <v>SolydXK</v>
+      </c>
+      <c r="Q84" t="str">
+        <f t="shared" si="8"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>870</v>
       </c>
@@ -15681,16 +16605,27 @@
       <c r="L85" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M85" s="94">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N85" t="str" cm="1">
-        <f t="array" ref="N85">INDEX($A$2:$A$105,M85)</f>
+      <c r="M85" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N85">
+        <v>83</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="6"/>
+        <v>SparkyLinux</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="7"/>
+        <v>SparkyLinux</v>
+      </c>
+      <c r="Q85" t="str">
+        <f t="shared" si="8"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>53</v>
       </c>
@@ -15727,86 +16662,119 @@
       <c r="L86" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M86" s="94">
-        <f t="shared" si="1"/>
-        <v>83</v>
-      </c>
-      <c r="N86" t="str" cm="1">
-        <f t="array" ref="N86">INDEX($A$2:$A$105,M86)</f>
+      <c r="M86" t="str">
+        <f t="shared" si="5"/>
+        <v>Debian</v>
+      </c>
+      <c r="N86">
+        <v>84</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="6"/>
         <v>SolydXK</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A87" s="70" t="s">
+      <c r="P86" t="str">
+        <f t="shared" si="7"/>
+        <v>Source Mage GNU/Linux</v>
+      </c>
+      <c r="Q86" t="str">
+        <f t="shared" si="8"/>
+        <v>Sorcerer</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A87" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="B87" s="56" t="s">
+      <c r="B87" s="61" t="s">
         <v>878</v>
       </c>
-      <c r="C87" s="56" t="s">
+      <c r="C87" s="61" t="s">
         <v>878</v>
       </c>
-      <c r="D87" s="53">
+      <c r="D87" s="57">
         <v>2013</v>
       </c>
-      <c r="E87" s="56" t="s">
+      <c r="E87" s="61" t="s">
         <v>879</v>
       </c>
-      <c r="F87" s="72" t="s">
+      <c r="F87" s="63" t="s">
         <v>2</v>
       </c>
       <c r="G87" s="65">
         <v>45077</v>
       </c>
-      <c r="H87" s="50" t="s">
+      <c r="H87" s="67" t="s">
         <v>560</v>
       </c>
       <c r="I87" s="44" t="s">
         <v>880</v>
       </c>
-      <c r="J87" s="53" t="s">
+      <c r="J87" s="57" t="s">
         <v>882</v>
       </c>
-      <c r="K87" s="59" t="s">
+      <c r="K87" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L87" s="62" t="s">
+      <c r="L87" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="M87" s="94">
-        <f>MATCH(I87,$A$2:$A$105)</f>
-        <v>19</v>
-      </c>
-      <c r="N87" t="str" cm="1">
-        <f t="array" ref="N87">INDEX($A$2:$A$105,M87)</f>
-        <v>Debian Edu</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="71"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="58"/>
-      <c r="D88" s="55"/>
-      <c r="E88" s="58"/>
-      <c r="F88" s="73"/>
+      <c r="M87" t="str">
+        <f t="shared" si="5"/>
+        <v>Debian</v>
+      </c>
+      <c r="N87">
+        <v>85</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="6"/>
+        <v>SteamOS</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="7"/>
+        <v>SteamOS</v>
+      </c>
+      <c r="Q87" t="str">
+        <f t="shared" si="8"/>
+        <v>Debian (2.0)</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="56"/>
+      <c r="B88" s="62"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="58"/>
+      <c r="E88" s="62"/>
+      <c r="F88" s="64"/>
       <c r="G88" s="66"/>
-      <c r="H88" s="52"/>
+      <c r="H88" s="68"/>
       <c r="I88" s="45" t="s">
         <v>881</v>
       </c>
-      <c r="J88" s="55"/>
-      <c r="K88" s="61"/>
-      <c r="L88" s="64"/>
-      <c r="M88" s="94">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="N88" t="str" cm="1">
-        <f t="array" ref="N88">INDEX($A$2:$A$105,M88)</f>
-        <v>Arch Linux</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J88" s="58"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="54"/>
+      <c r="M88" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent, inspired from CRUX</v>
+      </c>
+      <c r="N88">
+        <v>86</v>
+      </c>
+      <c r="O88" t="e">
+        <f t="shared" si="6"/>
+        <v>#N/A</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q88" t="str">
+        <f t="shared" si="8"/>
+        <v>Arch Linux (3.0)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" ht="225" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>883</v>
       </c>
@@ -15843,16 +16811,27 @@
       <c r="L89" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M89" s="94">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="N89" t="str" cm="1">
-        <f t="array" ref="N89">INDEX($A$2:$A$105,M89)</f>
-        <v>Slackware</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M89" t="str">
+        <f t="shared" si="5"/>
+        <v>Softlanding Linux System (SLS)</v>
+      </c>
+      <c r="N89">
+        <v>87</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="6"/>
+        <v>SUSE Linux Enterprise</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="7"/>
+        <v>SUSE Linux Enterprise</v>
+      </c>
+      <c r="Q89" t="str">
+        <f t="shared" si="8"/>
+        <v>Slackware, Jurix</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>55</v>
       </c>
@@ -15889,16 +16868,27 @@
       <c r="L90" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M90" s="94">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N90" t="str" cm="1">
-        <f t="array" ref="N90">INDEX($A$2:$A$105,M90)</f>
+      <c r="M90" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N90">
+        <v>88</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="6"/>
+        <v>Tails</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="7"/>
+        <v>Tails</v>
+      </c>
+      <c r="Q90" t="str">
+        <f t="shared" si="8"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>56</v>
       </c>
@@ -15935,16 +16925,27 @@
       <c r="L91" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M91" s="94">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="N91" t="str" cm="1">
-        <f t="array" ref="N91">INDEX($A$2:$A$105,M91)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M91" t="str">
+        <f t="shared" si="5"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="N91">
+        <v>89</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="6"/>
+        <v>Tiny Core Linux</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="7"/>
+        <v>Tiny Core Linux</v>
+      </c>
+      <c r="Q91" t="str">
+        <f t="shared" si="8"/>
+        <v>Independent, inspired from Damn Small Linux</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" ht="102.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>57</v>
       </c>
@@ -15981,16 +16982,27 @@
       <c r="L92" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M92" s="94">
-        <f t="shared" si="1"/>
-        <v>93</v>
-      </c>
-      <c r="N92" t="str" cm="1">
-        <f t="array" ref="N92">INDEX($A$2:$A$105,M92)</f>
-        <v>Ubuntu and Derivatives[91]</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="123" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M92" t="str">
+        <f t="shared" si="5"/>
+        <v>Debian</v>
+      </c>
+      <c r="N92">
+        <v>90</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="6"/>
+        <v>Trisquel GNU/Linux</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="7"/>
+        <v>Trisquel GNU/Linux</v>
+      </c>
+      <c r="Q92" t="str">
+        <f t="shared" si="8"/>
+        <v>Ubuntu LTS</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" ht="204.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>58</v>
       </c>
@@ -16027,110 +17039,154 @@
       <c r="L93" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M93" s="94">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N93" t="str" cm="1">
-        <f t="array" ref="N93">INDEX($A$2:$A$105,M93)</f>
+      <c r="M93" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N93">
+        <v>91</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="6"/>
+        <v>TurnKey GNU/Linux</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="7"/>
+        <v>TurnKey GNU/Linux</v>
+      </c>
+      <c r="Q93" t="str">
+        <f t="shared" si="8"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="67" t="s">
+    <row r="94" spans="1:17" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="69" t="s">
         <v>907</v>
       </c>
-      <c r="B94" s="56" t="s">
+      <c r="B94" s="61" t="s">
         <v>908</v>
       </c>
-      <c r="C94" s="53" t="s">
+      <c r="C94" s="57" t="s">
         <v>908</v>
       </c>
-      <c r="D94" s="53">
+      <c r="D94" s="57">
         <v>2004</v>
       </c>
       <c r="E94" s="43" t="s">
         <v>909</v>
       </c>
-      <c r="F94" s="53" t="s">
+      <c r="F94" s="57" t="s">
         <v>911</v>
       </c>
       <c r="G94" s="46">
         <v>45215</v>
       </c>
-      <c r="H94" s="50" t="s">
+      <c r="H94" s="67" t="s">
         <v>560</v>
       </c>
-      <c r="I94" s="53" t="s">
+      <c r="I94" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="J94" s="56" t="s">
+      <c r="J94" s="61" t="s">
         <v>912</v>
       </c>
-      <c r="K94" s="59" t="s">
+      <c r="K94" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L94" s="62" t="s">
+      <c r="L94" s="53" t="s">
         <v>563</v>
       </c>
-      <c r="M94" s="94">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N94" t="str" cm="1">
-        <f t="array" ref="N94">INDEX($A$2:$A$105,M94)</f>
+      <c r="M94" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N94">
+        <v>92</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="6"/>
+        <v>Ubuntu and Derivatives[91]</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="7"/>
+        <v>Ubuntu and Derivatives[91]</v>
+      </c>
+      <c r="Q94" t="str">
+        <f t="shared" si="8"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A95" s="68"/>
-      <c r="B95" s="57"/>
-      <c r="C95" s="54"/>
-      <c r="D95" s="54"/>
+    <row r="95" spans="1:17" ht="51" x14ac:dyDescent="0.3">
+      <c r="A95" s="70"/>
+      <c r="B95" s="72"/>
+      <c r="C95" s="73"/>
+      <c r="D95" s="73"/>
       <c r="E95" s="48" t="s">
         <v>910</v>
       </c>
-      <c r="F95" s="54"/>
+      <c r="F95" s="73"/>
       <c r="G95" s="49">
         <v>45148</v>
       </c>
-      <c r="H95" s="51"/>
-      <c r="I95" s="54"/>
-      <c r="J95" s="57"/>
-      <c r="K95" s="60"/>
-      <c r="L95" s="63"/>
-      <c r="M95" s="94" t="e">
-        <f t="shared" si="1"/>
+      <c r="H95" s="74"/>
+      <c r="I95" s="73"/>
+      <c r="J95" s="72"/>
+      <c r="K95" s="75"/>
+      <c r="L95" s="76"/>
+      <c r="M95" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="N95" t="e" cm="1">
-        <f t="array" ref="N95">INDEX($A$2:$A$105,M95)</f>
+      <c r="N95">
+        <v>93</v>
+      </c>
+      <c r="O95" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="69"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="55"/>
-      <c r="D96" s="55"/>
+      <c r="P95">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="71"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="58"/>
+      <c r="D96" s="58"/>
       <c r="E96" s="47"/>
-      <c r="F96" s="55"/>
+      <c r="F96" s="58"/>
       <c r="G96" s="47"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="55"/>
-      <c r="J96" s="58"/>
-      <c r="K96" s="61"/>
-      <c r="L96" s="64"/>
-      <c r="M96" s="94" t="e">
-        <f t="shared" si="1"/>
+      <c r="H96" s="68"/>
+      <c r="I96" s="58"/>
+      <c r="J96" s="62"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="54"/>
+      <c r="M96" t="e">
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="N96" t="e" cm="1">
-        <f t="array" ref="N96">INDEX($A$2:$A$105,M96)</f>
+      <c r="N96">
+        <v>94</v>
+      </c>
+      <c r="O96" t="e">
+        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P96">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" ht="317.39999999999998" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>913</v>
       </c>
@@ -16167,16 +17223,27 @@
       <c r="L97" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M97" s="94">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N97" t="str" cm="1">
-        <f t="array" ref="N97">INDEX($A$2:$A$105,M97)</f>
+      <c r="M97" t="str">
+        <f t="shared" si="5"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N97">
+        <v>95</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="6"/>
+        <v>Univention Corporate Server</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="7"/>
+        <v>Univention Corporate Server</v>
+      </c>
+      <c r="Q97" t="str">
+        <f t="shared" si="8"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" ht="91.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>59</v>
       </c>
@@ -16213,16 +17280,27 @@
       <c r="L98" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M98" s="94">
-        <f t="shared" si="1"/>
-        <v>97</v>
-      </c>
-      <c r="N98" t="str" cm="1">
-        <f t="array" ref="N98">INDEX($A$2:$A$105,M98)</f>
+      <c r="M98" t="str">
+        <f t="shared" ref="M98:M105" si="9">LOOKUP(I98,$A$2:$A$105,$I$2:$I$105)</f>
+        <v>Ututo XS: Gentoo Linux, Ututo UL: Ubuntu</v>
+      </c>
+      <c r="N98">
+        <v>96</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="6"/>
         <v>Ututo</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P98" t="str">
+        <f t="shared" si="7"/>
+        <v>Ututo</v>
+      </c>
+      <c r="Q98" t="str">
+        <f t="shared" si="8"/>
+        <v>Ututo XS: Gentoo Linux, Ututo UL: Ubuntu</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>60</v>
       </c>
@@ -16259,16 +17337,27 @@
       <c r="L99" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M99" s="94">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="N99" t="str" cm="1">
-        <f t="array" ref="N99">INDEX($A$2:$A$105,M99)</f>
+      <c r="M99" t="str">
+        <f t="shared" si="9"/>
+        <v>Softlanding Linux System (SLS)</v>
+      </c>
+      <c r="N99">
+        <v>97</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="6"/>
+        <v>VectorLinux</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="7"/>
+        <v>VectorLinux</v>
+      </c>
+      <c r="Q99" t="str">
+        <f t="shared" si="8"/>
         <v>Slackware</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="51.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" ht="82.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>61</v>
       </c>
@@ -16305,16 +17394,27 @@
       <c r="L100" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M100" s="94">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-      <c r="N100" t="str" cm="1">
-        <f t="array" ref="N100">INDEX($A$2:$A$105,M100)</f>
-        <v>Hyperbola GNU/Linux-libre</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M100" t="str">
+        <f t="shared" si="9"/>
+        <v>Arch Linux</v>
+      </c>
+      <c r="N100">
+        <v>98</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="6"/>
+        <v>Void Linux</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="7"/>
+        <v>Void Linux</v>
+      </c>
+      <c r="Q100" t="str">
+        <f t="shared" si="8"/>
+        <v>Independent, partially inspired by FreeBSD/NetBSD</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" ht="61.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>62</v>
       </c>
@@ -16351,16 +17451,27 @@
       <c r="L101" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M101" s="94">
-        <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-      <c r="N101" t="str" cm="1">
-        <f t="array" ref="N101">INDEX($A$2:$A$105,M101)</f>
+      <c r="M101" t="str">
+        <f t="shared" si="9"/>
+        <v>Independent, inspired by Softlanding Linux System (SLS)[22]</v>
+      </c>
+      <c r="N101">
+        <v>99</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="6"/>
+        <v>Webconverger</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="7"/>
+        <v>Webconverger</v>
+      </c>
+      <c r="Q101" t="str">
+        <f t="shared" si="8"/>
         <v>Debian</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" ht="72" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>933</v>
       </c>
@@ -16397,16 +17508,27 @@
       <c r="L102" s="10" t="s">
         <v>591</v>
       </c>
-      <c r="M102" s="94">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="N102" t="str" cm="1">
-        <f t="array" ref="N102">INDEX($A$2:$A$105,M102)</f>
-        <v>ClearOS</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="41.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M102" t="str">
+        <f t="shared" si="9"/>
+        <v>RHEL, CentOS</v>
+      </c>
+      <c r="N102">
+        <v>100</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="6"/>
+        <v>Xandros</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="7"/>
+        <v>Xandros</v>
+      </c>
+      <c r="Q102" t="str">
+        <f t="shared" si="8"/>
+        <v>Corel Linux</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" ht="92.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>63</v>
       </c>
@@ -16443,16 +17565,27 @@
       <c r="L103" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="M103" s="94">
-        <f t="shared" si="1"/>
-        <v>19</v>
-      </c>
-      <c r="N103" t="str" cm="1">
-        <f t="array" ref="N103">INDEX($A$2:$A$105,M103)</f>
-        <v>Debian Edu</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M103" t="str">
+        <f t="shared" si="9"/>
+        <v>Debian</v>
+      </c>
+      <c r="N103">
+        <v>101</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="6"/>
+        <v>Zentyal</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="7"/>
+        <v>Zentyal</v>
+      </c>
+      <c r="Q103" t="str">
+        <f t="shared" si="8"/>
+        <v>Debian, Ubuntu</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>64</v>
       </c>
@@ -16489,16 +17622,27 @@
       <c r="L104" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M104" s="94">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="N104" t="str" cm="1">
-        <f t="array" ref="N104">INDEX($A$2:$A$105,M104)</f>
+      <c r="M104" t="str">
+        <f t="shared" si="9"/>
+        <v>Softlanding Linux System (SLS)</v>
+      </c>
+      <c r="N104">
+        <v>102</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="6"/>
+        <v>Zenwalk</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="7"/>
+        <v>Zenwalk</v>
+      </c>
+      <c r="Q104" t="str">
+        <f t="shared" si="8"/>
         <v>Slackware</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="72" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" ht="204.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>942</v>
       </c>
@@ -16535,17 +17679,75 @@
       <c r="L105" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="M105" s="94">
-        <f>MATCH(I105,$A$2:$A$105)</f>
-        <v>92</v>
-      </c>
-      <c r="N105" t="str" cm="1">
-        <f t="array" ref="N105">INDEX($A$2:$A$105,M105)</f>
-        <v>TurnKey GNU/Linux</v>
+      <c r="M105" t="str">
+        <f t="shared" si="9"/>
+        <v>Debian</v>
+      </c>
+      <c r="N105">
+        <v>103</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="6"/>
+        <v>Zorin OS</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="7"/>
+        <v>Zorin OS</v>
+      </c>
+      <c r="Q105" t="str">
+        <f t="shared" si="8"/>
+        <v>Ubuntu</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="55">
+    <mergeCell ref="K87:K88"/>
+    <mergeCell ref="L87:L88"/>
+    <mergeCell ref="H94:H96"/>
+    <mergeCell ref="I94:I96"/>
+    <mergeCell ref="J94:J96"/>
+    <mergeCell ref="K94:K96"/>
+    <mergeCell ref="L94:L96"/>
+    <mergeCell ref="A94:A96"/>
+    <mergeCell ref="B94:B96"/>
+    <mergeCell ref="C94:C96"/>
+    <mergeCell ref="D94:D96"/>
+    <mergeCell ref="F94:F96"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:C88"/>
+    <mergeCell ref="D87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="H65:H66"/>
+    <mergeCell ref="I65:I66"/>
+    <mergeCell ref="J65:J66"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="H87:H88"/>
+    <mergeCell ref="J87:J88"/>
+    <mergeCell ref="K65:K66"/>
+    <mergeCell ref="L65:L66"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="H59:H60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="L59:L60"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:C66"/>
+    <mergeCell ref="D65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="I41:I42"/>
+    <mergeCell ref="J41:J42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="L41:L42"/>
     <mergeCell ref="A41:A42"/>
@@ -16554,286 +17756,239 @@
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="E41:E42"/>
     <mergeCell ref="F41:F42"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="I41:I42"/>
-    <mergeCell ref="J41:J42"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:C66"/>
-    <mergeCell ref="D65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="K65:K66"/>
-    <mergeCell ref="L65:L66"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="H59:H60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="L59:L60"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="H65:H66"/>
-    <mergeCell ref="I65:I66"/>
-    <mergeCell ref="J65:J66"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:C88"/>
-    <mergeCell ref="D87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="A94:A96"/>
-    <mergeCell ref="B94:B96"/>
-    <mergeCell ref="C94:C96"/>
-    <mergeCell ref="D94:D96"/>
-    <mergeCell ref="F94:F96"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="H87:H88"/>
-    <mergeCell ref="J87:J88"/>
-    <mergeCell ref="K87:K88"/>
-    <mergeCell ref="L87:L88"/>
-    <mergeCell ref="H94:H96"/>
-    <mergeCell ref="I94:I96"/>
-    <mergeCell ref="J94:J96"/>
-    <mergeCell ref="K94:K96"/>
-    <mergeCell ref="L94:L96"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" tooltip="AlmaLinux" display="https://en.wikipedia.org/wiki/AlmaLinux" xr:uid="{ECDB7A37-5BBC-411B-9197-8AE9DD26F401}"/>
-    <hyperlink ref="F2" r:id="rId2" location="cite_note-3" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-3" xr:uid="{0F608879-FF73-4537-8B18-FAE5ADF59CA9}"/>
-    <hyperlink ref="A3" r:id="rId3" tooltip="Alpine Linux" display="https://en.wikipedia.org/wiki/Alpine_Linux" xr:uid="{23F7E81E-BE2A-4D81-8F30-EF02286F9578}"/>
-    <hyperlink ref="I3" r:id="rId4" tooltip="LEAF Project" display="https://en.wikipedia.org/wiki/LEAF_Project" xr:uid="{C3241A20-4411-48E3-9277-841B4F56FF03}"/>
-    <hyperlink ref="A4" r:id="rId5" tooltip="ALT Linux" display="https://en.wikipedia.org/wiki/ALT_Linux" xr:uid="{2BBB7EEC-74AC-40B8-AC14-F74FA06CDFB3}"/>
-    <hyperlink ref="A5" r:id="rId6" tooltip="AntiX" display="https://en.wikipedia.org/wiki/AntiX" xr:uid="{17C678C0-B58C-4787-9B6F-DAB927E90BAD}"/>
-    <hyperlink ref="A6" r:id="rId7" tooltip="ArchBang" display="https://en.wikipedia.org/wiki/ArchBang" xr:uid="{539E7C14-B05C-4A84-8C89-C8D11C55769C}"/>
-    <hyperlink ref="E6" r:id="rId8" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{8BF9CD84-599A-4AEA-8ED3-6645A2069FE8}"/>
-    <hyperlink ref="F6" r:id="rId9" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{47F49E0D-764C-4724-9089-C34D344BBD8A}"/>
-    <hyperlink ref="G6" r:id="rId10" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{BA07DE32-47C3-4F0D-B333-E8BBA733C989}"/>
-    <hyperlink ref="A7" r:id="rId11" tooltip="Arch Linux" display="https://en.wikipedia.org/wiki/Arch_Linux" xr:uid="{6639807E-5BDC-40BC-B2A4-E45488C8F9B3}"/>
-    <hyperlink ref="E7" r:id="rId12" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{3E20EAF9-21BF-401B-B120-3A44ACEC4157}"/>
-    <hyperlink ref="F7" r:id="rId13" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{2D38DC68-1253-4AE1-A302-68AD4BF99D5D}"/>
-    <hyperlink ref="G7" r:id="rId14" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{CC159E07-F7D1-4CA3-B58E-EB6DAD999C3E}"/>
-    <hyperlink ref="I7" r:id="rId15" tooltip="CRUX" display="https://en.wikipedia.org/wiki/CRUX" xr:uid="{96FCAC37-1DCE-43EB-9171-1825270F7CE4}"/>
-    <hyperlink ref="A8" r:id="rId16" tooltip="BLAG Linux and GNU" display="https://en.wikipedia.org/wiki/BLAG_Linux_and_GNU" xr:uid="{1D306DB4-C04F-464A-AC2E-3B996D637365}"/>
-    <hyperlink ref="I8" r:id="rId17" tooltip="Fedora Linux" display="https://en.wikipedia.org/wiki/Fedora_Linux" xr:uid="{36EEAF3C-F5DE-4230-83B4-6160B8E61DF0}"/>
-    <hyperlink ref="A9" r:id="rId18" tooltip="Bodhi Linux" display="https://en.wikipedia.org/wiki/Bodhi_Linux" xr:uid="{33697D38-1B97-4755-B896-851AC3158F75}"/>
-    <hyperlink ref="A10" r:id="rId19" tooltip="Canaima (operating system)" display="https://en.wikipedia.org/wiki/Canaima_(operating_system)" xr:uid="{478DDA92-7D11-455A-8CBC-C51F8C98839C}"/>
-    <hyperlink ref="J10" r:id="rId20" tooltip="Government of Venezuela" display="https://en.wikipedia.org/wiki/Government_of_Venezuela" xr:uid="{869348FF-6546-4876-9892-68B4EC337D7C}"/>
-    <hyperlink ref="A11" r:id="rId21" tooltip="CentOS" display="https://en.wikipedia.org/wiki/CentOS" xr:uid="{2EA6DC70-38B0-4CE3-979C-F2F095C36FE7}"/>
-    <hyperlink ref="E11" r:id="rId22" location="cite_note-CentOS_8_Announcement-10" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-CentOS_8_Announcement-10" xr:uid="{BE402AC6-3CA3-4A1C-8C5E-1CB6754187D1}"/>
-    <hyperlink ref="F11" r:id="rId23" location="cite_note-11" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-11" xr:uid="{A9D9A152-9443-4C0C-B877-B2090F656CB2}"/>
-    <hyperlink ref="A12" r:id="rId24" tooltip="CentOS Stream" display="https://en.wikipedia.org/wiki/CentOS_Stream" xr:uid="{6B0E75A9-0E51-442F-923C-95734663B4DD}"/>
-    <hyperlink ref="E12" r:id="rId25" location="cite_note-Introducing_CentOS_Stream_9-12" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-Introducing_CentOS_Stream_9-12" xr:uid="{59E03283-BA6A-4AD6-8E83-F6A03910FEE4}"/>
-    <hyperlink ref="F12" r:id="rId26" location="cite_note-13" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-13" xr:uid="{73FA0995-1DFC-4154-B511-D55709C174B2}"/>
-    <hyperlink ref="A13" r:id="rId27" tooltip="Chakra (operating system)" display="https://en.wikipedia.org/wiki/Chakra_(operating_system)" xr:uid="{3FE91380-51C3-4681-BFE8-820FB4FE43C6}"/>
-    <hyperlink ref="E13" r:id="rId28" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{DD669706-F175-412E-A9FA-BDB0B7753B7F}"/>
-    <hyperlink ref="F13" r:id="rId29" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{7FE5F8DE-B5B5-4729-8155-4F79BB6CDF1B}"/>
-    <hyperlink ref="I13" r:id="rId30" location="cite_note-14" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-14" xr:uid="{57BB1EC2-59BE-48E1-BDFA-A5C1140FACDC}"/>
-    <hyperlink ref="A14" r:id="rId31" tooltip="ChromeOS" display="https://en.wikipedia.org/wiki/ChromeOS" xr:uid="{3DF661FF-8391-4534-9665-E466ADAD6BE6}"/>
-    <hyperlink ref="B14" r:id="rId32" tooltip="Sundar Pichai" display="https://en.wikipedia.org/wiki/Sundar_Pichai" xr:uid="{645B71EF-E3A5-414D-B62F-EE0D6E5BB910}"/>
-    <hyperlink ref="C14" r:id="rId33" tooltip="Google" display="https://en.wikipedia.org/wiki/Google" xr:uid="{1938E678-374D-423E-9E73-87EEFCC10877}"/>
-    <hyperlink ref="F14" r:id="rId34" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{D64EF45A-68E4-4540-956B-3369423BDDF2}"/>
-    <hyperlink ref="I14" r:id="rId35" tooltip="Gentoo Linux" display="https://en.wikipedia.org/wiki/Gentoo_Linux" xr:uid="{9627590E-8B80-41E8-97BB-2CC18C13BE3D}"/>
-    <hyperlink ref="A15" r:id="rId36" tooltip="Clear Linux OS" display="https://en.wikipedia.org/wiki/Clear_Linux_OS" xr:uid="{143D1127-3800-46B8-9528-00A2376B116E}"/>
-    <hyperlink ref="C15" r:id="rId37" tooltip="Intel" display="https://en.wikipedia.org/wiki/Intel" xr:uid="{7F33B4AC-1D8B-4278-8D79-F32381541556}"/>
-    <hyperlink ref="E15" r:id="rId38" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{797AE0C6-DAF3-4797-9863-5D45D3F9F073}"/>
-    <hyperlink ref="F15" r:id="rId39" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{2A736199-6B01-4E35-803B-5C50A37FB6DF}"/>
-    <hyperlink ref="G15" r:id="rId40" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{CEA97CC6-82AD-4CC4-8A6A-27177A4EC7CC}"/>
-    <hyperlink ref="J15" r:id="rId41" tooltip="Container (virtualization)" display="https://en.wikipedia.org/wiki/Container_(virtualization)" xr:uid="{991A4187-CADA-444D-8687-07F262B2D530}"/>
-    <hyperlink ref="A16" r:id="rId42" tooltip="ClearOS" display="https://en.wikipedia.org/wiki/ClearOS" xr:uid="{B9C98FC1-F251-4934-80D0-C5D59B62D47F}"/>
-    <hyperlink ref="E16" r:id="rId43" location="cite_note-16" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-16" xr:uid="{567D9CA7-CD8B-45FB-89CD-5D334D6F5C6C}"/>
-    <hyperlink ref="A17" r:id="rId44" tooltip="CrunchBang Linux" display="https://en.wikipedia.org/wiki/CrunchBang_Linux" xr:uid="{E215BE7C-1ACA-497A-9A23-911CD54C2E18}"/>
-    <hyperlink ref="E17" r:id="rId45" location="cite_note-17" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-17" xr:uid="{B5BD4B0A-B2BF-430E-959D-992E1B8A4F8E}"/>
-    <hyperlink ref="A18" r:id="rId46" tooltip="Damn Small Linux" display="https://en.wikipedia.org/wiki/Damn_Small_Linux" xr:uid="{B088B933-7DCA-4B07-8D32-7B92B755BA77}"/>
-    <hyperlink ref="E18" r:id="rId47" location="cite_note-18" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-18" xr:uid="{8EC383EB-95E7-4CFB-9FF6-81A915603067}"/>
-    <hyperlink ref="A19" r:id="rId48" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{F4B5F3CB-8EC2-45B9-9431-EFF7D3A654EE}"/>
-    <hyperlink ref="B19" r:id="rId49" tooltip="Ian Murdock" display="https://en.wikipedia.org/wiki/Ian_Murdock" xr:uid="{B8CF4641-7663-4007-BDCA-07C3C40BC0BA}"/>
-    <hyperlink ref="F19" r:id="rId50" location="cite_note-DebianSupportPeriod-21" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-DebianSupportPeriod-21" xr:uid="{08DCE576-389B-493E-9F80-CB5A833B4084}"/>
-    <hyperlink ref="A20" r:id="rId51" tooltip="Skolelinux" display="https://en.wikipedia.org/wiki/Skolelinux" xr:uid="{10241F5D-F096-401B-8FA1-58F0358D3EB2}"/>
-    <hyperlink ref="F20" r:id="rId52" location="cite_note-DebianSupportPeriod-21" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-DebianSupportPeriod-21" xr:uid="{2EB07142-3855-44C2-8A48-D78A77E1A731}"/>
-    <hyperlink ref="A21" r:id="rId53" tooltip="Devuan" display="https://en.wikipedia.org/wiki/Devuan" xr:uid="{2CE2FA3F-84E3-4875-918C-37DED488EB72}"/>
-    <hyperlink ref="H21" r:id="rId54" location="cite_note-DevuanISO-25" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-DevuanISO-25" xr:uid="{224A247E-D466-49CF-AC07-3B6D80B11AB5}"/>
-    <hyperlink ref="A22" r:id="rId55" tooltip="Deepin" display="https://en.wikipedia.org/wiki/Deepin" xr:uid="{0A599508-D149-4325-9333-60E10EC11FA9}"/>
-    <hyperlink ref="A23" r:id="rId56" tooltip="Dragora GNU/Linux-Libre" display="https://en.wikipedia.org/wiki/Dragora_GNU/Linux-Libre" xr:uid="{7E28A3E2-6FDE-43FB-9337-088DEDD13413}"/>
-    <hyperlink ref="A24" r:id="rId57" tooltip="Dyne:bolic" display="https://en.wikipedia.org/wiki/Dyne:bolic" xr:uid="{2EB8894B-90F5-4B40-A9FF-02D5D5941A4E}"/>
-    <hyperlink ref="I24" r:id="rId58" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{6AB0BD9A-5D05-4596-AF8E-B7696B250FD6}"/>
-    <hyperlink ref="A25" r:id="rId59" tooltip="Elementary OS" display="https://en.wikipedia.org/wiki/Elementary_OS" xr:uid="{3C647493-3806-4F42-AB8A-2317F2BA06EB}"/>
-    <hyperlink ref="A26" r:id="rId60" tooltip="ELinOS" display="https://en.wikipedia.org/wiki/ELinOS" xr:uid="{14EFA11E-A522-4AF7-9738-197DCAF898A4}"/>
-    <hyperlink ref="B26" r:id="rId61" tooltip="SYSGO" display="https://en.wikipedia.org/wiki/SYSGO" xr:uid="{443197A5-08AE-40A4-9BEB-0190DAE8F802}"/>
-    <hyperlink ref="E26" r:id="rId62" location="cite_note-29" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-29" xr:uid="{B608E7E2-5549-443D-883D-A71D8D3F372B}"/>
-    <hyperlink ref="J26" r:id="rId63" tooltip="Embedded system" display="https://en.wikipedia.org/wiki/Embedded_system" xr:uid="{9266817A-F9C9-4ECF-BC05-3306D8A6F15D}"/>
-    <hyperlink ref="A27" r:id="rId64" tooltip="Emdebian Grip" display="https://en.wikipedia.org/wiki/Emdebian_Grip" xr:uid="{F83FC533-4B26-47C1-9592-B2A6D7EF6509}"/>
-    <hyperlink ref="J27" r:id="rId65" tooltip="Embedded system" display="https://en.wikipedia.org/wiki/Embedded_system" xr:uid="{B3C85310-3891-4601-BB4C-D96CA91541F6}"/>
-    <hyperlink ref="A28" r:id="rId66" tooltip="EndeavourOS" display="https://en.wikipedia.org/wiki/EndeavourOS" xr:uid="{8C68A75F-D14F-48C4-AFBF-29EDF95420B0}"/>
-    <hyperlink ref="E28" r:id="rId67" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{237C4051-5622-4EBD-9D0E-D5992926B4ED}"/>
-    <hyperlink ref="A29" r:id="rId68" tooltip="Fedora Linux" display="https://en.wikipedia.org/wiki/Fedora_Linux" xr:uid="{0168B5CA-E920-4011-AAA5-362023DB8BC0}"/>
-    <hyperlink ref="B29" r:id="rId69" tooltip="Fedora Project" display="https://en.wikipedia.org/wiki/Fedora_Project" xr:uid="{A4B094A3-E0EE-4DCA-8C28-A882FE8CDEA0}"/>
-    <hyperlink ref="H29" r:id="rId70" location="cite_note-31" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-31" xr:uid="{49EDC1D0-AEBD-4B6F-B6B2-972D4B8C6F41}"/>
-    <hyperlink ref="A30" r:id="rId71" tooltip="Freespire" display="https://en.wikipedia.org/wiki/Freespire" xr:uid="{72505942-1D55-48BB-AB47-AEC21E901F22}"/>
-    <hyperlink ref="A31" r:id="rId72" tooltip="Gentoo Linux" display="https://en.wikipedia.org/wiki/Gentoo_Linux" xr:uid="{715E7FF1-0E57-4DDB-80AC-984AAADA2930}"/>
-    <hyperlink ref="B31" r:id="rId73" tooltip="Daniel Robbins (computer programmer)" display="https://en.wikipedia.org/wiki/Daniel_Robbins_(computer_programmer)" xr:uid="{7CBC4D61-D5E5-482B-B6A3-5B3650310386}"/>
-    <hyperlink ref="C31" r:id="rId74" tooltip="Gentoo Foundation" display="https://en.wikipedia.org/wiki/Gentoo_Foundation" xr:uid="{8AD080D8-DF38-4ABE-8DD1-4F9427124535}"/>
-    <hyperlink ref="E31" r:id="rId75" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{9BA606A4-2445-482D-AD10-5BAC85CDBF65}"/>
-    <hyperlink ref="F31" r:id="rId76" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{ADA2566B-C88A-45C2-97D2-82FB0BE5BF18}"/>
-    <hyperlink ref="G31" r:id="rId77" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{0C09A5E3-94B1-427A-88C7-05A9F1E242D7}"/>
-    <hyperlink ref="A32" r:id="rId78" tooltip="GNU Guix System" display="https://en.wikipedia.org/wiki/GNU_Guix_System" xr:uid="{2785A05A-7164-4BA5-A26B-E3184B90CA7C}"/>
-    <hyperlink ref="F32" r:id="rId79" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{2A1E48BE-B2F4-4A97-9259-F5CE33669CDD}"/>
-    <hyperlink ref="I32" r:id="rId80" tooltip="NixOS" display="https://en.wikipedia.org/wiki/NixOS" xr:uid="{55368D09-020D-4EEF-9DBE-105A180A5ACD}"/>
-    <hyperlink ref="A33" r:id="rId81" tooltip="GNewSense" display="https://en.wikipedia.org/wiki/GNewSense" xr:uid="{418689D9-95B4-47F4-905E-75D309BE8C5E}"/>
-    <hyperlink ref="C33" r:id="rId82" tooltip="Free Software Foundation" display="https://en.wikipedia.org/wiki/Free_Software_Foundation" xr:uid="{7BF44FE2-06FB-46A9-9073-F5378C9BDE3A}"/>
-    <hyperlink ref="I33" r:id="rId83" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{AE69D84D-B23C-457D-B36C-8B41392AF432}"/>
-    <hyperlink ref="A34" r:id="rId84" tooltip="Grml" display="https://en.wikipedia.org/wiki/Grml" xr:uid="{69911F19-7561-4F16-82D7-59239E7A9BCB}"/>
-    <hyperlink ref="A35" r:id="rId85" tooltip="Hyperbola GNU/Linux-libre" display="https://en.wikipedia.org/wiki/Hyperbola_GNU/Linux-libre" xr:uid="{67A884FF-7D09-4DC8-94D0-018A16683B55}"/>
-    <hyperlink ref="F35" r:id="rId86" location="cite_note-37" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-37" xr:uid="{A2ABD67E-CADB-4B8F-B51B-605C3CC8177D}"/>
-    <hyperlink ref="L35" r:id="rId87" location="cite_note-38" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-38" xr:uid="{0D76363C-7A48-4DD6-ACE2-32A555C8EEA0}"/>
-    <hyperlink ref="A36" r:id="rId88" tooltip="Kali Linux" display="https://en.wikipedia.org/wiki/Kali_Linux" xr:uid="{AEB58937-5E21-42B3-A491-5F2647FB0902}"/>
-    <hyperlink ref="A37" r:id="rId89" tooltip="Knoppix" display="https://en.wikipedia.org/wiki/Knoppix" xr:uid="{29179931-1186-470A-8D45-6AB7DED58CB2}"/>
-    <hyperlink ref="B37" r:id="rId90" tooltip="Klaus Knopper" display="https://en.wikipedia.org/wiki/Klaus_Knopper" xr:uid="{A6B4626F-444F-450F-A63F-3F860B3E14C2}"/>
-    <hyperlink ref="A38" r:id="rId91" tooltip="Korora (operating system)" display="https://en.wikipedia.org/wiki/Korora_(operating_system)" xr:uid="{B5AEC2DD-3F9D-4261-A627-882CD2E6AA34}"/>
-    <hyperlink ref="E38" r:id="rId92" location="cite_note-41" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-41" xr:uid="{500CD05A-3A06-4E95-AA29-FCA5CA3DC3D3}"/>
-    <hyperlink ref="A39" r:id="rId93" tooltip="LibreCMC" display="https://en.wikipedia.org/wiki/LibreCMC" xr:uid="{117D073C-BFBB-4E34-85E6-50CEEEBC67E6}"/>
-    <hyperlink ref="J39" r:id="rId94" tooltip="Embedded system" display="https://en.wikipedia.org/wiki/Embedded_system" xr:uid="{83F4DDDD-022D-422F-AE14-28C56864040B}"/>
-    <hyperlink ref="A40" r:id="rId95" tooltip="Linspire" display="https://en.wikipedia.org/wiki/Linspire" xr:uid="{70A45353-D4B4-4AB1-BF35-24CE7F52DE81}"/>
-    <hyperlink ref="E40" r:id="rId96" location="cite_note-43" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-43" xr:uid="{15E5E778-3DD5-4982-B44C-7D3EE4167874}"/>
-    <hyperlink ref="I40" r:id="rId97" tooltip="Ubuntu (operating system)" display="https://en.wikipedia.org/wiki/Ubuntu_(operating_system)" xr:uid="{F0B8BEED-B42E-4D94-83FA-4A9C9B3E277F}"/>
-    <hyperlink ref="K40" r:id="rId98" location="cite_note-44" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-44" xr:uid="{9823E183-3316-43D0-8EA9-ABA7B6C13A58}"/>
-    <hyperlink ref="A41" r:id="rId99" tooltip="Linux Mint" display="https://en.wikipedia.org/wiki/Linux_Mint" xr:uid="{3BF234DA-9895-4DF0-9E9B-9958035E6A84}"/>
-    <hyperlink ref="E41" r:id="rId100" location="P348" tooltip="Edit this on Wikidata" display="https://www.wikidata.org/wiki/Q2027?uselang=en - P348" xr:uid="{76FF3773-D74F-44C4-B175-53E789560BF0}"/>
-    <hyperlink ref="F41" r:id="rId101" location="Debian-based_edition" tooltip="Linux Mint" display="https://en.wikipedia.org/wiki/Linux_Mint - Debian-based_edition" xr:uid="{41E6FBD7-A771-44DE-A027-569A2D5D6D6E}"/>
-    <hyperlink ref="A43" r:id="rId102" tooltip="Linux Lite" display="https://en.wikipedia.org/wiki/Linux_Lite" xr:uid="{3ABA83B3-FDF4-4DC7-A4E2-2C87BA7FC796}"/>
-    <hyperlink ref="I43" r:id="rId103" tooltip="Ubuntu (operating system)" display="https://en.wikipedia.org/wiki/Ubuntu_(operating_system)" xr:uid="{AE22ED59-9564-4D05-9F64-1F073FFF9575}"/>
-    <hyperlink ref="A44" r:id="rId104" tooltip="Mageia" display="https://en.wikipedia.org/wiki/Mageia" xr:uid="{5B29ABD2-A3C7-40C6-B939-1EDA627805E3}"/>
-    <hyperlink ref="A45" r:id="rId105" tooltip="Mandriva Linux" display="https://en.wikipedia.org/wiki/Mandriva_Linux" xr:uid="{B8EC6B1E-B966-4332-97C5-C344FEE6D887}"/>
-    <hyperlink ref="A46" r:id="rId106" tooltip="Manjaro Linux" display="https://en.wikipedia.org/wiki/Manjaro_Linux" xr:uid="{13A4F306-E30B-4138-AA57-42120EEE67BA}"/>
-    <hyperlink ref="D46" r:id="rId107" location="cite_note-47" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-47" xr:uid="{390DA39E-DD2C-4E78-8C64-DFDBDA0A36F9}"/>
-    <hyperlink ref="E46" r:id="rId108" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{B727D2C2-4F6C-4716-A178-82B322B7F1DE}"/>
-    <hyperlink ref="F46" r:id="rId109" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{650F94F3-8293-49B4-A07D-369EEA269916}"/>
-    <hyperlink ref="G46" r:id="rId110" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{848F2C58-860C-4008-BAF0-9F0E04D3A427}"/>
-    <hyperlink ref="A47" r:id="rId111" tooltip="MEPIS" display="https://en.wikipedia.org/wiki/MEPIS" xr:uid="{CDFC8C2C-7FD3-4489-BBC0-62D228D9D0BA}"/>
-    <hyperlink ref="A48" r:id="rId112" tooltip="Miracle Linux" display="https://en.wikipedia.org/wiki/Miracle_Linux" xr:uid="{68B71C98-9607-456E-95EB-9F61AA6FF3D2}"/>
-    <hyperlink ref="B48" r:id="rId113" tooltip="Cybertrust Japan" display="https://en.wikipedia.org/wiki/Cybertrust_Japan" xr:uid="{D9F2BB72-1553-4BBF-8574-E7A0B57EFE7F}"/>
-    <hyperlink ref="C48" r:id="rId114" tooltip="Cybertrust Japan" display="https://en.wikipedia.org/wiki/Cybertrust_Japan" xr:uid="{5A2CCEE8-C05D-4436-BF8B-974786303680}"/>
-    <hyperlink ref="E48" r:id="rId115" location="cite_note-ML9.0Release-49" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-ML9.0Release-49" xr:uid="{485CC05F-7664-48D7-970B-626A4A0D1C18}"/>
-    <hyperlink ref="A49" r:id="rId116" tooltip="Musix GNU+Linux" display="https://en.wikipedia.org/wiki/Musix_GNU%2BLinux" xr:uid="{4B047608-977B-45ED-9812-239C5F17B052}"/>
-    <hyperlink ref="I49" r:id="rId117" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{62E61AAB-40DD-4550-A819-EADA7D8088D0}"/>
-    <hyperlink ref="A50" r:id="rId118" tooltip="Netrunner (operating system)" display="https://en.wikipedia.org/wiki/Netrunner_(operating_system)" xr:uid="{589BDCEB-7148-4B0B-B4E6-2F74ABD05ECF}"/>
-    <hyperlink ref="B50" r:id="rId119" tooltip="Blue Systems" display="https://en.wikipedia.org/wiki/Blue_Systems" xr:uid="{1BA70EB8-12B5-46FD-BCB5-8F4D2553B440}"/>
-    <hyperlink ref="E50" r:id="rId120" location="cite_note-Netrunner_23-50" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-Netrunner_23-50" xr:uid="{9740B3A9-5684-4EFB-BD11-B989A8BBB09D}"/>
-    <hyperlink ref="A51" r:id="rId121" tooltip="NixOS" display="https://en.wikipedia.org/wiki/NixOS" xr:uid="{1CDB7A4A-F9D9-49F0-B158-4B3516979425}"/>
-    <hyperlink ref="E51" r:id="rId122" location="cite_note-51" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-51" xr:uid="{C7291C35-056C-4534-88D1-31BFA6271AC1}"/>
-    <hyperlink ref="A52" r:id="rId123" tooltip="Novell Open Enterprise Server" display="https://en.wikipedia.org/wiki/Novell_Open_Enterprise_Server" xr:uid="{50F4ABE6-2320-481F-A1C1-9F8B5DA73F26}"/>
-    <hyperlink ref="B52" r:id="rId124" tooltip="Novell" display="https://en.wikipedia.org/wiki/Novell" xr:uid="{F4323829-2A50-460E-848A-15BF2358CF9A}"/>
-    <hyperlink ref="C52" r:id="rId125" tooltip="Novell" display="https://en.wikipedia.org/wiki/Novell" xr:uid="{05093583-D888-43FF-A1DF-90EF821C1662}"/>
-    <hyperlink ref="I52" r:id="rId126" tooltip="SUSE Linux Enterprise Server" display="https://en.wikipedia.org/wiki/SUSE_Linux_Enterprise_Server" xr:uid="{283E5E2E-31F2-4F10-99D0-E87AF0758B2F}"/>
-    <hyperlink ref="K52" r:id="rId127" location="cite_note-52" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-52" xr:uid="{DC942A92-BD3A-416C-96DF-3A039D9824F5}"/>
-    <hyperlink ref="A53" r:id="rId128" tooltip="OpenELEC" display="https://en.wikipedia.org/wiki/OpenELEC" xr:uid="{2607DC13-8656-4730-BFB7-9F688A454336}"/>
-    <hyperlink ref="A54" r:id="rId129" tooltip="OpenSUSE" display="https://en.wikipedia.org/wiki/OpenSUSE" xr:uid="{21849D32-DAB0-428A-9975-B6F42247ABF6}"/>
-    <hyperlink ref="C54" r:id="rId130" tooltip="OpenSUSE Project" display="https://en.wikipedia.org/wiki/OpenSUSE_Project" xr:uid="{B990773F-67D2-4D83-B421-F21CD8A622CB}"/>
-    <hyperlink ref="F54" r:id="rId131" location="cite_note-54" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-54" xr:uid="{32DFB448-B29A-45B2-86CD-E9DAB15725E2}"/>
-    <hyperlink ref="A55" r:id="rId132" tooltip="OpenWrt" display="https://en.wikipedia.org/wiki/OpenWrt" xr:uid="{3BBBDE54-3A62-48AC-9350-3123A0EECACF}"/>
-    <hyperlink ref="J55" r:id="rId133" tooltip="Embedded system" display="https://en.wikipedia.org/wiki/Embedded_system" xr:uid="{671028FB-9563-422A-AB9F-19CA5EDBA12A}"/>
-    <hyperlink ref="A56" r:id="rId134" tooltip="OpenMandriva Lx" display="https://en.wikipedia.org/wiki/OpenMandriva_Lx" xr:uid="{85496C9C-64DC-4A09-A0AE-24C71FE59A3B}"/>
-    <hyperlink ref="I56" r:id="rId135" tooltip="Mandriva Linux" display="https://en.wikipedia.org/wiki/Mandriva_Linux" xr:uid="{61A2CB14-DF3A-4195-B2BA-844BFCC38FB5}"/>
-    <hyperlink ref="A57" r:id="rId136" tooltip="Oracle Linux" display="https://en.wikipedia.org/wiki/Oracle_Linux" xr:uid="{A74E443D-E090-4030-A725-DF5ADD2D3483}"/>
-    <hyperlink ref="A58" r:id="rId137" tooltip="Parabola GNU/Linux-libre" display="https://en.wikipedia.org/wiki/Parabola_GNU/Linux-libre" xr:uid="{730C7AF9-C059-43A2-BD53-105A07237DF7}"/>
-    <hyperlink ref="F58" r:id="rId138" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{8CA81EBE-33DF-4B1A-B27E-33C985192B63}"/>
-    <hyperlink ref="G58" r:id="rId139" location="cite_note-parabola-downloads-59" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-parabola-downloads-59" xr:uid="{DC4626C8-3D8A-4A4D-A97B-196019204F27}"/>
-    <hyperlink ref="I58" r:id="rId140" tooltip="Arch Linux" display="https://en.wikipedia.org/wiki/Arch_Linux" xr:uid="{1EED8656-2F5E-4624-AF61-C0EB23DFE142}"/>
-    <hyperlink ref="A59" r:id="rId141" tooltip="Pardus (operating system)" display="https://en.wikipedia.org/wiki/Pardus_(operating_system)" xr:uid="{8F88339B-3B29-4A21-B06A-649D68DF464E}"/>
-    <hyperlink ref="B59" r:id="rId142" tooltip="Scientific and Technological Research Council of Turkey" display="https://en.wikipedia.org/wiki/Scientific_and_Technological_Research_Council_of_Turkey" xr:uid="{C9798723-D80D-40B4-8766-86F9EA94A944}"/>
-    <hyperlink ref="A61" r:id="rId143" tooltip="Parrot OS" display="https://en.wikipedia.org/wiki/Parrot_OS" xr:uid="{0B024F8E-97D9-4935-AF11-0BC340EEE2ED}"/>
-    <hyperlink ref="F61" r:id="rId144" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{09E99DE6-E2ED-4691-A106-FCB53CFA7F34}"/>
-    <hyperlink ref="A62" r:id="rId145" tooltip="Parsix" display="https://en.wikipedia.org/wiki/Parsix" xr:uid="{CC2B2466-E756-4F57-960B-C401735758F7}"/>
-    <hyperlink ref="E62" r:id="rId146" location="cite_note-62" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-62" xr:uid="{B05D088D-4F0D-44C3-9F35-11218F89B89C}"/>
-    <hyperlink ref="A63" r:id="rId147" tooltip="Parted Magic" display="https://en.wikipedia.org/wiki/Parted_Magic" xr:uid="{C342D24E-FE4D-4921-9C8B-620DC0D14D0F}"/>
-    <hyperlink ref="E63" r:id="rId148" location="cite_note-63" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-63" xr:uid="{A2914F0A-8138-4CA9-87CA-9FE61918CF86}"/>
-    <hyperlink ref="K63" r:id="rId149" location="cite_note-64" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-64" xr:uid="{62E2BA4F-6E5C-4256-8D1E-A49E054D98BC}"/>
-    <hyperlink ref="A64" r:id="rId150" tooltip="PCLinuxOS" display="https://en.wikipedia.org/wiki/PCLinuxOS" xr:uid="{D15CF864-EE47-4318-8FAD-6B858ACF211E}"/>
-    <hyperlink ref="A65" r:id="rId151" tooltip="Pop! OS" display="https://en.wikipedia.org/wiki/Pop!_OS" xr:uid="{C5689437-0729-4997-A418-56DD7907A57D}"/>
-    <hyperlink ref="A67" r:id="rId152" tooltip="Pentoo" display="https://en.wikipedia.org/wiki/Pentoo" xr:uid="{872CEEBE-FFFA-4F47-ABB3-40438F611C78}"/>
-    <hyperlink ref="A68" r:id="rId153" tooltip="Porteus (operating system)" display="https://en.wikipedia.org/wiki/Porteus_(operating_system)" xr:uid="{317C62E6-7660-4CF7-84D2-FB9449137AA0}"/>
-    <hyperlink ref="A69" r:id="rId154" tooltip="Puppy Linux" display="https://en.wikipedia.org/wiki/Puppy_Linux" xr:uid="{F14AE607-B316-4AFE-9A9C-CFF7291F414C}"/>
-    <hyperlink ref="A70" r:id="rId155" tooltip="PureOS" display="https://en.wikipedia.org/wiki/PureOS" xr:uid="{736572F6-0343-45D7-BB73-B7A795015A9B}"/>
-    <hyperlink ref="C70" r:id="rId156" tooltip="Purism (Company)" display="https://en.wikipedia.org/wiki/Purism_(Company)" xr:uid="{917F75D8-3CCD-4480-9773-CE1F9C614481}"/>
-    <hyperlink ref="E70" r:id="rId157" location="cite_note-68" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-68" xr:uid="{4FD4FBFE-257A-4487-9652-42F171407309}"/>
-    <hyperlink ref="F70" r:id="rId158" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{6394A9C4-99F2-453B-82A9-590A020A881E}"/>
-    <hyperlink ref="I70" r:id="rId159" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{D06483D6-6AB9-4A81-BBE9-F702CC43AA45}"/>
-    <hyperlink ref="A71" r:id="rId160" tooltip="Qubes OS" display="https://en.wikipedia.org/wiki/Qubes_OS" xr:uid="{0589FA48-5B6D-414F-A66F-EE2DCC35F260}"/>
-    <hyperlink ref="B71" r:id="rId161" tooltip="Joanna Rutkowska" display="https://en.wikipedia.org/wiki/Joanna_Rutkowska" xr:uid="{97C33431-CD6E-417F-812A-75E3800C2AE5}"/>
-    <hyperlink ref="A72" r:id="rId162" tooltip="Red Hat Enterprise Linux" display="https://en.wikipedia.org/wiki/Red_Hat_Enterprise_Linux" xr:uid="{A9EE0AE7-37CB-4401-8F28-11A92F4B7C72}"/>
-    <hyperlink ref="B72" r:id="rId163" tooltip="Red Hat" display="https://en.wikipedia.org/wiki/Red_Hat" xr:uid="{0A0252AA-BCB1-4A7C-85ED-8AD8A3383F4F}"/>
-    <hyperlink ref="F72" r:id="rId164" location="cite_note-71" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-71" xr:uid="{68474762-767F-4142-9566-4FAA3D962D83}"/>
-    <hyperlink ref="A73" r:id="rId165" tooltip="Red Hat Linux" display="https://en.wikipedia.org/wiki/Red_Hat_Linux" xr:uid="{B32A9605-5579-407C-A6AF-D58C4665D19E}"/>
-    <hyperlink ref="E73" r:id="rId166" location="P348" tooltip="Edit this on Wikidata" display="https://www.wikidata.org/wiki/Q220182?uselang=en - P348" xr:uid="{32048B31-BAE5-4A69-B782-E0F4637FB12E}"/>
-    <hyperlink ref="A74" r:id="rId167" tooltip="Rocks Cluster Distribution" display="https://en.wikipedia.org/wiki/Rocks_Cluster_Distribution" xr:uid="{1271C92C-B956-429C-ABFB-08B257D3D467}"/>
-    <hyperlink ref="A75" r:id="rId168" tooltip="Rocky Linux" display="https://en.wikipedia.org/wiki/Rocky_Linux" xr:uid="{3C790259-851C-4539-B6D2-ABBC36FAA7E2}"/>
-    <hyperlink ref="B75" r:id="rId169" tooltip="Rocky Enterprise Software Foundation" display="https://en.wikipedia.org/wiki/Rocky_Enterprise_Software_Foundation" xr:uid="{3452FEA7-54D1-4492-B885-112ECBD71620}"/>
-    <hyperlink ref="C75" r:id="rId170" tooltip="Rocky Enterprise Software Foundation" display="https://en.wikipedia.org/wiki/Rocky_Enterprise_Software_Foundation" xr:uid="{D07A7C97-1FD3-417F-BC62-63D5E4BA18EA}"/>
-    <hyperlink ref="A76" r:id="rId171" tooltip="ROSA Linux" display="https://en.wikipedia.org/wiki/ROSA_Linux" xr:uid="{EDA90EA6-27D6-43E9-A0D2-F4BE0762829B}"/>
-    <hyperlink ref="A77" r:id="rId172" tooltip="Sabayon Linux" display="https://en.wikipedia.org/wiki/Sabayon_Linux" xr:uid="{B4327A01-DE02-4EEF-B013-FA35C103FCBE}"/>
-    <hyperlink ref="A78" r:id="rId173" tooltip="Salix OS" display="https://en.wikipedia.org/wiki/Salix_OS" xr:uid="{DFD5A782-3EA6-4D7E-852F-B7DAC0711378}"/>
-    <hyperlink ref="I78" r:id="rId174" tooltip="Slackware" display="https://en.wikipedia.org/wiki/Slackware" xr:uid="{42E39CBC-F2F3-4F94-89C2-EBCF545661CA}"/>
-    <hyperlink ref="A79" r:id="rId175" tooltip="Scientific Linux" display="https://en.wikipedia.org/wiki/Scientific_Linux" xr:uid="{4DA98EB7-4FB6-4C57-BA23-0939F1DF4612}"/>
-    <hyperlink ref="E79" r:id="rId176" location="cite_note-79" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-79" xr:uid="{D488A875-EB93-4CF3-B3DD-9BFC67A6C42C}"/>
-    <hyperlink ref="A80" r:id="rId177" tooltip="Slackware" display="https://en.wikipedia.org/wiki/Slackware" xr:uid="{291A2DB2-2453-4AAD-A0CB-78D2CEFC3508}"/>
-    <hyperlink ref="B80" r:id="rId178" tooltip="Patrick Volkerding" display="https://en.wikipedia.org/wiki/Patrick_Volkerding" xr:uid="{2CB982F1-CC48-4DB4-B1D0-813715F9408F}"/>
-    <hyperlink ref="I80" r:id="rId179" tooltip="Softlanding Linux System" display="https://en.wikipedia.org/wiki/Softlanding_Linux_System" xr:uid="{6139719C-4F44-4FB5-86E0-1F4F3098AE55}"/>
-    <hyperlink ref="A81" r:id="rId180" tooltip="Slax" display="https://en.wikipedia.org/wiki/Slax" xr:uid="{D0A46441-E62B-40FE-AFB0-DA5818BD95EB}"/>
-    <hyperlink ref="A82" r:id="rId181" tooltip="SliTaz GNU/Linux" display="https://en.wikipedia.org/wiki/SliTaz_GNU/Linux" xr:uid="{1D4BDEBA-E8E6-4A0D-AA67-5B88FD3EE250}"/>
-    <hyperlink ref="E82" r:id="rId182" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{04591BAF-4360-4BF8-8FDE-B548F6F346FF}"/>
-    <hyperlink ref="F82" r:id="rId183" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{994A4015-26F7-492E-A7CE-4A990E28E3A2}"/>
-    <hyperlink ref="G82" r:id="rId184" location="cite_note-82" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-82" xr:uid="{0546A794-DA1B-405A-AA50-26DE39512D2F}"/>
-    <hyperlink ref="A83" r:id="rId185" tooltip="Solus (operating system)" display="https://en.wikipedia.org/wiki/Solus_(operating_system)" xr:uid="{958E020B-1828-420B-A6F7-350055F3C808}"/>
-    <hyperlink ref="E83" r:id="rId186" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{DEBD6E44-7989-425C-840F-EE84E36A2933}"/>
-    <hyperlink ref="F83" r:id="rId187" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{C3B770DE-67DC-41C3-9991-30A47FFCB4D2}"/>
-    <hyperlink ref="I83" r:id="rId188" tooltip="Pardus Linux (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Pardus_Linux&amp;action=edit&amp;redlink=1" xr:uid="{37FFFE58-0747-48CD-96CE-8D2588E08869}"/>
-    <hyperlink ref="A84" r:id="rId189" tooltip="SolydXK" display="https://en.wikipedia.org/wiki/SolydXK" xr:uid="{492ECD58-CA67-4202-83B8-D65F98041282}"/>
-    <hyperlink ref="A85" r:id="rId190" tooltip="SparkyLinux" display="https://en.wikipedia.org/wiki/SparkyLinux" xr:uid="{7CA8A84C-D2C7-48B2-9948-6321B9BABB90}"/>
-    <hyperlink ref="E85" r:id="rId191" location="cite_note-84" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-84" xr:uid="{33E7C36E-38B9-4942-AC6A-2B55AEB928E0}"/>
-    <hyperlink ref="I85" r:id="rId192" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{49416F10-29A6-4889-8E45-D26135AFFF91}"/>
-    <hyperlink ref="A86" r:id="rId193" tooltip="Source Mage GNU/Linux" display="https://en.wikipedia.org/wiki/Source_Mage_GNU/Linux" xr:uid="{39C72FFE-927B-4A8A-B761-8BA2F4B765C9}"/>
-    <hyperlink ref="H86" r:id="rId194" location="Social_contract" tooltip="Source Mage" display="https://en.wikipedia.org/wiki/Source_Mage - Social_contract" xr:uid="{81971887-1FA6-41F7-A386-CA10000AD445}"/>
-    <hyperlink ref="I86" r:id="rId195" tooltip="Sorcerer (operating system)" display="https://en.wikipedia.org/wiki/Sorcerer_(operating_system)" xr:uid="{7AE66CE1-6228-44A6-8FB3-91935C350BB7}"/>
-    <hyperlink ref="A87" r:id="rId196" tooltip="SteamOS" display="https://en.wikipedia.org/wiki/SteamOS" xr:uid="{5822A891-3C78-43AA-A237-0D155964D97A}"/>
-    <hyperlink ref="B87" r:id="rId197" tooltip="Valve Corporation" display="https://en.wikipedia.org/wiki/Valve_Corporation" xr:uid="{BFCA9C8B-3B07-4EE9-997A-96BCB0C441C0}"/>
-    <hyperlink ref="C87" r:id="rId198" tooltip="Valve Corporation" display="https://en.wikipedia.org/wiki/Valve_Corporation" xr:uid="{E1D4DD39-5BB6-4C8B-94C6-B98ACDC99A87}"/>
-    <hyperlink ref="E87" r:id="rId199" location="cite_note-85" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-85" xr:uid="{098A27C3-E5AE-4A54-8B40-90F866076FD0}"/>
-    <hyperlink ref="I87" r:id="rId200" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{0C7F8A21-C57A-4B52-A090-CEC20174995E}"/>
-    <hyperlink ref="I88" r:id="rId201" tooltip="Arch Linux" display="https://en.wikipedia.org/wiki/Arch_Linux" xr:uid="{5B365A30-47BF-4289-8282-95F3534CEAA9}"/>
-    <hyperlink ref="A89" r:id="rId202" tooltip="SUSE Linux Enterprise" display="https://en.wikipedia.org/wiki/SUSE_Linux_Enterprise" xr:uid="{699F4315-1DBF-4701-9D80-A87EF0E0E218}"/>
-    <hyperlink ref="B89" r:id="rId203" tooltip="SUSE" display="https://en.wikipedia.org/wiki/SUSE" xr:uid="{198778DC-1E96-4BC8-B4FE-7707C0C308B8}"/>
-    <hyperlink ref="F89" r:id="rId204" location="cite_note-88" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-88" xr:uid="{46519EAF-5CE7-4F22-8CCA-DA021EF1E554}"/>
-    <hyperlink ref="K89" r:id="rId205" location="cite_note-89" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-89" xr:uid="{1A84A332-E2B6-499C-987D-0B18FA0AE253}"/>
-    <hyperlink ref="A90" r:id="rId206" tooltip="The Amnesic Incognito Live System" display="https://en.wikipedia.org/wiki/The_Amnesic_Incognito_Live_System" xr:uid="{2FF9414E-7E86-4D2D-A502-D1EB090F6F82}"/>
-    <hyperlink ref="F90" r:id="rId207" location="cite_note-Tails_Releases-91" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-Tails_Releases-91" xr:uid="{0D9D4FD2-8952-4932-9B04-1A7FF380F93D}"/>
-    <hyperlink ref="A91" r:id="rId208" tooltip="Tiny Core Linux" display="https://en.wikipedia.org/wiki/Tiny_Core_Linux" xr:uid="{FD03D5A5-AECA-4992-893F-055A87589B30}"/>
-    <hyperlink ref="E91" r:id="rId209" location="P348" tooltip="Edit this on Wikidata" display="https://www.wikidata.org/wiki/Q1151758?uselang=en - P348" xr:uid="{26482AB1-8B33-4798-A108-90EF40F4740C}"/>
-    <hyperlink ref="A92" r:id="rId210" tooltip="Trisquel GNU/Linux" display="https://en.wikipedia.org/wiki/Trisquel_GNU/Linux" xr:uid="{7AE42E0E-F367-465C-A9B6-138476F47D82}"/>
-    <hyperlink ref="I92" r:id="rId211" tooltip="Ubuntu (operating system)" display="https://en.wikipedia.org/wiki/Ubuntu_(operating_system)" xr:uid="{12B933A7-5DFE-44CF-911D-158AF90277F7}"/>
-    <hyperlink ref="A93" r:id="rId212" tooltip="TurnKey Linux Virtual Appliance Library" display="https://en.wikipedia.org/wiki/TurnKey_Linux_Virtual_Appliance_Library" xr:uid="{09A1A4CB-528C-4BA1-AA66-50692385938F}"/>
-    <hyperlink ref="B94" r:id="rId213" tooltip="Canonical Ltd." display="https://en.wikipedia.org/wiki/Canonical_Ltd." xr:uid="{ACE45F95-A41F-4B6C-BCA2-E5876E6A1815}"/>
-    <hyperlink ref="J94" r:id="rId214" tooltip="IBM mainframe" display="https://en.wikipedia.org/wiki/IBM_mainframe" xr:uid="{4963DAE1-D52C-4359-895C-B78553A6CB58}"/>
-    <hyperlink ref="A97" r:id="rId215" tooltip="Univention Corporate Server" display="https://en.wikipedia.org/wiki/Univention_Corporate_Server" xr:uid="{35D35A75-5AAA-4723-A9F6-B1C970D03634}"/>
-    <hyperlink ref="F97" r:id="rId216" location="cite_note-99" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-99" xr:uid="{E617518F-A32A-47D8-95EC-8275482BEB2E}"/>
-    <hyperlink ref="A98" r:id="rId217" tooltip="Ututo" display="https://en.wikipedia.org/wiki/Ututo" xr:uid="{3A871656-8D95-46D1-B4CF-A14AC9D2AA63}"/>
-    <hyperlink ref="A99" r:id="rId218" tooltip="VectorLinux" display="https://en.wikipedia.org/wiki/VectorLinux" xr:uid="{8E680D8D-C125-4C0A-909F-9EBC0772F101}"/>
-    <hyperlink ref="E99" r:id="rId219" location="cite_note-100" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-100" xr:uid="{0015AED4-734B-4F74-A3D7-B911F22AEDA3}"/>
-    <hyperlink ref="A100" r:id="rId220" tooltip="Void Linux" display="https://en.wikipedia.org/wiki/Void_Linux" xr:uid="{CBD8016D-2B0C-447E-B581-F93A7AC4044C}"/>
-    <hyperlink ref="E100" r:id="rId221" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{DDC3DF53-82A6-4329-BF6F-9FD2DB36634E}"/>
-    <hyperlink ref="F100" r:id="rId222" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{9491FF6B-2620-446C-9582-4397266C17F1}"/>
-    <hyperlink ref="A101" r:id="rId223" tooltip="Webconverger" display="https://en.wikipedia.org/wiki/Webconverger" xr:uid="{CA76D94D-F78E-490B-AEEF-2287AE383DDF}"/>
-    <hyperlink ref="E101" r:id="rId224" location="cite_note-101" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-101" xr:uid="{6DDBEA85-0751-45F0-AF6C-3D57F19216F2}"/>
-    <hyperlink ref="A102" r:id="rId225" tooltip="Xandros" display="https://en.wikipedia.org/wiki/Xandros" xr:uid="{B68B83E0-6E8E-43C3-BE4A-DFD4368F1E32}"/>
-    <hyperlink ref="E102" r:id="rId226" location="P348" tooltip="Edit this on Wikidata" display="https://www.wikidata.org/wiki/Q596710?uselang=en - P348" xr:uid="{C73E33B3-B1AD-423D-9FB8-BB593B11C7CD}"/>
-    <hyperlink ref="I102" r:id="rId227" tooltip="Corel Linux" display="https://en.wikipedia.org/wiki/Corel_Linux" xr:uid="{1F5C3DF8-35E3-47FB-AECF-D2F23E91FAB0}"/>
-    <hyperlink ref="A103" r:id="rId228" tooltip="Zentyal" display="https://en.wikipedia.org/wiki/Zentyal" xr:uid="{D617E04B-1C51-49EF-9470-11947AA53B27}"/>
-    <hyperlink ref="A104" r:id="rId229" tooltip="Zenwalk" display="https://en.wikipedia.org/wiki/Zenwalk" xr:uid="{D1A4354F-B351-44F5-864E-14ABC8963F3E}"/>
-    <hyperlink ref="B104" r:id="rId230" tooltip="Jean-Philippe Guillemin" display="https://en.wikipedia.org/wiki/Jean-Philippe_Guillemin" xr:uid="{6B5619C1-9F66-4507-99BB-B8C69D120F20}"/>
-    <hyperlink ref="A105" r:id="rId231" tooltip="Zorin OS" display="https://en.wikipedia.org/wiki/Zorin_OS" xr:uid="{1A40D974-124F-4BEE-851E-751E9216CFA1}"/>
+    <hyperlink ref="F2" r:id="rId1" location="cite_note-3" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-3" xr:uid="{0F608879-FF73-4537-8B18-FAE5ADF59CA9}"/>
+    <hyperlink ref="A3" r:id="rId2" tooltip="Alpine Linux" display="https://en.wikipedia.org/wiki/Alpine_Linux" xr:uid="{23F7E81E-BE2A-4D81-8F30-EF02286F9578}"/>
+    <hyperlink ref="I3" r:id="rId3" tooltip="LEAF Project" display="https://en.wikipedia.org/wiki/LEAF_Project" xr:uid="{C3241A20-4411-48E3-9277-841B4F56FF03}"/>
+    <hyperlink ref="A4" r:id="rId4" tooltip="ALT Linux" display="https://en.wikipedia.org/wiki/ALT_Linux" xr:uid="{2BBB7EEC-74AC-40B8-AC14-F74FA06CDFB3}"/>
+    <hyperlink ref="A5" r:id="rId5" tooltip="AntiX" display="https://en.wikipedia.org/wiki/AntiX" xr:uid="{17C678C0-B58C-4787-9B6F-DAB927E90BAD}"/>
+    <hyperlink ref="A6" r:id="rId6" tooltip="ArchBang" display="https://en.wikipedia.org/wiki/ArchBang" xr:uid="{539E7C14-B05C-4A84-8C89-C8D11C55769C}"/>
+    <hyperlink ref="E6" r:id="rId7" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{8BF9CD84-599A-4AEA-8ED3-6645A2069FE8}"/>
+    <hyperlink ref="F6" r:id="rId8" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{47F49E0D-764C-4724-9089-C34D344BBD8A}"/>
+    <hyperlink ref="G6" r:id="rId9" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{BA07DE32-47C3-4F0D-B333-E8BBA733C989}"/>
+    <hyperlink ref="A7" r:id="rId10" tooltip="Arch Linux" display="https://en.wikipedia.org/wiki/Arch_Linux" xr:uid="{6639807E-5BDC-40BC-B2A4-E45488C8F9B3}"/>
+    <hyperlink ref="E7" r:id="rId11" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{3E20EAF9-21BF-401B-B120-3A44ACEC4157}"/>
+    <hyperlink ref="F7" r:id="rId12" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{2D38DC68-1253-4AE1-A302-68AD4BF99D5D}"/>
+    <hyperlink ref="G7" r:id="rId13" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{CC159E07-F7D1-4CA3-B58E-EB6DAD999C3E}"/>
+    <hyperlink ref="I7" r:id="rId14" tooltip="CRUX" display="https://en.wikipedia.org/wiki/CRUX" xr:uid="{96FCAC37-1DCE-43EB-9171-1825270F7CE4}"/>
+    <hyperlink ref="A8" r:id="rId15" tooltip="BLAG Linux and GNU" display="https://en.wikipedia.org/wiki/BLAG_Linux_and_GNU" xr:uid="{1D306DB4-C04F-464A-AC2E-3B996D637365}"/>
+    <hyperlink ref="I8" r:id="rId16" tooltip="Fedora Linux" display="https://en.wikipedia.org/wiki/Fedora_Linux" xr:uid="{36EEAF3C-F5DE-4230-83B4-6160B8E61DF0}"/>
+    <hyperlink ref="A9" r:id="rId17" tooltip="Bodhi Linux" display="https://en.wikipedia.org/wiki/Bodhi_Linux" xr:uid="{33697D38-1B97-4755-B896-851AC3158F75}"/>
+    <hyperlink ref="A10" r:id="rId18" tooltip="Canaima (operating system)" display="https://en.wikipedia.org/wiki/Canaima_(operating_system)" xr:uid="{478DDA92-7D11-455A-8CBC-C51F8C98839C}"/>
+    <hyperlink ref="J10" r:id="rId19" tooltip="Government of Venezuela" display="https://en.wikipedia.org/wiki/Government_of_Venezuela" xr:uid="{869348FF-6546-4876-9892-68B4EC337D7C}"/>
+    <hyperlink ref="A11" r:id="rId20" tooltip="CentOS" display="https://en.wikipedia.org/wiki/CentOS" xr:uid="{2EA6DC70-38B0-4CE3-979C-F2F095C36FE7}"/>
+    <hyperlink ref="E11" r:id="rId21" location="cite_note-CentOS_8_Announcement-10" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-CentOS_8_Announcement-10" xr:uid="{BE402AC6-3CA3-4A1C-8C5E-1CB6754187D1}"/>
+    <hyperlink ref="F11" r:id="rId22" location="cite_note-11" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-11" xr:uid="{A9D9A152-9443-4C0C-B877-B2090F656CB2}"/>
+    <hyperlink ref="A12" r:id="rId23" tooltip="CentOS Stream" display="https://en.wikipedia.org/wiki/CentOS_Stream" xr:uid="{6B0E75A9-0E51-442F-923C-95734663B4DD}"/>
+    <hyperlink ref="E12" r:id="rId24" location="cite_note-Introducing_CentOS_Stream_9-12" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-Introducing_CentOS_Stream_9-12" xr:uid="{59E03283-BA6A-4AD6-8E83-F6A03910FEE4}"/>
+    <hyperlink ref="F12" r:id="rId25" location="cite_note-13" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-13" xr:uid="{73FA0995-1DFC-4154-B511-D55709C174B2}"/>
+    <hyperlink ref="A13" r:id="rId26" tooltip="Chakra (operating system)" display="https://en.wikipedia.org/wiki/Chakra_(operating_system)" xr:uid="{3FE91380-51C3-4681-BFE8-820FB4FE43C6}"/>
+    <hyperlink ref="E13" r:id="rId27" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{DD669706-F175-412E-A9FA-BDB0B7753B7F}"/>
+    <hyperlink ref="F13" r:id="rId28" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{7FE5F8DE-B5B5-4729-8155-4F79BB6CDF1B}"/>
+    <hyperlink ref="I13" r:id="rId29" location="cite_note-14" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-14" xr:uid="{57BB1EC2-59BE-48E1-BDFA-A5C1140FACDC}"/>
+    <hyperlink ref="A14" r:id="rId30" tooltip="ChromeOS" display="https://en.wikipedia.org/wiki/ChromeOS" xr:uid="{3DF661FF-8391-4534-9665-E466ADAD6BE6}"/>
+    <hyperlink ref="B14" r:id="rId31" tooltip="Sundar Pichai" display="https://en.wikipedia.org/wiki/Sundar_Pichai" xr:uid="{645B71EF-E3A5-414D-B62F-EE0D6E5BB910}"/>
+    <hyperlink ref="C14" r:id="rId32" tooltip="Google" display="https://en.wikipedia.org/wiki/Google" xr:uid="{1938E678-374D-423E-9E73-87EEFCC10877}"/>
+    <hyperlink ref="F14" r:id="rId33" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{D64EF45A-68E4-4540-956B-3369423BDDF2}"/>
+    <hyperlink ref="I14" r:id="rId34" tooltip="Gentoo Linux" display="https://en.wikipedia.org/wiki/Gentoo_Linux" xr:uid="{9627590E-8B80-41E8-97BB-2CC18C13BE3D}"/>
+    <hyperlink ref="A15" r:id="rId35" tooltip="Clear Linux OS" display="https://en.wikipedia.org/wiki/Clear_Linux_OS" xr:uid="{143D1127-3800-46B8-9528-00A2376B116E}"/>
+    <hyperlink ref="C15" r:id="rId36" tooltip="Intel" display="https://en.wikipedia.org/wiki/Intel" xr:uid="{7F33B4AC-1D8B-4278-8D79-F32381541556}"/>
+    <hyperlink ref="E15" r:id="rId37" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{797AE0C6-DAF3-4797-9863-5D45D3F9F073}"/>
+    <hyperlink ref="F15" r:id="rId38" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{2A736199-6B01-4E35-803B-5C50A37FB6DF}"/>
+    <hyperlink ref="G15" r:id="rId39" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{CEA97CC6-82AD-4CC4-8A6A-27177A4EC7CC}"/>
+    <hyperlink ref="J15" r:id="rId40" tooltip="Container (virtualization)" display="https://en.wikipedia.org/wiki/Container_(virtualization)" xr:uid="{991A4187-CADA-444D-8687-07F262B2D530}"/>
+    <hyperlink ref="A16" r:id="rId41" tooltip="ClearOS" display="https://en.wikipedia.org/wiki/ClearOS" xr:uid="{B9C98FC1-F251-4934-80D0-C5D59B62D47F}"/>
+    <hyperlink ref="E16" r:id="rId42" location="cite_note-16" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-16" xr:uid="{567D9CA7-CD8B-45FB-89CD-5D334D6F5C6C}"/>
+    <hyperlink ref="A17" r:id="rId43" tooltip="CrunchBang Linux" display="https://en.wikipedia.org/wiki/CrunchBang_Linux" xr:uid="{E215BE7C-1ACA-497A-9A23-911CD54C2E18}"/>
+    <hyperlink ref="E17" r:id="rId44" location="cite_note-17" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-17" xr:uid="{B5BD4B0A-B2BF-430E-959D-992E1B8A4F8E}"/>
+    <hyperlink ref="A18" r:id="rId45" tooltip="Damn Small Linux" display="https://en.wikipedia.org/wiki/Damn_Small_Linux" xr:uid="{B088B933-7DCA-4B07-8D32-7B92B755BA77}"/>
+    <hyperlink ref="E18" r:id="rId46" location="cite_note-18" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-18" xr:uid="{8EC383EB-95E7-4CFB-9FF6-81A915603067}"/>
+    <hyperlink ref="A19" r:id="rId47" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{F4B5F3CB-8EC2-45B9-9431-EFF7D3A654EE}"/>
+    <hyperlink ref="B19" r:id="rId48" tooltip="Ian Murdock" display="https://en.wikipedia.org/wiki/Ian_Murdock" xr:uid="{B8CF4641-7663-4007-BDCA-07C3C40BC0BA}"/>
+    <hyperlink ref="F19" r:id="rId49" location="cite_note-DebianSupportPeriod-21" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-DebianSupportPeriod-21" xr:uid="{08DCE576-389B-493E-9F80-CB5A833B4084}"/>
+    <hyperlink ref="A20" r:id="rId50" tooltip="Skolelinux" display="https://en.wikipedia.org/wiki/Skolelinux" xr:uid="{10241F5D-F096-401B-8FA1-58F0358D3EB2}"/>
+    <hyperlink ref="F20" r:id="rId51" location="cite_note-DebianSupportPeriod-21" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-DebianSupportPeriod-21" xr:uid="{2EB07142-3855-44C2-8A48-D78A77E1A731}"/>
+    <hyperlink ref="A21" r:id="rId52" tooltip="Devuan" display="https://en.wikipedia.org/wiki/Devuan" xr:uid="{2CE2FA3F-84E3-4875-918C-37DED488EB72}"/>
+    <hyperlink ref="H21" r:id="rId53" location="cite_note-DevuanISO-25" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-DevuanISO-25" xr:uid="{224A247E-D466-49CF-AC07-3B6D80B11AB5}"/>
+    <hyperlink ref="A22" r:id="rId54" tooltip="Deepin" display="https://en.wikipedia.org/wiki/Deepin" xr:uid="{0A599508-D149-4325-9333-60E10EC11FA9}"/>
+    <hyperlink ref="A23" r:id="rId55" tooltip="Dragora GNU/Linux-Libre" display="https://en.wikipedia.org/wiki/Dragora_GNU/Linux-Libre" xr:uid="{7E28A3E2-6FDE-43FB-9337-088DEDD13413}"/>
+    <hyperlink ref="A24" r:id="rId56" tooltip="Dyne:bolic" display="https://en.wikipedia.org/wiki/Dyne:bolic" xr:uid="{2EB8894B-90F5-4B40-A9FF-02D5D5941A4E}"/>
+    <hyperlink ref="I24" r:id="rId57" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{6AB0BD9A-5D05-4596-AF8E-B7696B250FD6}"/>
+    <hyperlink ref="A25" r:id="rId58" tooltip="Elementary OS" display="https://en.wikipedia.org/wiki/Elementary_OS" xr:uid="{3C647493-3806-4F42-AB8A-2317F2BA06EB}"/>
+    <hyperlink ref="A26" r:id="rId59" tooltip="ELinOS" display="https://en.wikipedia.org/wiki/ELinOS" xr:uid="{14EFA11E-A522-4AF7-9738-197DCAF898A4}"/>
+    <hyperlink ref="B26" r:id="rId60" tooltip="SYSGO" display="https://en.wikipedia.org/wiki/SYSGO" xr:uid="{443197A5-08AE-40A4-9BEB-0190DAE8F802}"/>
+    <hyperlink ref="E26" r:id="rId61" location="cite_note-29" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-29" xr:uid="{B608E7E2-5549-443D-883D-A71D8D3F372B}"/>
+    <hyperlink ref="J26" r:id="rId62" tooltip="Embedded system" display="https://en.wikipedia.org/wiki/Embedded_system" xr:uid="{9266817A-F9C9-4ECF-BC05-3306D8A6F15D}"/>
+    <hyperlink ref="A27" r:id="rId63" tooltip="Emdebian Grip" display="https://en.wikipedia.org/wiki/Emdebian_Grip" xr:uid="{F83FC533-4B26-47C1-9592-B2A6D7EF6509}"/>
+    <hyperlink ref="J27" r:id="rId64" tooltip="Embedded system" display="https://en.wikipedia.org/wiki/Embedded_system" xr:uid="{B3C85310-3891-4601-BB4C-D96CA91541F6}"/>
+    <hyperlink ref="A28" r:id="rId65" tooltip="EndeavourOS" display="https://en.wikipedia.org/wiki/EndeavourOS" xr:uid="{8C68A75F-D14F-48C4-AFBF-29EDF95420B0}"/>
+    <hyperlink ref="E28" r:id="rId66" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{237C4051-5622-4EBD-9D0E-D5992926B4ED}"/>
+    <hyperlink ref="A29" r:id="rId67" tooltip="Fedora Linux" display="https://en.wikipedia.org/wiki/Fedora_Linux" xr:uid="{0168B5CA-E920-4011-AAA5-362023DB8BC0}"/>
+    <hyperlink ref="B29" r:id="rId68" tooltip="Fedora Project" display="https://en.wikipedia.org/wiki/Fedora_Project" xr:uid="{A4B094A3-E0EE-4DCA-8C28-A882FE8CDEA0}"/>
+    <hyperlink ref="H29" r:id="rId69" location="cite_note-31" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-31" xr:uid="{49EDC1D0-AEBD-4B6F-B6B2-972D4B8C6F41}"/>
+    <hyperlink ref="A30" r:id="rId70" tooltip="Freespire" display="https://en.wikipedia.org/wiki/Freespire" xr:uid="{72505942-1D55-48BB-AB47-AEC21E901F22}"/>
+    <hyperlink ref="A31" r:id="rId71" tooltip="Gentoo Linux" display="https://en.wikipedia.org/wiki/Gentoo_Linux" xr:uid="{715E7FF1-0E57-4DDB-80AC-984AAADA2930}"/>
+    <hyperlink ref="B31" r:id="rId72" tooltip="Daniel Robbins (computer programmer)" display="https://en.wikipedia.org/wiki/Daniel_Robbins_(computer_programmer)" xr:uid="{7CBC4D61-D5E5-482B-B6A3-5B3650310386}"/>
+    <hyperlink ref="C31" r:id="rId73" tooltip="Gentoo Foundation" display="https://en.wikipedia.org/wiki/Gentoo_Foundation" xr:uid="{8AD080D8-DF38-4ABE-8DD1-4F9427124535}"/>
+    <hyperlink ref="E31" r:id="rId74" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{9BA606A4-2445-482D-AD10-5BAC85CDBF65}"/>
+    <hyperlink ref="F31" r:id="rId75" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{ADA2566B-C88A-45C2-97D2-82FB0BE5BF18}"/>
+    <hyperlink ref="G31" r:id="rId76" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{0C09A5E3-94B1-427A-88C7-05A9F1E242D7}"/>
+    <hyperlink ref="A32" r:id="rId77" tooltip="GNU Guix System" display="https://en.wikipedia.org/wiki/GNU_Guix_System" xr:uid="{2785A05A-7164-4BA5-A26B-E3184B90CA7C}"/>
+    <hyperlink ref="F32" r:id="rId78" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{2A1E48BE-B2F4-4A97-9259-F5CE33669CDD}"/>
+    <hyperlink ref="I32" r:id="rId79" tooltip="NixOS" display="https://en.wikipedia.org/wiki/NixOS" xr:uid="{55368D09-020D-4EEF-9DBE-105A180A5ACD}"/>
+    <hyperlink ref="A33" r:id="rId80" tooltip="GNewSense" display="https://en.wikipedia.org/wiki/GNewSense" xr:uid="{418689D9-95B4-47F4-905E-75D309BE8C5E}"/>
+    <hyperlink ref="C33" r:id="rId81" tooltip="Free Software Foundation" display="https://en.wikipedia.org/wiki/Free_Software_Foundation" xr:uid="{7BF44FE2-06FB-46A9-9073-F5378C9BDE3A}"/>
+    <hyperlink ref="I33" r:id="rId82" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{AE69D84D-B23C-457D-B36C-8B41392AF432}"/>
+    <hyperlink ref="A34" r:id="rId83" tooltip="Grml" display="https://en.wikipedia.org/wiki/Grml" xr:uid="{69911F19-7561-4F16-82D7-59239E7A9BCB}"/>
+    <hyperlink ref="A35" r:id="rId84" tooltip="Hyperbola GNU/Linux-libre" display="https://en.wikipedia.org/wiki/Hyperbola_GNU/Linux-libre" xr:uid="{67A884FF-7D09-4DC8-94D0-018A16683B55}"/>
+    <hyperlink ref="F35" r:id="rId85" location="cite_note-37" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-37" xr:uid="{A2ABD67E-CADB-4B8F-B51B-605C3CC8177D}"/>
+    <hyperlink ref="L35" r:id="rId86" location="cite_note-38" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-38" xr:uid="{0D76363C-7A48-4DD6-ACE2-32A555C8EEA0}"/>
+    <hyperlink ref="A36" r:id="rId87" tooltip="Kali Linux" display="https://en.wikipedia.org/wiki/Kali_Linux" xr:uid="{AEB58937-5E21-42B3-A491-5F2647FB0902}"/>
+    <hyperlink ref="A37" r:id="rId88" tooltip="Knoppix" display="https://en.wikipedia.org/wiki/Knoppix" xr:uid="{29179931-1186-470A-8D45-6AB7DED58CB2}"/>
+    <hyperlink ref="B37" r:id="rId89" tooltip="Klaus Knopper" display="https://en.wikipedia.org/wiki/Klaus_Knopper" xr:uid="{A6B4626F-444F-450F-A63F-3F860B3E14C2}"/>
+    <hyperlink ref="A38" r:id="rId90" tooltip="Korora (operating system)" display="https://en.wikipedia.org/wiki/Korora_(operating_system)" xr:uid="{B5AEC2DD-3F9D-4261-A627-882CD2E6AA34}"/>
+    <hyperlink ref="E38" r:id="rId91" location="cite_note-41" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-41" xr:uid="{500CD05A-3A06-4E95-AA29-FCA5CA3DC3D3}"/>
+    <hyperlink ref="A39" r:id="rId92" tooltip="LibreCMC" display="https://en.wikipedia.org/wiki/LibreCMC" xr:uid="{117D073C-BFBB-4E34-85E6-50CEEEBC67E6}"/>
+    <hyperlink ref="J39" r:id="rId93" tooltip="Embedded system" display="https://en.wikipedia.org/wiki/Embedded_system" xr:uid="{83F4DDDD-022D-422F-AE14-28C56864040B}"/>
+    <hyperlink ref="A40" r:id="rId94" tooltip="Linspire" display="https://en.wikipedia.org/wiki/Linspire" xr:uid="{70A45353-D4B4-4AB1-BF35-24CE7F52DE81}"/>
+    <hyperlink ref="E40" r:id="rId95" location="cite_note-43" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-43" xr:uid="{15E5E778-3DD5-4982-B44C-7D3EE4167874}"/>
+    <hyperlink ref="I40" r:id="rId96" tooltip="Ubuntu (operating system)" display="https://en.wikipedia.org/wiki/Ubuntu_(operating_system)" xr:uid="{F0B8BEED-B42E-4D94-83FA-4A9C9B3E277F}"/>
+    <hyperlink ref="K40" r:id="rId97" location="cite_note-44" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-44" xr:uid="{9823E183-3316-43D0-8EA9-ABA7B6C13A58}"/>
+    <hyperlink ref="A41" r:id="rId98" tooltip="Linux Mint" display="https://en.wikipedia.org/wiki/Linux_Mint" xr:uid="{3BF234DA-9895-4DF0-9E9B-9958035E6A84}"/>
+    <hyperlink ref="E41" r:id="rId99" location="P348" tooltip="Edit this on Wikidata" display="https://www.wikidata.org/wiki/Q2027?uselang=en - P348" xr:uid="{76FF3773-D74F-44C4-B175-53E789560BF0}"/>
+    <hyperlink ref="F41" r:id="rId100" location="Debian-based_edition" tooltip="Linux Mint" display="https://en.wikipedia.org/wiki/Linux_Mint - Debian-based_edition" xr:uid="{41E6FBD7-A771-44DE-A027-569A2D5D6D6E}"/>
+    <hyperlink ref="A43" r:id="rId101" tooltip="Linux Lite" display="https://en.wikipedia.org/wiki/Linux_Lite" xr:uid="{3ABA83B3-FDF4-4DC7-A4E2-2C87BA7FC796}"/>
+    <hyperlink ref="I43" r:id="rId102" tooltip="Ubuntu (operating system)" display="https://en.wikipedia.org/wiki/Ubuntu_(operating_system)" xr:uid="{AE22ED59-9564-4D05-9F64-1F073FFF9575}"/>
+    <hyperlink ref="A44" r:id="rId103" tooltip="Mageia" display="https://en.wikipedia.org/wiki/Mageia" xr:uid="{5B29ABD2-A3C7-40C6-B939-1EDA627805E3}"/>
+    <hyperlink ref="A45" r:id="rId104" tooltip="Mandriva Linux" display="https://en.wikipedia.org/wiki/Mandriva_Linux" xr:uid="{B8EC6B1E-B966-4332-97C5-C344FEE6D887}"/>
+    <hyperlink ref="A46" r:id="rId105" tooltip="Manjaro Linux" display="https://en.wikipedia.org/wiki/Manjaro_Linux" xr:uid="{13A4F306-E30B-4138-AA57-42120EEE67BA}"/>
+    <hyperlink ref="D46" r:id="rId106" location="cite_note-47" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-47" xr:uid="{390DA39E-DD2C-4E78-8C64-DFDBDA0A36F9}"/>
+    <hyperlink ref="E46" r:id="rId107" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{B727D2C2-4F6C-4716-A178-82B322B7F1DE}"/>
+    <hyperlink ref="F46" r:id="rId108" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{650F94F3-8293-49B4-A07D-369EEA269916}"/>
+    <hyperlink ref="G46" r:id="rId109" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{848F2C58-860C-4008-BAF0-9F0E04D3A427}"/>
+    <hyperlink ref="A47" r:id="rId110" tooltip="MEPIS" display="https://en.wikipedia.org/wiki/MEPIS" xr:uid="{CDFC8C2C-7FD3-4489-BBC0-62D228D9D0BA}"/>
+    <hyperlink ref="A48" r:id="rId111" tooltip="Miracle Linux" display="https://en.wikipedia.org/wiki/Miracle_Linux" xr:uid="{68B71C98-9607-456E-95EB-9F61AA6FF3D2}"/>
+    <hyperlink ref="B48" r:id="rId112" tooltip="Cybertrust Japan" display="https://en.wikipedia.org/wiki/Cybertrust_Japan" xr:uid="{D9F2BB72-1553-4BBF-8574-E7A0B57EFE7F}"/>
+    <hyperlink ref="C48" r:id="rId113" tooltip="Cybertrust Japan" display="https://en.wikipedia.org/wiki/Cybertrust_Japan" xr:uid="{5A2CCEE8-C05D-4436-BF8B-974786303680}"/>
+    <hyperlink ref="E48" r:id="rId114" location="cite_note-ML9.0Release-49" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-ML9.0Release-49" xr:uid="{485CC05F-7664-48D7-970B-626A4A0D1C18}"/>
+    <hyperlink ref="A49" r:id="rId115" tooltip="Musix GNU+Linux" display="https://en.wikipedia.org/wiki/Musix_GNU%2BLinux" xr:uid="{4B047608-977B-45ED-9812-239C5F17B052}"/>
+    <hyperlink ref="I49" r:id="rId116" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{62E61AAB-40DD-4550-A819-EADA7D8088D0}"/>
+    <hyperlink ref="A50" r:id="rId117" tooltip="Netrunner (operating system)" display="https://en.wikipedia.org/wiki/Netrunner_(operating_system)" xr:uid="{589BDCEB-7148-4B0B-B4E6-2F74ABD05ECF}"/>
+    <hyperlink ref="B50" r:id="rId118" tooltip="Blue Systems" display="https://en.wikipedia.org/wiki/Blue_Systems" xr:uid="{1BA70EB8-12B5-46FD-BCB5-8F4D2553B440}"/>
+    <hyperlink ref="E50" r:id="rId119" location="cite_note-Netrunner_23-50" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-Netrunner_23-50" xr:uid="{9740B3A9-5684-4EFB-BD11-B989A8BBB09D}"/>
+    <hyperlink ref="A51" r:id="rId120" tooltip="NixOS" display="https://en.wikipedia.org/wiki/NixOS" xr:uid="{1CDB7A4A-F9D9-49F0-B158-4B3516979425}"/>
+    <hyperlink ref="E51" r:id="rId121" location="cite_note-51" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-51" xr:uid="{C7291C35-056C-4534-88D1-31BFA6271AC1}"/>
+    <hyperlink ref="A52" r:id="rId122" tooltip="Novell Open Enterprise Server" display="https://en.wikipedia.org/wiki/Novell_Open_Enterprise_Server" xr:uid="{50F4ABE6-2320-481F-A1C1-9F8B5DA73F26}"/>
+    <hyperlink ref="B52" r:id="rId123" tooltip="Novell" display="https://en.wikipedia.org/wiki/Novell" xr:uid="{F4323829-2A50-460E-848A-15BF2358CF9A}"/>
+    <hyperlink ref="C52" r:id="rId124" tooltip="Novell" display="https://en.wikipedia.org/wiki/Novell" xr:uid="{05093583-D888-43FF-A1DF-90EF821C1662}"/>
+    <hyperlink ref="I52" r:id="rId125" tooltip="SUSE Linux Enterprise Server" display="https://en.wikipedia.org/wiki/SUSE_Linux_Enterprise_Server" xr:uid="{283E5E2E-31F2-4F10-99D0-E87AF0758B2F}"/>
+    <hyperlink ref="K52" r:id="rId126" location="cite_note-52" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-52" xr:uid="{DC942A92-BD3A-416C-96DF-3A039D9824F5}"/>
+    <hyperlink ref="A53" r:id="rId127" tooltip="OpenELEC" display="https://en.wikipedia.org/wiki/OpenELEC" xr:uid="{2607DC13-8656-4730-BFB7-9F688A454336}"/>
+    <hyperlink ref="A54" r:id="rId128" tooltip="OpenSUSE" display="https://en.wikipedia.org/wiki/OpenSUSE" xr:uid="{21849D32-DAB0-428A-9975-B6F42247ABF6}"/>
+    <hyperlink ref="C54" r:id="rId129" tooltip="OpenSUSE Project" display="https://en.wikipedia.org/wiki/OpenSUSE_Project" xr:uid="{B990773F-67D2-4D83-B421-F21CD8A622CB}"/>
+    <hyperlink ref="F54" r:id="rId130" location="cite_note-54" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-54" xr:uid="{32DFB448-B29A-45B2-86CD-E9DAB15725E2}"/>
+    <hyperlink ref="A55" r:id="rId131" tooltip="OpenWrt" display="https://en.wikipedia.org/wiki/OpenWrt" xr:uid="{3BBBDE54-3A62-48AC-9350-3123A0EECACF}"/>
+    <hyperlink ref="J55" r:id="rId132" tooltip="Embedded system" display="https://en.wikipedia.org/wiki/Embedded_system" xr:uid="{671028FB-9563-422A-AB9F-19CA5EDBA12A}"/>
+    <hyperlink ref="A56" r:id="rId133" tooltip="OpenMandriva Lx" display="https://en.wikipedia.org/wiki/OpenMandriva_Lx" xr:uid="{85496C9C-64DC-4A09-A0AE-24C71FE59A3B}"/>
+    <hyperlink ref="I56" r:id="rId134" tooltip="Mandriva Linux" display="https://en.wikipedia.org/wiki/Mandriva_Linux" xr:uid="{61A2CB14-DF3A-4195-B2BA-844BFCC38FB5}"/>
+    <hyperlink ref="A57" r:id="rId135" tooltip="Oracle Linux" display="https://en.wikipedia.org/wiki/Oracle_Linux" xr:uid="{A74E443D-E090-4030-A725-DF5ADD2D3483}"/>
+    <hyperlink ref="A58" r:id="rId136" tooltip="Parabola GNU/Linux-libre" display="https://en.wikipedia.org/wiki/Parabola_GNU/Linux-libre" xr:uid="{730C7AF9-C059-43A2-BD53-105A07237DF7}"/>
+    <hyperlink ref="F58" r:id="rId137" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{8CA81EBE-33DF-4B1A-B27E-33C985192B63}"/>
+    <hyperlink ref="G58" r:id="rId138" location="cite_note-parabola-downloads-59" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-parabola-downloads-59" xr:uid="{DC4626C8-3D8A-4A4D-A97B-196019204F27}"/>
+    <hyperlink ref="I58" r:id="rId139" tooltip="Arch Linux" display="https://en.wikipedia.org/wiki/Arch_Linux" xr:uid="{1EED8656-2F5E-4624-AF61-C0EB23DFE142}"/>
+    <hyperlink ref="A59" r:id="rId140" tooltip="Pardus (operating system)" display="https://en.wikipedia.org/wiki/Pardus_(operating_system)" xr:uid="{8F88339B-3B29-4A21-B06A-649D68DF464E}"/>
+    <hyperlink ref="B59" r:id="rId141" tooltip="Scientific and Technological Research Council of Turkey" display="https://en.wikipedia.org/wiki/Scientific_and_Technological_Research_Council_of_Turkey" xr:uid="{C9798723-D80D-40B4-8766-86F9EA94A944}"/>
+    <hyperlink ref="A61" r:id="rId142" tooltip="Parrot OS" display="https://en.wikipedia.org/wiki/Parrot_OS" xr:uid="{0B024F8E-97D9-4935-AF11-0BC340EEE2ED}"/>
+    <hyperlink ref="F61" r:id="rId143" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{09E99DE6-E2ED-4691-A106-FCB53CFA7F34}"/>
+    <hyperlink ref="A62" r:id="rId144" tooltip="Parsix" display="https://en.wikipedia.org/wiki/Parsix" xr:uid="{CC2B2466-E756-4F57-960B-C401735758F7}"/>
+    <hyperlink ref="E62" r:id="rId145" location="cite_note-62" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-62" xr:uid="{B05D088D-4F0D-44C3-9F35-11218F89B89C}"/>
+    <hyperlink ref="A63" r:id="rId146" tooltip="Parted Magic" display="https://en.wikipedia.org/wiki/Parted_Magic" xr:uid="{C342D24E-FE4D-4921-9C8B-620DC0D14D0F}"/>
+    <hyperlink ref="E63" r:id="rId147" location="cite_note-63" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-63" xr:uid="{A2914F0A-8138-4CA9-87CA-9FE61918CF86}"/>
+    <hyperlink ref="K63" r:id="rId148" location="cite_note-64" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-64" xr:uid="{62E2BA4F-6E5C-4256-8D1E-A49E054D98BC}"/>
+    <hyperlink ref="A64" r:id="rId149" tooltip="PCLinuxOS" display="https://en.wikipedia.org/wiki/PCLinuxOS" xr:uid="{D15CF864-EE47-4318-8FAD-6B858ACF211E}"/>
+    <hyperlink ref="A65" r:id="rId150" tooltip="Pop! OS" display="https://en.wikipedia.org/wiki/Pop!_OS" xr:uid="{C5689437-0729-4997-A418-56DD7907A57D}"/>
+    <hyperlink ref="A67" r:id="rId151" tooltip="Pentoo" display="https://en.wikipedia.org/wiki/Pentoo" xr:uid="{872CEEBE-FFFA-4F47-ABB3-40438F611C78}"/>
+    <hyperlink ref="A68" r:id="rId152" tooltip="Porteus (operating system)" display="https://en.wikipedia.org/wiki/Porteus_(operating_system)" xr:uid="{317C62E6-7660-4CF7-84D2-FB9449137AA0}"/>
+    <hyperlink ref="A69" r:id="rId153" tooltip="Puppy Linux" display="https://en.wikipedia.org/wiki/Puppy_Linux" xr:uid="{F14AE607-B316-4AFE-9A9C-CFF7291F414C}"/>
+    <hyperlink ref="A70" r:id="rId154" tooltip="PureOS" display="https://en.wikipedia.org/wiki/PureOS" xr:uid="{736572F6-0343-45D7-BB73-B7A795015A9B}"/>
+    <hyperlink ref="C70" r:id="rId155" tooltip="Purism (Company)" display="https://en.wikipedia.org/wiki/Purism_(Company)" xr:uid="{917F75D8-3CCD-4480-9773-CE1F9C614481}"/>
+    <hyperlink ref="E70" r:id="rId156" location="cite_note-68" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-68" xr:uid="{4FD4FBFE-257A-4487-9652-42F171407309}"/>
+    <hyperlink ref="F70" r:id="rId157" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{6394A9C4-99F2-453B-82A9-590A020A881E}"/>
+    <hyperlink ref="I70" r:id="rId158" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{D06483D6-6AB9-4A81-BBE9-F702CC43AA45}"/>
+    <hyperlink ref="A71" r:id="rId159" tooltip="Qubes OS" display="https://en.wikipedia.org/wiki/Qubes_OS" xr:uid="{0589FA48-5B6D-414F-A66F-EE2DCC35F260}"/>
+    <hyperlink ref="B71" r:id="rId160" tooltip="Joanna Rutkowska" display="https://en.wikipedia.org/wiki/Joanna_Rutkowska" xr:uid="{97C33431-CD6E-417F-812A-75E3800C2AE5}"/>
+    <hyperlink ref="A72" r:id="rId161" tooltip="Red Hat Enterprise Linux" display="https://en.wikipedia.org/wiki/Red_Hat_Enterprise_Linux" xr:uid="{A9EE0AE7-37CB-4401-8F28-11A92F4B7C72}"/>
+    <hyperlink ref="B72" r:id="rId162" tooltip="Red Hat" display="https://en.wikipedia.org/wiki/Red_Hat" xr:uid="{0A0252AA-BCB1-4A7C-85ED-8AD8A3383F4F}"/>
+    <hyperlink ref="F72" r:id="rId163" location="cite_note-71" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-71" xr:uid="{68474762-767F-4142-9566-4FAA3D962D83}"/>
+    <hyperlink ref="A73" r:id="rId164" tooltip="Red Hat Linux" display="https://en.wikipedia.org/wiki/Red_Hat_Linux" xr:uid="{B32A9605-5579-407C-A6AF-D58C4665D19E}"/>
+    <hyperlink ref="E73" r:id="rId165" location="P348" tooltip="Edit this on Wikidata" display="https://www.wikidata.org/wiki/Q220182?uselang=en - P348" xr:uid="{32048B31-BAE5-4A69-B782-E0F4637FB12E}"/>
+    <hyperlink ref="A74" r:id="rId166" tooltip="Rocks Cluster Distribution" display="https://en.wikipedia.org/wiki/Rocks_Cluster_Distribution" xr:uid="{1271C92C-B956-429C-ABFB-08B257D3D467}"/>
+    <hyperlink ref="A75" r:id="rId167" tooltip="Rocky Linux" display="https://en.wikipedia.org/wiki/Rocky_Linux" xr:uid="{3C790259-851C-4539-B6D2-ABBC36FAA7E2}"/>
+    <hyperlink ref="B75" r:id="rId168" tooltip="Rocky Enterprise Software Foundation" display="https://en.wikipedia.org/wiki/Rocky_Enterprise_Software_Foundation" xr:uid="{3452FEA7-54D1-4492-B885-112ECBD71620}"/>
+    <hyperlink ref="C75" r:id="rId169" tooltip="Rocky Enterprise Software Foundation" display="https://en.wikipedia.org/wiki/Rocky_Enterprise_Software_Foundation" xr:uid="{D07A7C97-1FD3-417F-BC62-63D5E4BA18EA}"/>
+    <hyperlink ref="A76" r:id="rId170" tooltip="ROSA Linux" display="https://en.wikipedia.org/wiki/ROSA_Linux" xr:uid="{EDA90EA6-27D6-43E9-A0D2-F4BE0762829B}"/>
+    <hyperlink ref="A77" r:id="rId171" tooltip="Sabayon Linux" display="https://en.wikipedia.org/wiki/Sabayon_Linux" xr:uid="{B4327A01-DE02-4EEF-B013-FA35C103FCBE}"/>
+    <hyperlink ref="A78" r:id="rId172" tooltip="Salix OS" display="https://en.wikipedia.org/wiki/Salix_OS" xr:uid="{DFD5A782-3EA6-4D7E-852F-B7DAC0711378}"/>
+    <hyperlink ref="I78" r:id="rId173" tooltip="Slackware" display="https://en.wikipedia.org/wiki/Slackware" xr:uid="{42E39CBC-F2F3-4F94-89C2-EBCF545661CA}"/>
+    <hyperlink ref="A79" r:id="rId174" tooltip="Scientific Linux" display="https://en.wikipedia.org/wiki/Scientific_Linux" xr:uid="{4DA98EB7-4FB6-4C57-BA23-0939F1DF4612}"/>
+    <hyperlink ref="E79" r:id="rId175" location="cite_note-79" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-79" xr:uid="{D488A875-EB93-4CF3-B3DD-9BFC67A6C42C}"/>
+    <hyperlink ref="A80" r:id="rId176" tooltip="Slackware" display="https://en.wikipedia.org/wiki/Slackware" xr:uid="{291A2DB2-2453-4AAD-A0CB-78D2CEFC3508}"/>
+    <hyperlink ref="B80" r:id="rId177" tooltip="Patrick Volkerding" display="https://en.wikipedia.org/wiki/Patrick_Volkerding" xr:uid="{2CB982F1-CC48-4DB4-B1D0-813715F9408F}"/>
+    <hyperlink ref="I80" r:id="rId178" tooltip="Softlanding Linux System" display="https://en.wikipedia.org/wiki/Softlanding_Linux_System" xr:uid="{6139719C-4F44-4FB5-86E0-1F4F3098AE55}"/>
+    <hyperlink ref="A81" r:id="rId179" tooltip="Slax" display="https://en.wikipedia.org/wiki/Slax" xr:uid="{D0A46441-E62B-40FE-AFB0-DA5818BD95EB}"/>
+    <hyperlink ref="A82" r:id="rId180" tooltip="SliTaz GNU/Linux" display="https://en.wikipedia.org/wiki/SliTaz_GNU/Linux" xr:uid="{1D4BDEBA-E8E6-4A0D-AA67-5B88FD3EE250}"/>
+    <hyperlink ref="E82" r:id="rId181" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{04591BAF-4360-4BF8-8FDE-B548F6F346FF}"/>
+    <hyperlink ref="F82" r:id="rId182" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{994A4015-26F7-492E-A7CE-4A990E28E3A2}"/>
+    <hyperlink ref="G82" r:id="rId183" location="cite_note-82" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-82" xr:uid="{0546A794-DA1B-405A-AA50-26DE39512D2F}"/>
+    <hyperlink ref="A83" r:id="rId184" tooltip="Solus (operating system)" display="https://en.wikipedia.org/wiki/Solus_(operating_system)" xr:uid="{958E020B-1828-420B-A6F7-350055F3C808}"/>
+    <hyperlink ref="E83" r:id="rId185" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{DEBD6E44-7989-425C-840F-EE84E36A2933}"/>
+    <hyperlink ref="F83" r:id="rId186" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{C3B770DE-67DC-41C3-9991-30A47FFCB4D2}"/>
+    <hyperlink ref="I83" r:id="rId187" tooltip="Pardus Linux (page does not exist)" display="https://en.wikipedia.org/w/index.php?title=Pardus_Linux&amp;action=edit&amp;redlink=1" xr:uid="{37FFFE58-0747-48CD-96CE-8D2588E08869}"/>
+    <hyperlink ref="A84" r:id="rId188" tooltip="SolydXK" display="https://en.wikipedia.org/wiki/SolydXK" xr:uid="{492ECD58-CA67-4202-83B8-D65F98041282}"/>
+    <hyperlink ref="A85" r:id="rId189" tooltip="SparkyLinux" display="https://en.wikipedia.org/wiki/SparkyLinux" xr:uid="{7CA8A84C-D2C7-48B2-9948-6321B9BABB90}"/>
+    <hyperlink ref="E85" r:id="rId190" location="cite_note-84" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-84" xr:uid="{33E7C36E-38B9-4942-AC6A-2B55AEB928E0}"/>
+    <hyperlink ref="I85" r:id="rId191" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{49416F10-29A6-4889-8E45-D26135AFFF91}"/>
+    <hyperlink ref="A86" r:id="rId192" tooltip="Source Mage GNU/Linux" display="https://en.wikipedia.org/wiki/Source_Mage_GNU/Linux" xr:uid="{39C72FFE-927B-4A8A-B761-8BA2F4B765C9}"/>
+    <hyperlink ref="H86" r:id="rId193" location="Social_contract" tooltip="Source Mage" display="https://en.wikipedia.org/wiki/Source_Mage - Social_contract" xr:uid="{81971887-1FA6-41F7-A386-CA10000AD445}"/>
+    <hyperlink ref="I86" r:id="rId194" tooltip="Sorcerer (operating system)" display="https://en.wikipedia.org/wiki/Sorcerer_(operating_system)" xr:uid="{7AE66CE1-6228-44A6-8FB3-91935C350BB7}"/>
+    <hyperlink ref="A87" r:id="rId195" tooltip="SteamOS" display="https://en.wikipedia.org/wiki/SteamOS" xr:uid="{5822A891-3C78-43AA-A237-0D155964D97A}"/>
+    <hyperlink ref="B87" r:id="rId196" tooltip="Valve Corporation" display="https://en.wikipedia.org/wiki/Valve_Corporation" xr:uid="{BFCA9C8B-3B07-4EE9-997A-96BCB0C441C0}"/>
+    <hyperlink ref="C87" r:id="rId197" tooltip="Valve Corporation" display="https://en.wikipedia.org/wiki/Valve_Corporation" xr:uid="{E1D4DD39-5BB6-4C8B-94C6-B98ACDC99A87}"/>
+    <hyperlink ref="E87" r:id="rId198" location="cite_note-85" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-85" xr:uid="{098A27C3-E5AE-4A54-8B40-90F866076FD0}"/>
+    <hyperlink ref="I87" r:id="rId199" tooltip="Debian" display="https://en.wikipedia.org/wiki/Debian" xr:uid="{0C7F8A21-C57A-4B52-A090-CEC20174995E}"/>
+    <hyperlink ref="I88" r:id="rId200" tooltip="Arch Linux" display="https://en.wikipedia.org/wiki/Arch_Linux" xr:uid="{5B365A30-47BF-4289-8282-95F3534CEAA9}"/>
+    <hyperlink ref="A89" r:id="rId201" tooltip="SUSE Linux Enterprise" display="https://en.wikipedia.org/wiki/SUSE_Linux_Enterprise" xr:uid="{699F4315-1DBF-4701-9D80-A87EF0E0E218}"/>
+    <hyperlink ref="B89" r:id="rId202" tooltip="SUSE" display="https://en.wikipedia.org/wiki/SUSE" xr:uid="{198778DC-1E96-4BC8-B4FE-7707C0C308B8}"/>
+    <hyperlink ref="F89" r:id="rId203" location="cite_note-88" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-88" xr:uid="{46519EAF-5CE7-4F22-8CCA-DA021EF1E554}"/>
+    <hyperlink ref="K89" r:id="rId204" location="cite_note-89" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-89" xr:uid="{1A84A332-E2B6-499C-987D-0B18FA0AE253}"/>
+    <hyperlink ref="A90" r:id="rId205" tooltip="The Amnesic Incognito Live System" display="https://en.wikipedia.org/wiki/The_Amnesic_Incognito_Live_System" xr:uid="{2FF9414E-7E86-4D2D-A502-D1EB090F6F82}"/>
+    <hyperlink ref="F90" r:id="rId206" location="cite_note-Tails_Releases-91" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-Tails_Releases-91" xr:uid="{0D9D4FD2-8952-4932-9B04-1A7FF380F93D}"/>
+    <hyperlink ref="A91" r:id="rId207" tooltip="Tiny Core Linux" display="https://en.wikipedia.org/wiki/Tiny_Core_Linux" xr:uid="{FD03D5A5-AECA-4992-893F-055A87589B30}"/>
+    <hyperlink ref="E91" r:id="rId208" location="P348" tooltip="Edit this on Wikidata" display="https://www.wikidata.org/wiki/Q1151758?uselang=en - P348" xr:uid="{26482AB1-8B33-4798-A108-90EF40F4740C}"/>
+    <hyperlink ref="A92" r:id="rId209" tooltip="Trisquel GNU/Linux" display="https://en.wikipedia.org/wiki/Trisquel_GNU/Linux" xr:uid="{7AE42E0E-F367-465C-A9B6-138476F47D82}"/>
+    <hyperlink ref="I92" r:id="rId210" tooltip="Ubuntu (operating system)" display="https://en.wikipedia.org/wiki/Ubuntu_(operating_system)" xr:uid="{12B933A7-5DFE-44CF-911D-158AF90277F7}"/>
+    <hyperlink ref="A93" r:id="rId211" tooltip="TurnKey Linux Virtual Appliance Library" display="https://en.wikipedia.org/wiki/TurnKey_Linux_Virtual_Appliance_Library" xr:uid="{09A1A4CB-528C-4BA1-AA66-50692385938F}"/>
+    <hyperlink ref="B94" r:id="rId212" tooltip="Canonical Ltd." display="https://en.wikipedia.org/wiki/Canonical_Ltd." xr:uid="{ACE45F95-A41F-4B6C-BCA2-E5876E6A1815}"/>
+    <hyperlink ref="J94" r:id="rId213" tooltip="IBM mainframe" display="https://en.wikipedia.org/wiki/IBM_mainframe" xr:uid="{4963DAE1-D52C-4359-895C-B78553A6CB58}"/>
+    <hyperlink ref="A97" r:id="rId214" tooltip="Univention Corporate Server" display="https://en.wikipedia.org/wiki/Univention_Corporate_Server" xr:uid="{35D35A75-5AAA-4723-A9F6-B1C970D03634}"/>
+    <hyperlink ref="F97" r:id="rId215" location="cite_note-99" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-99" xr:uid="{E617518F-A32A-47D8-95EC-8275482BEB2E}"/>
+    <hyperlink ref="A98" r:id="rId216" tooltip="Ututo" display="https://en.wikipedia.org/wiki/Ututo" xr:uid="{3A871656-8D95-46D1-B4CF-A14AC9D2AA63}"/>
+    <hyperlink ref="A99" r:id="rId217" tooltip="VectorLinux" display="https://en.wikipedia.org/wiki/VectorLinux" xr:uid="{8E680D8D-C125-4C0A-909F-9EBC0772F101}"/>
+    <hyperlink ref="E99" r:id="rId218" location="cite_note-100" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-100" xr:uid="{0015AED4-734B-4F74-A3D7-B911F22AEDA3}"/>
+    <hyperlink ref="A100" r:id="rId219" tooltip="Void Linux" display="https://en.wikipedia.org/wiki/Void_Linux" xr:uid="{CBD8016D-2B0C-447E-B581-F93A7AC4044C}"/>
+    <hyperlink ref="E100" r:id="rId220" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{DDC3DF53-82A6-4329-BF6F-9FD2DB36634E}"/>
+    <hyperlink ref="F100" r:id="rId221" tooltip="Rolling release" display="https://en.wikipedia.org/wiki/Rolling_release" xr:uid="{9491FF6B-2620-446C-9582-4397266C17F1}"/>
+    <hyperlink ref="A101" r:id="rId222" tooltip="Webconverger" display="https://en.wikipedia.org/wiki/Webconverger" xr:uid="{CA76D94D-F78E-490B-AEEF-2287AE383DDF}"/>
+    <hyperlink ref="E101" r:id="rId223" location="cite_note-101" display="https://en.wikipedia.org/wiki/Comparison_of_Linux_distributions - cite_note-101" xr:uid="{6DDBEA85-0751-45F0-AF6C-3D57F19216F2}"/>
+    <hyperlink ref="A102" r:id="rId224" tooltip="Xandros" display="https://en.wikipedia.org/wiki/Xandros" xr:uid="{B68B83E0-6E8E-43C3-BE4A-DFD4368F1E32}"/>
+    <hyperlink ref="E102" r:id="rId225" location="P348" tooltip="Edit this on Wikidata" display="https://www.wikidata.org/wiki/Q596710?uselang=en - P348" xr:uid="{C73E33B3-B1AD-423D-9FB8-BB593B11C7CD}"/>
+    <hyperlink ref="I102" r:id="rId226" tooltip="Corel Linux" display="https://en.wikipedia.org/wiki/Corel_Linux" xr:uid="{1F5C3DF8-35E3-47FB-AECF-D2F23E91FAB0}"/>
+    <hyperlink ref="A103" r:id="rId227" tooltip="Zentyal" display="https://en.wikipedia.org/wiki/Zentyal" xr:uid="{D617E04B-1C51-49EF-9470-11947AA53B27}"/>
+    <hyperlink ref="A104" r:id="rId228" tooltip="Zenwalk" display="https://en.wikipedia.org/wiki/Zenwalk" xr:uid="{D1A4354F-B351-44F5-864E-14ABC8963F3E}"/>
+    <hyperlink ref="B104" r:id="rId229" tooltip="Jean-Philippe Guillemin" display="https://en.wikipedia.org/wiki/Jean-Philippe_Guillemin" xr:uid="{6B5619C1-9F66-4507-99BB-B8C69D120F20}"/>
+    <hyperlink ref="A105" r:id="rId230" tooltip="Zorin OS" display="https://en.wikipedia.org/wiki/Zorin_OS" xr:uid="{1A40D974-124F-4BEE-851E-751E9216CFA1}"/>
+    <hyperlink ref="A2" r:id="rId231" tooltip="AlmaLinux" display="https://en.wikipedia.org/wiki/AlmaLinux" xr:uid="{ECDB7A37-5BBC-411B-9197-8AE9DD26F401}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId232"/>
@@ -16842,6 +17997,1369 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4523A4A-F107-4664-A486-35FFF6B0F76A}">
+  <dimension ref="A1:C115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="38.77734375" customWidth="1"/>
+    <col min="4" max="4" width="51.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>556</v>
+      </c>
+      <c r="B2" t="s">
+        <v>561</v>
+      </c>
+      <c r="C2" t="str">
+        <f>LOOKUP(A2,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, workstation</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C3" t="str">
+        <f>LOOKUP(A3,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>security, lightweight, general</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" t="str">
+        <f>LOOKUP(A4,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, school</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>573</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="str">
+        <f>LOOKUP(A5,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>old computers</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>573</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="str">
+        <f>LOOKUP(A6,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>old computers</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="str">
+        <f>LOOKUP(A7,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="str">
+        <f>LOOKUP(A8,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="str">
+        <f>LOOKUP(A9,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="str">
+        <f>LOOKUP(A10,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop, lightweight</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="str">
+        <f>LOOKUP(A11,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop, lightweight</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="str">
+        <f>LOOKUP(A12,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>Government of Venezuela</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="str">
+        <f>LOOKUP(A13,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>Government of Venezuela</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>561</v>
+      </c>
+      <c r="C14" t="str">
+        <f>LOOKUP(A14,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, workstation</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B15" t="s">
+        <v>561</v>
+      </c>
+      <c r="C15" t="str">
+        <f>LOOKUP(A15,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, workstation</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="str">
+        <f>LOOKUP(A16,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>609</v>
+      </c>
+      <c r="B17" t="s">
+        <v>613</v>
+      </c>
+      <c r="C17" t="str">
+        <f>LOOKUP(A17,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>web applications</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="str">
+        <f>LOOKUP(A18,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>container, server, desktop</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>959</v>
+      </c>
+      <c r="C19" t="str">
+        <f>LOOKUP(A19,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, gateway, network</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="str">
+        <f>LOOKUP(A20,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, gateway, network</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="str">
+        <f>LOOKUP(A21,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" t="str">
+        <f>LOOKUP(A22,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>lightweight, portable</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="str">
+        <f>LOOKUP(A23,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>lightweight, portable</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" t="str">
+        <f>LOOKUP(A24,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, server, desktop</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>638</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" t="str">
+        <f>LOOKUP(A25,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>schools</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" t="str">
+        <f>LOOKUP(A26,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>645</v>
+      </c>
+      <c r="B27" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" t="str">
+        <f>LOOKUP(A27,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>schools</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="str">
+        <f>LOOKUP(A28,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" t="str">
+        <f>LOOKUP(A29,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>multimedia</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>655</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" t="str">
+        <f>LOOKUP(A30,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>655</v>
+      </c>
+      <c r="B31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" t="str">
+        <f>LOOKUP(A31,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>660</v>
+      </c>
+      <c r="C32" t="str">
+        <f>LOOKUP(A32,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>embedded systems</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>666</v>
+      </c>
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="str">
+        <f>LOOKUP(A33,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>embedded systems</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>669</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="str">
+        <f>LOOKUP(A34,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>671</v>
+      </c>
+      <c r="B35" t="s">
+        <v>676</v>
+      </c>
+      <c r="C35" t="str">
+        <f>LOOKUP(A35,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>677</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="str">
+        <f>LOOKUP(A36,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>613</v>
+      </c>
+      <c r="B37" t="s">
+        <v>684</v>
+      </c>
+      <c r="C37" t="str">
+        <f>LOOKUP(A37,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" t="str">
+        <f>LOOKUP(A38,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>live, maintenance, security, network, forensic, accessibility</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>21</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39" t="str">
+        <f>LOOKUP(A39,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, server</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="str">
+        <f>LOOKUP(A40,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>live, maintenance, security, network, forensic, accessibility</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" t="str">
+        <f>LOOKUP(A41,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="str">
+        <f>LOOKUP(A42,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>auditing, forensic, security, network</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B43" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" t="str">
+        <f>LOOKUP(A43,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>709</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="str">
+        <f>LOOKUP(A44,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B45" t="s">
+        <v>960</v>
+      </c>
+      <c r="C45" t="str">
+        <f>LOOKUP(A45,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>embedded systems</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>716</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="str">
+        <f>LOOKUP(A46,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B47" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" t="str">
+        <f>LOOKUP(A47,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>27</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" t="str">
+        <f>LOOKUP(A48,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>724</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="str">
+        <f>LOOKUP(A49,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="str">
+        <f>LOOKUP(A50,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>676</v>
+      </c>
+      <c r="C51" t="str">
+        <f>LOOKUP(A51,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" t="str">
+        <f>LOOKUP(A52,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" t="s">
+        <v>14</v>
+      </c>
+      <c r="C53" t="str">
+        <f>LOOKUP(A53,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop, server</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" t="s">
+        <v>561</v>
+      </c>
+      <c r="C54" t="str">
+        <f>LOOKUP(A54,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" t="s">
+        <v>14</v>
+      </c>
+      <c r="C55" t="str">
+        <f>LOOKUP(A55,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>multimedia</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>746</v>
+      </c>
+      <c r="B56" t="s">
+        <v>14</v>
+      </c>
+      <c r="C56" t="str">
+        <f>LOOKUP(A56,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" t="str">
+        <f>LOOKUP(A57,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, server, desktop</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>755</v>
+      </c>
+      <c r="B58" t="s">
+        <v>759</v>
+      </c>
+      <c r="C58" t="str">
+        <f>LOOKUP(A58,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" t="s">
+        <v>764</v>
+      </c>
+      <c r="C59" t="str">
+        <f>LOOKUP(A59,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>multimedia</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>36</v>
+      </c>
+      <c r="B60" t="s">
+        <v>45</v>
+      </c>
+      <c r="C60" t="str">
+        <f>LOOKUP(A60,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, desktop</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B61" t="s">
+        <v>961</v>
+      </c>
+      <c r="C61" t="str">
+        <f>LOOKUP(A61,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, desktop</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="str">
+        <f>LOOKUP(A62,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>embedded systems</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>772</v>
+      </c>
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="str">
+        <f>LOOKUP(A63,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>multimedia</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>775</v>
+      </c>
+      <c r="B64" t="s">
+        <v>561</v>
+      </c>
+      <c r="C64" t="str">
+        <f>LOOKUP(A64,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="str">
+        <f>LOOKUP(A65,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" t="s">
+        <v>785</v>
+      </c>
+      <c r="C66" t="str">
+        <f>LOOKUP(A66,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" t="str">
+        <f>LOOKUP(A67,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>786</v>
+      </c>
+      <c r="B68" t="s">
+        <v>14</v>
+      </c>
+      <c r="C68" t="str">
+        <f>LOOKUP(A68,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>security, desktop</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>41</v>
+      </c>
+      <c r="B69" t="s">
+        <v>14</v>
+      </c>
+      <c r="C69" t="str">
+        <f>LOOKUP(A69,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>794</v>
+      </c>
+      <c r="C70" t="str">
+        <f>LOOKUP(A70,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>live, maintenance</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>42</v>
+      </c>
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="str">
+        <f>LOOKUP(A71,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>802</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" t="str">
+        <f>LOOKUP(A72,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>auditing, security</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" t="s">
+        <v>613</v>
+      </c>
+      <c r="C73" t="str">
+        <f>LOOKUP(A73,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>auditing, security</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>44</v>
+      </c>
+      <c r="B74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" t="str">
+        <f>LOOKUP(A74,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>lightweight, portable</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" t="str">
+        <f>LOOKUP(A75,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>lightweight, portable</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>817</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76" t="str">
+        <f>LOOKUP(A76,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, security, privacy</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>823</v>
+      </c>
+      <c r="B77" t="s">
+        <v>827</v>
+      </c>
+      <c r="C77" t="str">
+        <f>LOOKUP(A77,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>security by compartmentalization, desktop</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>829</v>
+      </c>
+      <c r="B78" t="s">
+        <v>676</v>
+      </c>
+      <c r="C78" t="str">
+        <f>LOOKUP(A78,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>829</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" t="str">
+        <f>LOOKUP(A79,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>676</v>
+      </c>
+      <c r="B80" t="s">
+        <v>754</v>
+      </c>
+      <c r="C80" t="str">
+        <f>LOOKUP(A80,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, workstation</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>836</v>
+      </c>
+      <c r="B81" t="s">
+        <v>676</v>
+      </c>
+      <c r="C81" t="str">
+        <f>LOOKUP(A81,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, workstation</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>839</v>
+      </c>
+      <c r="B82" t="s">
+        <v>561</v>
+      </c>
+      <c r="C82" t="str">
+        <f>LOOKUP(A82,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>842</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" t="str">
+        <f>LOOKUP(A83,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, general</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" t="s">
+        <v>613</v>
+      </c>
+      <c r="C84" t="str">
+        <f>LOOKUP(A84,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>848</v>
+      </c>
+      <c r="B85" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" t="str">
+        <f>LOOKUP(A85,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" t="s">
+        <v>676</v>
+      </c>
+      <c r="C86" t="str">
+        <f>LOOKUP(A86,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, workstation</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>49</v>
+      </c>
+      <c r="B87" t="s">
+        <v>561</v>
+      </c>
+      <c r="C87" t="str">
+        <f>LOOKUP(A87,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server, workstation</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" t="s">
+        <v>857</v>
+      </c>
+      <c r="C88" t="str">
+        <f>LOOKUP(A88,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>50</v>
+      </c>
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" t="str">
+        <f>LOOKUP(A89,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>50</v>
+      </c>
+      <c r="B90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C90" t="str">
+        <f>LOOKUP(A90,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>live</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>51</v>
+      </c>
+      <c r="C91" t="str">
+        <f>LOOKUP(A91,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>portable</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" t="s">
+        <v>865</v>
+      </c>
+      <c r="C92" t="str">
+        <f>LOOKUP(A92,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>866</v>
+      </c>
+      <c r="B93" t="s">
+        <v>14</v>
+      </c>
+      <c r="C93" t="str">
+        <f>LOOKUP(A93,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>870</v>
+      </c>
+      <c r="B94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C94" t="str">
+        <f>LOOKUP(A94,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, video games</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>53</v>
+      </c>
+      <c r="B95" t="s">
+        <v>877</v>
+      </c>
+      <c r="C95" t="str">
+        <f>LOOKUP(A95,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" t="s">
+        <v>880</v>
+      </c>
+      <c r="C96" t="str">
+        <f>LOOKUP(A96,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>video games</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" t="s">
+        <v>881</v>
+      </c>
+      <c r="C97" t="str">
+        <f>LOOKUP(A97,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>video games</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>883</v>
+      </c>
+      <c r="B98" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" t="str">
+        <f>LOOKUP(A98,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>edge, workstation, server, supercomputer</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>883</v>
+      </c>
+      <c r="B99" t="s">
+        <v>961</v>
+      </c>
+      <c r="C99" t="str">
+        <f>LOOKUP(A99,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>edge, workstation, server, supercomputer</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>55</v>
+      </c>
+      <c r="B100" t="s">
+        <v>14</v>
+      </c>
+      <c r="C100" t="str">
+        <f>LOOKUP(A100,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>security-focused aimed for anonymity and privacy</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" t="s">
+        <v>617</v>
+      </c>
+      <c r="C101" t="str">
+        <f>LOOKUP(A101,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>portable</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>57</v>
+      </c>
+      <c r="B102" t="s">
+        <v>901</v>
+      </c>
+      <c r="C102" t="str">
+        <f>LOOKUP(A102,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>58</v>
+      </c>
+      <c r="B103" t="s">
+        <v>14</v>
+      </c>
+      <c r="C103" t="str">
+        <f>LOOKUP(A103,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server based software appliance library aiming to balance security and ease of use</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>19</v>
+      </c>
+      <c r="B104" t="s">
+        <v>14</v>
+      </c>
+      <c r="C104" t="str">
+        <f>LOOKUP(A104,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>server based software appliance library aiming to balance security and ease of use</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>913</v>
+      </c>
+      <c r="B105" t="s">
+        <v>14</v>
+      </c>
+      <c r="C105" t="str">
+        <f>LOOKUP(A105,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>home, business, and school</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>59</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" t="str">
+        <f>LOOKUP(A106,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>59</v>
+      </c>
+      <c r="B107" t="s">
+        <v>613</v>
+      </c>
+      <c r="C107" t="str">
+        <f>LOOKUP(A107,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>60</v>
+      </c>
+      <c r="B108" t="s">
+        <v>45</v>
+      </c>
+      <c r="C108" t="str">
+        <f>LOOKUP(A108,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>desktop</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>61</v>
+      </c>
+      <c r="C109" t="str">
+        <f>LOOKUP(A109,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>62</v>
+      </c>
+      <c r="B110" t="s">
+        <v>14</v>
+      </c>
+      <c r="C110" t="str">
+        <f>LOOKUP(A110,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>kiosk software, digital signage</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>933</v>
+      </c>
+      <c r="B111" t="s">
+        <v>936</v>
+      </c>
+      <c r="C111" t="str">
+        <f>LOOKUP(A111,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>?</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>63</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112" t="str">
+        <f>LOOKUP(A112,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>small business server</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>63</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" t="str">
+        <f>LOOKUP(A113,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>small business server</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>64</v>
+      </c>
+      <c r="B114" t="s">
+        <v>45</v>
+      </c>
+      <c r="C114" t="str">
+        <f>LOOKUP(A114,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>942</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="str">
+        <f>LOOKUP(A115,General!$A$2:'General'!$A$105,General!$J$2:'General'!$J$105)</f>
+        <v>general, desktop</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBF6D11-4981-45CD-B013-8150100F9D5C}">
   <dimension ref="A1:R69"/>
   <sheetViews>
@@ -16964,82 +19482,82 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="55" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="C3" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D3" s="78" t="s">
+      <c r="C3" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3" s="77" t="s">
         <v>177</v>
       </c>
-      <c r="E3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" s="80" t="s">
+      <c r="E3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="87" t="s">
         <v>178</v>
       </c>
-      <c r="G3" s="78" t="s">
+      <c r="G3" s="77" t="s">
         <v>179</v>
       </c>
-      <c r="H3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K3" s="78" t="s">
+      <c r="H3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="77" t="s">
         <v>180</v>
       </c>
-      <c r="L3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q3" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R3" s="78" t="s">
+      <c r="L3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q3" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R3" s="77" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:18" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="71"/>
+      <c r="A4" s="56"/>
       <c r="B4" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="79"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="79"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="80"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="80"/>
+      <c r="Q4" s="80"/>
+      <c r="R4" s="78"/>
     </row>
     <row r="5" spans="1:18" ht="115.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
@@ -17154,82 +19672,82 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
+      <c r="A7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="C7" s="62" t="s">
+      <c r="B7" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="53" t="s">
         <v>174</v>
       </c>
       <c r="D7" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="H7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="P7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q7" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R7" s="76" t="s">
+      <c r="E7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q7" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R7" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="71"/>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
+      <c r="A8" s="56"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
       <c r="D8" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="77"/>
-      <c r="P8" s="77"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="80"/>
+      <c r="K8" s="80"/>
+      <c r="L8" s="80"/>
+      <c r="M8" s="80"/>
+      <c r="N8" s="80"/>
+      <c r="O8" s="80"/>
+      <c r="P8" s="80"/>
+      <c r="Q8" s="80"/>
+      <c r="R8" s="80"/>
     </row>
     <row r="9" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -17288,16 +19806,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
+      <c r="A10" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="84" t="s">
+      <c r="B10" s="92" t="s">
         <v>188</v>
       </c>
-      <c r="C10" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D10" s="84" t="s">
+      <c r="C10" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="92" t="s">
         <v>188</v>
       </c>
       <c r="E10" s="22" t="s">
@@ -17306,25 +19824,25 @@
       <c r="F10" s="22" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="92" t="s">
         <v>188</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>192</v>
       </c>
-      <c r="I10" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K10" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L10" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M10" s="76" t="s">
+      <c r="I10" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J10" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M10" s="79" t="s">
         <v>74</v>
       </c>
       <c r="N10" s="22" t="s">
@@ -17336,33 +19854,33 @@
       <c r="P10" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R10" s="76" t="s">
+      <c r="Q10" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R10" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="83"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="85"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="93"/>
       <c r="E11" s="24" t="s">
         <v>189</v>
       </c>
       <c r="F11" s="24">
         <v>4</v>
       </c>
-      <c r="G11" s="85"/>
+      <c r="G11" s="93"/>
       <c r="H11" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="82"/>
-      <c r="M11" s="82"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="85"/>
       <c r="N11" s="24" t="s">
         <v>189</v>
       </c>
@@ -17372,25 +19890,25 @@
       <c r="P11" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="Q11" s="82"/>
-      <c r="R11" s="82"/>
+      <c r="Q11" s="85"/>
+      <c r="R11" s="85"/>
     </row>
     <row r="12" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="71"/>
-      <c r="B12" s="86"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="86"/>
+      <c r="A12" s="56"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="94"/>
       <c r="E12" s="21" t="s">
         <v>190</v>
       </c>
       <c r="F12" s="25"/>
-      <c r="G12" s="86"/>
+      <c r="G12" s="94"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
+      <c r="I12" s="80"/>
+      <c r="J12" s="80"/>
+      <c r="K12" s="80"/>
+      <c r="L12" s="80"/>
+      <c r="M12" s="80"/>
       <c r="N12" s="25" t="s">
         <v>194</v>
       </c>
@@ -17398,8 +19916,8 @@
         <v>194</v>
       </c>
       <c r="P12" s="25"/>
-      <c r="Q12" s="77"/>
-      <c r="R12" s="77"/>
+      <c r="Q12" s="80"/>
+      <c r="R12" s="80"/>
     </row>
     <row r="13" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
@@ -17570,10 +20088,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="69" t="s">
         <v>197</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="53" t="s">
         <v>174</v>
       </c>
       <c r="C16" s="16" t="s">
@@ -17588,7 +20106,7 @@
       <c r="F16" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="G16" s="62" t="s">
+      <c r="G16" s="53" t="s">
         <v>174</v>
       </c>
       <c r="H16" s="22" t="s">
@@ -17600,13 +20118,13 @@
       <c r="J16" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="53" t="s">
         <v>174</v>
       </c>
       <c r="L16" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="M16" s="80" t="s">
+      <c r="M16" s="87" t="s">
         <v>206</v>
       </c>
       <c r="N16" s="22" t="s">
@@ -17621,13 +20139,13 @@
       <c r="Q16" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="R16" s="78" t="s">
+      <c r="R16" s="77" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="69"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="71"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="26" t="s">
         <v>198</v>
       </c>
@@ -17640,7 +20158,7 @@
       <c r="F17" s="25" t="s">
         <v>201</v>
       </c>
-      <c r="G17" s="64"/>
+      <c r="G17" s="54"/>
       <c r="H17" s="21" t="s">
         <v>202</v>
       </c>
@@ -17650,11 +20168,11 @@
       <c r="J17" s="25" t="s">
         <v>204</v>
       </c>
-      <c r="K17" s="64"/>
+      <c r="K17" s="54"/>
       <c r="L17" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="M17" s="81"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="25" t="s">
         <v>207</v>
       </c>
@@ -17667,7 +20185,7 @@
       <c r="Q17" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="R17" s="79"/>
+      <c r="R17" s="78"/>
     </row>
     <row r="18" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
@@ -17838,16 +20356,16 @@
       </c>
     </row>
     <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="67" t="s">
+      <c r="A21" s="69" t="s">
         <v>212</v>
       </c>
       <c r="B21" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C21" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="88" t="s">
+      <c r="C21" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D21" s="81" t="s">
         <v>215</v>
       </c>
       <c r="E21" s="22" t="s">
@@ -17856,96 +20374,96 @@
       <c r="F21" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="H21" s="76" t="s">
+      <c r="G21" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="79" t="s">
         <v>74</v>
       </c>
       <c r="I21" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="J21" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K21" s="80" t="s">
+      <c r="J21" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K21" s="87" t="s">
         <v>206</v>
       </c>
       <c r="L21" s="22" t="s">
         <v>219</v>
       </c>
-      <c r="M21" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N21" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O21" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="P21" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q21" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R21" s="78" t="s">
+      <c r="M21" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O21" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="P21" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R21" s="77" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="68"/>
+      <c r="A22" s="70"/>
       <c r="B22" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="C22" s="63"/>
-      <c r="D22" s="91"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="24" t="s">
         <v>216</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="82"/>
+      <c r="G22" s="76"/>
+      <c r="H22" s="85"/>
       <c r="I22" s="27" t="s">
         <v>220</v>
       </c>
-      <c r="J22" s="82"/>
-      <c r="K22" s="90"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="88"/>
       <c r="L22" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="M22" s="82"/>
-      <c r="N22" s="82"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="82"/>
-      <c r="Q22" s="82"/>
-      <c r="R22" s="87"/>
+      <c r="M22" s="85"/>
+      <c r="N22" s="85"/>
+      <c r="O22" s="76"/>
+      <c r="P22" s="85"/>
+      <c r="Q22" s="85"/>
+      <c r="R22" s="86"/>
     </row>
     <row r="23" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="69"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="25"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="89"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="82"/>
       <c r="E23" s="21" t="s">
         <v>217</v>
       </c>
       <c r="F23" s="25"/>
-      <c r="G23" s="64"/>
-      <c r="H23" s="77"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="25"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="81"/>
+      <c r="J23" s="80"/>
+      <c r="K23" s="89"/>
       <c r="L23" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="M23" s="77"/>
-      <c r="N23" s="77"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="77"/>
-      <c r="Q23" s="77"/>
-      <c r="R23" s="79"/>
+      <c r="M23" s="80"/>
+      <c r="N23" s="80"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="80"/>
+      <c r="Q23" s="80"/>
+      <c r="R23" s="78"/>
     </row>
     <row r="24" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
@@ -18340,82 +20858,82 @@
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A31" s="70" t="s">
+      <c r="A31" s="55" t="s">
         <v>30</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D31" s="88" t="s">
+      <c r="C31" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D31" s="81" t="s">
         <v>237</v>
       </c>
-      <c r="E31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="H31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="P31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q31" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R31" s="76" t="s">
+      <c r="E31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q31" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R31" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="71"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="28" t="s">
         <v>236</v>
       </c>
-      <c r="C32" s="64"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="77"/>
-      <c r="G32" s="77"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="77"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="77"/>
-      <c r="L32" s="77"/>
-      <c r="M32" s="77"/>
-      <c r="N32" s="77"/>
-      <c r="O32" s="77"/>
-      <c r="P32" s="77"/>
-      <c r="Q32" s="77"/>
-      <c r="R32" s="77"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="82"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="80"/>
+      <c r="G32" s="80"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="80"/>
+      <c r="J32" s="80"/>
+      <c r="K32" s="80"/>
+      <c r="L32" s="80"/>
+      <c r="M32" s="80"/>
+      <c r="N32" s="80"/>
+      <c r="O32" s="80"/>
+      <c r="P32" s="80"/>
+      <c r="Q32" s="80"/>
+      <c r="R32" s="80"/>
     </row>
     <row r="33" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
@@ -18474,82 +20992,82 @@
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="55" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="E34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="H34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="P34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q34" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R34" s="76" t="s">
+      <c r="C34" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q34" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R34" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="71"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="25">
         <v>8</v>
       </c>
-      <c r="C35" s="64"/>
-      <c r="D35" s="77"/>
-      <c r="E35" s="77"/>
-      <c r="F35" s="77"/>
-      <c r="G35" s="77"/>
-      <c r="H35" s="77"/>
-      <c r="I35" s="77"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="77"/>
-      <c r="L35" s="77"/>
-      <c r="M35" s="77"/>
-      <c r="N35" s="77"/>
-      <c r="O35" s="77"/>
-      <c r="P35" s="77"/>
-      <c r="Q35" s="77"/>
-      <c r="R35" s="77"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="80"/>
+      <c r="I35" s="80"/>
+      <c r="J35" s="80"/>
+      <c r="K35" s="80"/>
+      <c r="L35" s="80"/>
+      <c r="M35" s="80"/>
+      <c r="N35" s="80"/>
+      <c r="O35" s="80"/>
+      <c r="P35" s="80"/>
+      <c r="Q35" s="80"/>
+      <c r="R35" s="80"/>
     </row>
     <row r="36" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
@@ -18888,82 +21406,82 @@
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="69" t="s">
         <v>246</v>
       </c>
-      <c r="B42" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="C42" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D42" s="76" t="s">
+      <c r="B42" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C42" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D42" s="79" t="s">
         <v>74</v>
       </c>
       <c r="E42" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="H42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="P42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q42" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R42" s="76" t="s">
+      <c r="F42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q42" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R42" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="69"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="77"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="80"/>
       <c r="E43" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="F43" s="77"/>
-      <c r="G43" s="77"/>
-      <c r="H43" s="77"/>
-      <c r="I43" s="77"/>
-      <c r="J43" s="77"/>
-      <c r="K43" s="77"/>
-      <c r="L43" s="77"/>
-      <c r="M43" s="77"/>
-      <c r="N43" s="77"/>
-      <c r="O43" s="77"/>
-      <c r="P43" s="77"/>
-      <c r="Q43" s="77"/>
-      <c r="R43" s="77"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="80"/>
+      <c r="I43" s="80"/>
+      <c r="J43" s="80"/>
+      <c r="K43" s="80"/>
+      <c r="L43" s="80"/>
+      <c r="M43" s="80"/>
+      <c r="N43" s="80"/>
+      <c r="O43" s="80"/>
+      <c r="P43" s="80"/>
+      <c r="Q43" s="80"/>
+      <c r="R43" s="80"/>
     </row>
     <row r="44" spans="1:18" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
@@ -19022,7 +21540,7 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A45" s="70" t="s">
+      <c r="A45" s="55" t="s">
         <v>252</v>
       </c>
       <c r="B45" s="22" t="s">
@@ -19031,91 +21549,91 @@
       <c r="C45" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="D45" s="76" t="s">
+      <c r="D45" s="79" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F45" s="76" t="s">
+      <c r="F45" s="79" t="s">
         <v>74</v>
       </c>
       <c r="G45" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="H45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="P45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q45" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R45" s="76" t="s">
+      <c r="H45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q45" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R45" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="46" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="71"/>
+      <c r="A46" s="56"/>
       <c r="B46" s="21" t="s">
         <v>253</v>
       </c>
       <c r="C46" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="77"/>
+      <c r="D46" s="80"/>
       <c r="E46" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="F46" s="77"/>
+      <c r="F46" s="80"/>
       <c r="G46" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="H46" s="77"/>
-      <c r="I46" s="77"/>
-      <c r="J46" s="77"/>
-      <c r="K46" s="77"/>
-      <c r="L46" s="77"/>
-      <c r="M46" s="77"/>
-      <c r="N46" s="77"/>
-      <c r="O46" s="77"/>
-      <c r="P46" s="77"/>
-      <c r="Q46" s="77"/>
-      <c r="R46" s="77"/>
+      <c r="H46" s="80"/>
+      <c r="I46" s="80"/>
+      <c r="J46" s="80"/>
+      <c r="K46" s="80"/>
+      <c r="L46" s="80"/>
+      <c r="M46" s="80"/>
+      <c r="N46" s="80"/>
+      <c r="O46" s="80"/>
+      <c r="P46" s="80"/>
+      <c r="Q46" s="80"/>
+      <c r="R46" s="80"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A47" s="67" t="s">
+      <c r="A47" s="69" t="s">
         <v>255</v>
       </c>
       <c r="B47" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="C47" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="D47" s="76" t="s">
+      <c r="C47" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="D47" s="79" t="s">
         <v>74</v>
       </c>
       <c r="E47" s="22" t="s">
@@ -19124,7 +21642,7 @@
       <c r="F47" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="G47" s="76" t="s">
+      <c r="G47" s="79" t="s">
         <v>74</v>
       </c>
       <c r="H47" s="22" t="s">
@@ -19133,22 +21651,22 @@
       <c r="I47" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="J47" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K47" s="76" t="s">
+      <c r="J47" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47" s="79" t="s">
         <v>74</v>
       </c>
       <c r="L47" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="M47" s="76" t="s">
+      <c r="M47" s="79" t="s">
         <v>74</v>
       </c>
       <c r="N47" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="O47" s="62" t="s">
+      <c r="O47" s="53" t="s">
         <v>174</v>
       </c>
       <c r="P47" s="22" t="s">
@@ -19157,72 +21675,72 @@
       <c r="Q47" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="R47" s="76" t="s">
+      <c r="R47" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A48" s="68"/>
+      <c r="A48" s="70"/>
       <c r="B48" s="24">
         <v>9</v>
       </c>
-      <c r="C48" s="82"/>
-      <c r="D48" s="82"/>
+      <c r="C48" s="85"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="24" t="s">
         <v>256</v>
       </c>
       <c r="F48" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="G48" s="82"/>
+      <c r="G48" s="85"/>
       <c r="H48" s="24" t="s">
         <v>259</v>
       </c>
       <c r="I48" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="J48" s="82"/>
-      <c r="K48" s="82"/>
+      <c r="J48" s="85"/>
+      <c r="K48" s="85"/>
       <c r="L48" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="M48" s="82"/>
+      <c r="M48" s="85"/>
       <c r="N48" s="24">
         <v>7.2</v>
       </c>
-      <c r="O48" s="63"/>
+      <c r="O48" s="76"/>
       <c r="P48" s="24" t="s">
         <v>261</v>
       </c>
       <c r="Q48" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="R48" s="82"/>
+      <c r="R48" s="85"/>
     </row>
     <row r="49" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="69"/>
+      <c r="A49" s="71"/>
       <c r="B49" s="25"/>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
-      <c r="G49" s="77"/>
+      <c r="G49" s="80"/>
       <c r="H49" s="25" t="s">
         <v>260</v>
       </c>
       <c r="I49" s="25"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
+      <c r="J49" s="80"/>
+      <c r="K49" s="80"/>
       <c r="L49" s="25"/>
-      <c r="M49" s="77"/>
+      <c r="M49" s="80"/>
       <c r="N49" s="25"/>
-      <c r="O49" s="64"/>
+      <c r="O49" s="54"/>
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
-      <c r="R49" s="77"/>
+      <c r="R49" s="80"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A50" s="67" t="s">
+      <c r="A50" s="69" t="s">
         <v>262</v>
       </c>
       <c r="B50" s="22" t="s">
@@ -19231,7 +21749,7 @@
       <c r="C50" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D50" s="88" t="s">
+      <c r="D50" s="81" t="s">
         <v>265</v>
       </c>
       <c r="E50" s="22" t="s">
@@ -19243,22 +21761,22 @@
       <c r="G50" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="H50" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I50" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J50" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L50" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M50" s="76" t="s">
+      <c r="H50" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I50" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J50" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L50" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M50" s="79" t="s">
         <v>74</v>
       </c>
       <c r="N50" s="22" t="s">
@@ -19267,25 +21785,25 @@
       <c r="O50" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="P50" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q50" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R50" s="76" t="s">
+      <c r="P50" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q50" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R50" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="69"/>
+      <c r="A51" s="71"/>
       <c r="B51" s="21" t="s">
         <v>263</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="D51" s="89"/>
+      <c r="D51" s="82"/>
       <c r="E51" s="21" t="s">
         <v>266</v>
       </c>
@@ -19295,21 +21813,21 @@
       <c r="G51" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="H51" s="77"/>
-      <c r="I51" s="77"/>
-      <c r="J51" s="77"/>
-      <c r="K51" s="77"/>
-      <c r="L51" s="77"/>
-      <c r="M51" s="77"/>
+      <c r="H51" s="80"/>
+      <c r="I51" s="80"/>
+      <c r="J51" s="80"/>
+      <c r="K51" s="80"/>
+      <c r="L51" s="80"/>
+      <c r="M51" s="80"/>
       <c r="N51" s="21" t="s">
         <v>267</v>
       </c>
       <c r="O51" s="26" t="s">
         <v>264</v>
       </c>
-      <c r="P51" s="77"/>
-      <c r="Q51" s="77"/>
-      <c r="R51" s="77"/>
+      <c r="P51" s="80"/>
+      <c r="Q51" s="80"/>
+      <c r="R51" s="80"/>
     </row>
     <row r="52" spans="1:18" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
@@ -19368,82 +21886,82 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A53" s="70" t="s">
+      <c r="A53" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="C53" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D53" s="76" t="s">
+      <c r="B53" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="79" t="s">
         <v>74</v>
       </c>
       <c r="E53" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="F53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="H53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="P53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q53" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R53" s="76" t="s">
+      <c r="F53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q53" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R53" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="71"/>
-      <c r="B54" s="64"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="77"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="80"/>
       <c r="E54" s="31">
         <v>44989</v>
       </c>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="77"/>
-      <c r="I54" s="77"/>
-      <c r="J54" s="77"/>
-      <c r="K54" s="77"/>
-      <c r="L54" s="77"/>
-      <c r="M54" s="77"/>
-      <c r="N54" s="77"/>
-      <c r="O54" s="77"/>
-      <c r="P54" s="77"/>
-      <c r="Q54" s="77"/>
-      <c r="R54" s="77"/>
+      <c r="F54" s="80"/>
+      <c r="G54" s="80"/>
+      <c r="H54" s="80"/>
+      <c r="I54" s="80"/>
+      <c r="J54" s="80"/>
+      <c r="K54" s="80"/>
+      <c r="L54" s="80"/>
+      <c r="M54" s="80"/>
+      <c r="N54" s="80"/>
+      <c r="O54" s="80"/>
+      <c r="P54" s="80"/>
+      <c r="Q54" s="80"/>
+      <c r="R54" s="80"/>
     </row>
     <row r="55" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
@@ -19502,43 +22020,43 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="B56" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="C56" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D56" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="E56" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G56" s="76" t="s">
+      <c r="B56" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="C56" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F56" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G56" s="79" t="s">
         <v>74</v>
       </c>
       <c r="H56" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="I56" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J56" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K56" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L56" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M56" s="76" t="s">
+      <c r="I56" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J56" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L56" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M56" s="79" t="s">
         <v>74</v>
       </c>
       <c r="N56" s="22" t="s">
@@ -19550,29 +22068,29 @@
       <c r="P56" s="22" t="s">
         <v>185</v>
       </c>
-      <c r="Q56" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R56" s="76" t="s">
+      <c r="Q56" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R56" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="71"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="21" t="s">
         <v>269</v>
       </c>
-      <c r="I57" s="77"/>
-      <c r="J57" s="77"/>
-      <c r="K57" s="77"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
+      <c r="I57" s="80"/>
+      <c r="J57" s="80"/>
+      <c r="K57" s="80"/>
+      <c r="L57" s="80"/>
+      <c r="M57" s="80"/>
       <c r="N57" s="21" t="s">
         <v>270</v>
       </c>
@@ -19582,8 +22100,8 @@
       <c r="P57" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="Q57" s="77"/>
-      <c r="R57" s="77"/>
+      <c r="Q57" s="80"/>
+      <c r="R57" s="80"/>
     </row>
     <row r="58" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
@@ -19810,160 +22328,160 @@
       </c>
     </row>
     <row r="62" spans="1:18" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="70" t="s">
+      <c r="A62" s="55" t="s">
         <v>58</v>
       </c>
       <c r="B62" s="22" t="s">
         <v>274</v>
       </c>
-      <c r="C62" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D62" s="92" t="s">
+      <c r="C62" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D62" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="E62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="G62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="H62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="P62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q62" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R62" s="76" t="s">
+      <c r="E62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="P62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q62" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R62" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="71"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="C63" s="64"/>
-      <c r="D63" s="93"/>
-      <c r="E63" s="77"/>
-      <c r="F63" s="77"/>
-      <c r="G63" s="77"/>
-      <c r="H63" s="77"/>
-      <c r="I63" s="77"/>
-      <c r="J63" s="77"/>
-      <c r="K63" s="77"/>
-      <c r="L63" s="77"/>
-      <c r="M63" s="77"/>
-      <c r="N63" s="77"/>
-      <c r="O63" s="77"/>
-      <c r="P63" s="77"/>
-      <c r="Q63" s="77"/>
-      <c r="R63" s="77"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="80"/>
+      <c r="I63" s="80"/>
+      <c r="J63" s="80"/>
+      <c r="K63" s="80"/>
+      <c r="L63" s="80"/>
+      <c r="M63" s="80"/>
+      <c r="N63" s="80"/>
+      <c r="O63" s="80"/>
+      <c r="P63" s="80"/>
+      <c r="Q63" s="80"/>
+      <c r="R63" s="80"/>
     </row>
     <row r="64" spans="1:18" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="67" t="s">
+      <c r="A64" s="69" t="s">
         <v>277</v>
       </c>
       <c r="B64" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C64" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="D64" s="88" t="s">
+      <c r="C64" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" s="81" t="s">
         <v>279</v>
       </c>
-      <c r="E64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="F64" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="G64" s="62" t="s">
-        <v>174</v>
-      </c>
-      <c r="H64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="I64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="J64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="K64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="L64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="M64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="N64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="O64" s="78" t="s">
+      <c r="E64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="G64" s="53" t="s">
+        <v>174</v>
+      </c>
+      <c r="H64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="J64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="M64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="N64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="O64" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="P64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q64" s="76" t="s">
-        <v>74</v>
-      </c>
-      <c r="R64" s="76" t="s">
+      <c r="P64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q64" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="R64" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="69"/>
+      <c r="A65" s="71"/>
       <c r="B65" s="25" t="s">
         <v>278</v>
       </c>
-      <c r="C65" s="64"/>
-      <c r="D65" s="89"/>
-      <c r="E65" s="77"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="77"/>
-      <c r="I65" s="77"/>
-      <c r="J65" s="77"/>
-      <c r="K65" s="77"/>
-      <c r="L65" s="77"/>
-      <c r="M65" s="77"/>
-      <c r="N65" s="77"/>
-      <c r="O65" s="79"/>
-      <c r="P65" s="77"/>
-      <c r="Q65" s="77"/>
-      <c r="R65" s="77"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="82"/>
+      <c r="E65" s="80"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="80"/>
+      <c r="I65" s="80"/>
+      <c r="J65" s="80"/>
+      <c r="K65" s="80"/>
+      <c r="L65" s="80"/>
+      <c r="M65" s="80"/>
+      <c r="N65" s="80"/>
+      <c r="O65" s="78"/>
+      <c r="P65" s="80"/>
+      <c r="Q65" s="80"/>
+      <c r="R65" s="80"/>
     </row>
     <row r="66" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
@@ -20191,6 +22709,197 @@
     </row>
   </sheetData>
   <mergeCells count="215">
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="O7:O8"/>
+    <mergeCell ref="P7:P8"/>
+    <mergeCell ref="Q7:Q8"/>
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="R16:R17"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="L10:L12"/>
+    <mergeCell ref="M10:M12"/>
+    <mergeCell ref="Q10:Q12"/>
+    <mergeCell ref="R10:R12"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="I10:I12"/>
+    <mergeCell ref="R21:R23"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K21:K23"/>
+    <mergeCell ref="M21:M23"/>
+    <mergeCell ref="N21:N23"/>
+    <mergeCell ref="O21:O23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="Q21:Q23"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="C21:C23"/>
+    <mergeCell ref="D21:D23"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="Q31:Q32"/>
+    <mergeCell ref="R31:R32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="P31:P32"/>
+    <mergeCell ref="P34:P35"/>
+    <mergeCell ref="Q34:Q35"/>
+    <mergeCell ref="R34:R35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="N34:N35"/>
+    <mergeCell ref="O34:O35"/>
+    <mergeCell ref="O42:O43"/>
+    <mergeCell ref="P42:P43"/>
+    <mergeCell ref="Q42:Q43"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="H45:H46"/>
+    <mergeCell ref="I45:I46"/>
+    <mergeCell ref="J45:J46"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="K47:K49"/>
+    <mergeCell ref="M47:M49"/>
+    <mergeCell ref="O47:O49"/>
+    <mergeCell ref="K45:K46"/>
+    <mergeCell ref="L45:L46"/>
+    <mergeCell ref="M45:M46"/>
+    <mergeCell ref="N45:N46"/>
+    <mergeCell ref="O45:O46"/>
+    <mergeCell ref="R42:R43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="Q45:Q46"/>
+    <mergeCell ref="R45:R46"/>
+    <mergeCell ref="P45:P46"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I53:I54"/>
+    <mergeCell ref="P53:P54"/>
+    <mergeCell ref="R47:R49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="M50:M51"/>
+    <mergeCell ref="P50:P51"/>
+    <mergeCell ref="Q50:Q51"/>
+    <mergeCell ref="R50:R51"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="C47:C49"/>
+    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="G47:G49"/>
+    <mergeCell ref="J47:J49"/>
+    <mergeCell ref="Q53:Q54"/>
+    <mergeCell ref="R53:R54"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="J53:J54"/>
+    <mergeCell ref="K53:K54"/>
+    <mergeCell ref="L53:L54"/>
+    <mergeCell ref="M53:M54"/>
+    <mergeCell ref="N53:N54"/>
+    <mergeCell ref="O53:O54"/>
+    <mergeCell ref="R56:R57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="Q56:Q57"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="J62:J63"/>
     <mergeCell ref="O64:O65"/>
     <mergeCell ref="Q62:Q63"/>
     <mergeCell ref="R62:R63"/>
@@ -20215,197 +22924,6 @@
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="L64:L65"/>
     <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="Q53:Q54"/>
-    <mergeCell ref="R53:R54"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="J53:J54"/>
-    <mergeCell ref="K53:K54"/>
-    <mergeCell ref="L53:L54"/>
-    <mergeCell ref="M53:M54"/>
-    <mergeCell ref="N53:N54"/>
-    <mergeCell ref="O53:O54"/>
-    <mergeCell ref="R56:R57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="Q56:Q57"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I53:I54"/>
-    <mergeCell ref="P53:P54"/>
-    <mergeCell ref="R47:R49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="M50:M51"/>
-    <mergeCell ref="P50:P51"/>
-    <mergeCell ref="Q50:Q51"/>
-    <mergeCell ref="R50:R51"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="C47:C49"/>
-    <mergeCell ref="D47:D49"/>
-    <mergeCell ref="G47:G49"/>
-    <mergeCell ref="J47:J49"/>
-    <mergeCell ref="K47:K49"/>
-    <mergeCell ref="M47:M49"/>
-    <mergeCell ref="O47:O49"/>
-    <mergeCell ref="K45:K46"/>
-    <mergeCell ref="L45:L46"/>
-    <mergeCell ref="M45:M46"/>
-    <mergeCell ref="N45:N46"/>
-    <mergeCell ref="O45:O46"/>
-    <mergeCell ref="R42:R43"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="H45:H46"/>
-    <mergeCell ref="I45:I46"/>
-    <mergeCell ref="J45:J46"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="Q45:Q46"/>
-    <mergeCell ref="R45:R46"/>
-    <mergeCell ref="P45:P46"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="P31:P32"/>
-    <mergeCell ref="P34:P35"/>
-    <mergeCell ref="Q34:Q35"/>
-    <mergeCell ref="R34:R35"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="N34:N35"/>
-    <mergeCell ref="O34:O35"/>
-    <mergeCell ref="O42:O43"/>
-    <mergeCell ref="P42:P43"/>
-    <mergeCell ref="Q42:Q43"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="R21:R23"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="I31:I32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K21:K23"/>
-    <mergeCell ref="M21:M23"/>
-    <mergeCell ref="N21:N23"/>
-    <mergeCell ref="O21:O23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="Q21:Q23"/>
-    <mergeCell ref="A21:A23"/>
-    <mergeCell ref="C21:C23"/>
-    <mergeCell ref="D21:D23"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="Q31:Q32"/>
-    <mergeCell ref="R31:R32"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="R16:R17"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L10:L12"/>
-    <mergeCell ref="M10:M12"/>
-    <mergeCell ref="Q10:Q12"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="O7:O8"/>
-    <mergeCell ref="P7:P8"/>
-    <mergeCell ref="Q7:Q8"/>
-    <mergeCell ref="R7:R8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Alpine Linux" display="https://en.wikipedia.org/wiki/Alpine_Linux" xr:uid="{7724EE7A-E925-4C90-A982-69B516A2CD35}"/>
@@ -20506,7 +23024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D846D3-35DB-4050-9420-19C2D2183904}">
   <dimension ref="A1:J60"/>
   <sheetViews>
@@ -22539,7 +25057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C64F4A-BCC7-4B3E-9A3E-354A486C8E11}">
   <dimension ref="A1:G57"/>
   <sheetViews>
@@ -23896,7 +26414,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6578E674-242F-42B4-8FAD-B25817760536}">
   <dimension ref="A1:J23"/>
   <sheetViews>
